--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="S2b - consensus correction" sheetId="1" r:id="rId1"/>
+    <sheet name="S2a - de novo assembly stats" sheetId="1" r:id="rId1"/>
+    <sheet name="S2b - consensus correction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>BAN001</t>
   </si>
@@ -70,6 +71,36 @@
     <t>GUE001</t>
   </si>
   <si>
+    <t>JAE006</t>
+  </si>
+  <si>
+    <t>JAE007</t>
+  </si>
+  <si>
+    <t>JAE008</t>
+  </si>
+  <si>
+    <t>JAE009</t>
+  </si>
+  <si>
+    <t>JAE010</t>
+  </si>
+  <si>
+    <t>JAE012</t>
+  </si>
+  <si>
+    <t>JAE013</t>
+  </si>
+  <si>
+    <t>JAE014</t>
+  </si>
+  <si>
+    <t>JAE015</t>
+  </si>
+  <si>
+    <t>JAE016</t>
+  </si>
+  <si>
     <t>LIS001</t>
   </si>
   <si>
@@ -124,28 +155,118 @@
     <t>RIG001</t>
   </si>
   <si>
+    <t>TAF008</t>
+  </si>
+  <si>
+    <t>TAF017</t>
+  </si>
+  <si>
+    <t>TAF018</t>
+  </si>
+  <si>
+    <t>VLC001</t>
+  </si>
+  <si>
+    <t>VLC002</t>
+  </si>
+  <si>
+    <t>VLC003</t>
+  </si>
+  <si>
+    <t>VLC004</t>
+  </si>
+  <si>
+    <t>VLC005</t>
+  </si>
+  <si>
+    <t>VLC008</t>
+  </si>
+  <si>
+    <t>VLC009</t>
+  </si>
+  <si>
+    <t>VLC010</t>
+  </si>
+  <si>
+    <t>VLD001</t>
+  </si>
+  <si>
+    <t>ZAF001</t>
+  </si>
+  <si>
+    <t>Table S2a: Overview of performance of the de novo assembly of the metagenomic sequencing data. Only contigs with a minimal length of 500 bp were considered. The columns N0 to N100 represent the maximal and minimal contig length plus the nine deciles. The number of coding sequences was determined prodigal and the number of genes using Prokka.</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>total length [bp]</t>
+  </si>
+  <si>
+    <t># of contigs</t>
+  </si>
+  <si>
+    <t># of contigs &gt;= 1,000 bp</t>
+  </si>
+  <si>
+    <t># of contigs &gt;= 5,000 bp</t>
+  </si>
+  <si>
+    <t># of contigs &gt;= 10,000 bp</t>
+  </si>
+  <si>
+    <t># of contigs &gt;= 25,000 bp</t>
+  </si>
+  <si>
+    <t># of contigs &gt;= 50,000 bp</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N30</t>
+  </si>
+  <si>
+    <t>N40</t>
+  </si>
+  <si>
+    <t>N50</t>
+  </si>
+  <si>
+    <t>N60</t>
+  </si>
+  <si>
+    <t>N70</t>
+  </si>
+  <si>
+    <t>N80</t>
+  </si>
+  <si>
+    <t>N90</t>
+  </si>
+  <si>
+    <t>N100</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>genes</t>
+  </si>
+  <si>
     <t>SPM001</t>
   </si>
   <si>
     <t>SPM002</t>
   </si>
   <si>
-    <t>TAF008</t>
-  </si>
-  <si>
     <t>TAF016</t>
-  </si>
-  <si>
-    <t>TAF017</t>
-  </si>
-  <si>
-    <t>TAF018</t>
-  </si>
-  <si>
-    <t>VLD001</t>
-  </si>
-  <si>
-    <t>ZAF001</t>
   </si>
   <si>
     <t>Table S2b: Overview of the number of differences between the contig sequences that were exported by MEGAHIT compared to the genotypes obtained from freeBayes after aligning the short-read sequencing data back against the assembled contigs. The columns 'AG' to 'TG' indicate how often each substitution was observed. The columns 'frequency &lt; AF &lt;= frequency' show the distrubtion of the frequency of the allele (AF) of the freeBayes genotype binned into 10% bins.</t>
@@ -227,8 +348,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -267,12 +389,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -283,6 +402,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,188 +703,4129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26695504</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10385</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6081</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1524</v>
+      </c>
+      <c r="F4" s="2">
+        <v>334</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30101</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12482</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9153</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7288</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5865</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4700</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3710</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2787</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1898</v>
+      </c>
+      <c r="R4" s="2">
+        <v>949</v>
+      </c>
+      <c r="S4" s="2">
+        <v>500</v>
+      </c>
+      <c r="T4" s="2">
+        <v>25423</v>
+      </c>
+      <c r="U4" s="2">
+        <v>25494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>27359306</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21748</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9467</v>
+      </c>
+      <c r="E5" s="2">
+        <v>205</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>11399</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3988</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3005</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2393</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1928</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1557</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1242</v>
+      </c>
+      <c r="P5" s="2">
+        <v>983</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>772</v>
+      </c>
+      <c r="R5" s="2">
+        <v>616</v>
+      </c>
+      <c r="S5" s="2">
+        <v>500</v>
+      </c>
+      <c r="T5" s="2">
+        <v>25220</v>
+      </c>
+      <c r="U5" s="2">
+        <v>25294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>39875405</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30601</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10541</v>
+      </c>
+      <c r="E6" s="2">
+        <v>773</v>
+      </c>
+      <c r="F6" s="2">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>113633</v>
+      </c>
+      <c r="J6" s="2">
+        <v>14924</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6211</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3227</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2081</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1516</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1151</v>
+      </c>
+      <c r="P6" s="2">
+        <v>907</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>730</v>
+      </c>
+      <c r="R6" s="2">
+        <v>600</v>
+      </c>
+      <c r="S6" s="2">
+        <v>500</v>
+      </c>
+      <c r="T6" s="2">
+        <v>39285</v>
+      </c>
+      <c r="U6" s="2">
+        <v>39720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>51090701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42702</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13319</v>
+      </c>
+      <c r="E7" s="2">
+        <v>915</v>
+      </c>
+      <c r="F7" s="2">
+        <v>147</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>113570</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7006</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4136</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2799</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1951</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1410</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1049</v>
+      </c>
+      <c r="P7" s="2">
+        <v>820</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>674</v>
+      </c>
+      <c r="R7" s="2">
+        <v>572</v>
+      </c>
+      <c r="S7" s="2">
+        <v>500</v>
+      </c>
+      <c r="T7" s="2">
+        <v>53399</v>
+      </c>
+      <c r="U7" s="2">
+        <v>53762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>221988</v>
+      </c>
+      <c r="C8" s="2">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50574</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50574</v>
+      </c>
+      <c r="K8" s="2">
+        <v>50574</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1913</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1247</v>
+      </c>
+      <c r="N8" s="2">
+        <v>999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>776</v>
+      </c>
+      <c r="P8" s="2">
+        <v>666</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>594</v>
+      </c>
+      <c r="R8" s="2">
+        <v>536</v>
+      </c>
+      <c r="S8" s="2">
+        <v>500</v>
+      </c>
+      <c r="T8" s="2">
+        <v>275</v>
+      </c>
+      <c r="U8" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16871759</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11566</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5343</v>
+      </c>
+      <c r="E9" s="2">
+        <v>346</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30799</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6380</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4291</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3220</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2517</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1940</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1508</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1163</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>862</v>
+      </c>
+      <c r="R9" s="2">
+        <v>646</v>
+      </c>
+      <c r="S9" s="2">
+        <v>500</v>
+      </c>
+      <c r="T9" s="2">
+        <v>17364</v>
+      </c>
+      <c r="U9" s="2">
+        <v>17637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>109228254</v>
+      </c>
+      <c r="C10" s="2">
+        <v>74869</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26469</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2330</v>
+      </c>
+      <c r="F10" s="2">
+        <v>885</v>
+      </c>
+      <c r="G10" s="2">
+        <v>250</v>
+      </c>
+      <c r="H10" s="2">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2">
+        <v>363869</v>
+      </c>
+      <c r="J10" s="2">
+        <v>35345</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10948</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2836</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1858</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1335</v>
+      </c>
+      <c r="P10" s="2">
+        <v>994</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>774</v>
+      </c>
+      <c r="R10" s="2">
+        <v>616</v>
+      </c>
+      <c r="S10" s="2">
+        <v>500</v>
+      </c>
+      <c r="T10" s="2">
+        <v>105745</v>
+      </c>
+      <c r="U10" s="2">
+        <v>106990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5192570</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7760</v>
+      </c>
+      <c r="D11" s="2">
+        <v>460</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2927</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1028</v>
+      </c>
+      <c r="K11" s="2">
+        <v>852</v>
+      </c>
+      <c r="L11" s="2">
+        <v>753</v>
+      </c>
+      <c r="M11" s="2">
+        <v>691</v>
+      </c>
+      <c r="N11" s="2">
+        <v>642</v>
+      </c>
+      <c r="O11" s="2">
+        <v>603</v>
+      </c>
+      <c r="P11" s="2">
+        <v>571</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>544</v>
+      </c>
+      <c r="R11" s="2">
+        <v>519</v>
+      </c>
+      <c r="S11" s="2">
+        <v>500</v>
+      </c>
+      <c r="T11" s="2">
+        <v>5545</v>
+      </c>
+      <c r="U11" s="2">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2078164</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D12" s="2">
+        <v>188</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5504</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1050</v>
+      </c>
+      <c r="K12" s="2">
+        <v>855</v>
+      </c>
+      <c r="L12" s="2">
+        <v>758</v>
+      </c>
+      <c r="M12" s="2">
+        <v>690</v>
+      </c>
+      <c r="N12" s="2">
+        <v>642</v>
+      </c>
+      <c r="O12" s="2">
+        <v>604</v>
+      </c>
+      <c r="P12" s="2">
+        <v>572</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>545</v>
+      </c>
+      <c r="R12" s="2">
+        <v>520</v>
+      </c>
+      <c r="S12" s="2">
+        <v>500</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2254</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12542411</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11742</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3530</v>
+      </c>
+      <c r="E13" s="2">
+        <v>143</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15334</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4413</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2792</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1485</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1150</v>
+      </c>
+      <c r="O13" s="2">
+        <v>922</v>
+      </c>
+      <c r="P13" s="2">
+        <v>765</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>652</v>
+      </c>
+      <c r="R13" s="2">
+        <v>566</v>
+      </c>
+      <c r="S13" s="2">
+        <v>500</v>
+      </c>
+      <c r="T13" s="2">
+        <v>12575</v>
+      </c>
+      <c r="U13" s="2">
+        <v>12783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9211138</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9090</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2418</v>
+      </c>
+      <c r="E14" s="2">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>13629</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4352</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2608</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1820</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1046</v>
+      </c>
+      <c r="O14" s="2">
+        <v>854</v>
+      </c>
+      <c r="P14" s="2">
+        <v>718</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>625</v>
+      </c>
+      <c r="R14" s="2">
+        <v>551</v>
+      </c>
+      <c r="S14" s="2">
+        <v>500</v>
+      </c>
+      <c r="T14" s="2">
+        <v>9303</v>
+      </c>
+      <c r="U14" s="2">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10541295</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11608</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2595</v>
+      </c>
+      <c r="E15" s="2">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12343</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2970</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1815</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1312</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N15" s="2">
+        <v>891</v>
+      </c>
+      <c r="O15" s="2">
+        <v>772</v>
+      </c>
+      <c r="P15" s="2">
+        <v>679</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>609</v>
+      </c>
+      <c r="R15" s="2">
+        <v>551</v>
+      </c>
+      <c r="S15" s="2">
+        <v>500</v>
+      </c>
+      <c r="T15" s="2">
+        <v>10747</v>
+      </c>
+      <c r="U15" s="2">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>710576</v>
+      </c>
+      <c r="C16" s="2">
+        <v>958</v>
+      </c>
+      <c r="D16" s="2">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8296</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1570</v>
+      </c>
+      <c r="K16" s="2">
+        <v>989</v>
+      </c>
+      <c r="L16" s="2">
+        <v>870</v>
+      </c>
+      <c r="M16" s="2">
+        <v>767</v>
+      </c>
+      <c r="N16" s="2">
+        <v>706</v>
+      </c>
+      <c r="O16" s="2">
+        <v>649</v>
+      </c>
+      <c r="P16" s="2">
+        <v>603</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>561</v>
+      </c>
+      <c r="R16" s="2">
+        <v>530</v>
+      </c>
+      <c r="S16" s="2">
+        <v>500</v>
+      </c>
+      <c r="T16" s="2">
+        <v>796</v>
+      </c>
+      <c r="U16" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>35832728</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25416</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8509</v>
+      </c>
+      <c r="E17" s="2">
+        <v>899</v>
+      </c>
+      <c r="F17" s="2">
+        <v>364</v>
+      </c>
+      <c r="G17" s="2">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>74330</v>
+      </c>
+      <c r="J17" s="2">
+        <v>18268</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9242</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4828</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2796</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1822</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1287</v>
+      </c>
+      <c r="P17" s="2">
+        <v>947</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>745</v>
+      </c>
+      <c r="R17" s="2">
+        <v>603</v>
+      </c>
+      <c r="S17" s="2">
+        <v>500</v>
+      </c>
+      <c r="T17" s="2">
+        <v>35421</v>
+      </c>
+      <c r="U17" s="2">
+        <v>35772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15781011</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4964</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1682</v>
+      </c>
+      <c r="E18" s="2">
+        <v>258</v>
+      </c>
+      <c r="F18" s="2">
+        <v>205</v>
+      </c>
+      <c r="G18" s="2">
+        <v>130</v>
+      </c>
+      <c r="H18" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" s="2">
+        <v>470711</v>
+      </c>
+      <c r="J18" s="2">
+        <v>180626</v>
+      </c>
+      <c r="K18" s="2">
+        <v>124041</v>
+      </c>
+      <c r="L18" s="2">
+        <v>91489</v>
+      </c>
+      <c r="M18" s="2">
+        <v>63820</v>
+      </c>
+      <c r="N18" s="2">
+        <v>46473</v>
+      </c>
+      <c r="O18" s="2">
+        <v>25745</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6627</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1486</v>
+      </c>
+      <c r="R18" s="2">
+        <v>795</v>
+      </c>
+      <c r="S18" s="2">
+        <v>500</v>
+      </c>
+      <c r="T18" s="2">
+        <v>15168</v>
+      </c>
+      <c r="U18" s="2">
+        <v>15354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>128000422</v>
+      </c>
+      <c r="C19" s="2">
+        <v>92411</v>
+      </c>
+      <c r="D19" s="2">
+        <v>35063</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3258</v>
+      </c>
+      <c r="F19" s="2">
+        <v>913</v>
+      </c>
+      <c r="G19" s="2">
+        <v>59</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>73046</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10504</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5899</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3644</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2469</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1751</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1289</v>
+      </c>
+      <c r="P19" s="2">
+        <v>985</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>770</v>
+      </c>
+      <c r="R19" s="2">
+        <v>614</v>
+      </c>
+      <c r="S19" s="2">
+        <v>500</v>
+      </c>
+      <c r="T19" s="2">
+        <v>122795</v>
+      </c>
+      <c r="U19" s="2">
+        <v>123327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>17769312</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13910</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4423</v>
+      </c>
+      <c r="E20" s="2">
+        <v>375</v>
+      </c>
+      <c r="F20" s="2">
+        <v>133</v>
+      </c>
+      <c r="G20" s="2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>51488</v>
+      </c>
+      <c r="J20" s="2">
+        <v>13645</v>
+      </c>
+      <c r="K20" s="2">
+        <v>6270</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3446</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2192</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1517</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1116</v>
+      </c>
+      <c r="P20" s="2">
+        <v>868</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>701</v>
+      </c>
+      <c r="R20" s="2">
+        <v>582</v>
+      </c>
+      <c r="S20" s="2">
+        <v>500</v>
+      </c>
+      <c r="T20" s="2">
+        <v>17014</v>
+      </c>
+      <c r="U20" s="2">
+        <v>17239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3344281</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3276</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7795</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2442</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1896</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1565</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1318</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1096</v>
+      </c>
+      <c r="O21" s="2">
+        <v>951</v>
+      </c>
+      <c r="P21" s="2">
+        <v>809</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>685</v>
+      </c>
+      <c r="R21" s="2">
+        <v>587</v>
+      </c>
+      <c r="S21" s="2">
+        <v>500</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3475</v>
+      </c>
+      <c r="U21" s="2">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>90997613</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42378</v>
+      </c>
+      <c r="D22" s="2">
+        <v>18179</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2334</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1089</v>
+      </c>
+      <c r="G22" s="2">
+        <v>404</v>
+      </c>
+      <c r="H22" s="2">
+        <v>158</v>
+      </c>
+      <c r="I22" s="2">
+        <v>683510</v>
+      </c>
+      <c r="J22" s="2">
+        <v>109516</v>
+      </c>
+      <c r="K22" s="2">
+        <v>45455</v>
+      </c>
+      <c r="L22" s="2">
+        <v>21905</v>
+      </c>
+      <c r="M22" s="2">
+        <v>9721</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4717</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2588</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1600</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1062</v>
+      </c>
+      <c r="R22" s="2">
+        <v>728</v>
+      </c>
+      <c r="S22" s="2">
+        <v>500</v>
+      </c>
+      <c r="T22" s="2">
+        <v>80472</v>
+      </c>
+      <c r="U22" s="2">
+        <v>81589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>75268505</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40907</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17577</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1877</v>
+      </c>
+      <c r="F23" s="2">
+        <v>742</v>
+      </c>
+      <c r="G23" s="2">
+        <v>216</v>
+      </c>
+      <c r="H23" s="2">
+        <v>85</v>
+      </c>
+      <c r="I23" s="2">
+        <v>431112</v>
+      </c>
+      <c r="J23" s="2">
+        <v>83017</v>
+      </c>
+      <c r="K23" s="2">
+        <v>23190</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9792</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5007</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2902</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1899</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1323</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>953</v>
+      </c>
+      <c r="R23" s="2">
+        <v>689</v>
+      </c>
+      <c r="S23" s="2">
+        <v>500</v>
+      </c>
+      <c r="T23" s="2">
+        <v>67761</v>
+      </c>
+      <c r="U23" s="2">
+        <v>68712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>154247868</v>
+      </c>
+      <c r="C24" s="2">
+        <v>101889</v>
+      </c>
+      <c r="D24" s="2">
+        <v>37690</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3667</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1363</v>
+      </c>
+      <c r="G24" s="2">
+        <v>388</v>
+      </c>
+      <c r="H24" s="2">
+        <v>106</v>
+      </c>
+      <c r="I24" s="2">
+        <v>234483</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30011</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10977</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5371</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3139</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2026</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1415</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1042</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>798</v>
+      </c>
+      <c r="R24" s="2">
+        <v>626</v>
+      </c>
+      <c r="S24" s="2">
+        <v>500</v>
+      </c>
+      <c r="T24" s="2">
+        <v>138575</v>
+      </c>
+      <c r="U24" s="2">
+        <v>140296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>144086500</v>
+      </c>
+      <c r="C25" s="2">
+        <v>86206</v>
+      </c>
+      <c r="D25" s="2">
+        <v>33230</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3992</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1524</v>
+      </c>
+      <c r="G25" s="2">
+        <v>365</v>
+      </c>
+      <c r="H25" s="2">
+        <v>96</v>
+      </c>
+      <c r="I25" s="2">
+        <v>642791</v>
+      </c>
+      <c r="J25" s="2">
+        <v>34560</v>
+      </c>
+      <c r="K25" s="2">
+        <v>14341</v>
+      </c>
+      <c r="L25" s="2">
+        <v>7476</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4236</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2574</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1695</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1179</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>856</v>
+      </c>
+      <c r="R25" s="2">
+        <v>643</v>
+      </c>
+      <c r="S25" s="2">
+        <v>500</v>
+      </c>
+      <c r="T25" s="2">
+        <v>131379</v>
+      </c>
+      <c r="U25" s="2">
+        <v>133148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>108966026</v>
+      </c>
+      <c r="C26" s="2">
+        <v>64812</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26387</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2739</v>
+      </c>
+      <c r="F26" s="2">
+        <v>853</v>
+      </c>
+      <c r="G26" s="2">
+        <v>245</v>
+      </c>
+      <c r="H26" s="2">
+        <v>93</v>
+      </c>
+      <c r="I26" s="2">
+        <v>604854</v>
+      </c>
+      <c r="J26" s="2">
+        <v>46106</v>
+      </c>
+      <c r="K26" s="2">
+        <v>12235</v>
+      </c>
+      <c r="L26" s="2">
+        <v>6129</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3826</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2541</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1746</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1221</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>879</v>
+      </c>
+      <c r="R26" s="2">
+        <v>650</v>
+      </c>
+      <c r="S26" s="2">
+        <v>500</v>
+      </c>
+      <c r="T26" s="2">
+        <v>101274</v>
+      </c>
+      <c r="U26" s="2">
+        <v>102530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>111869166</v>
+      </c>
+      <c r="C27" s="2">
+        <v>60169</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25403</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1203</v>
+      </c>
+      <c r="G27" s="2">
+        <v>369</v>
+      </c>
+      <c r="H27" s="2">
+        <v>132</v>
+      </c>
+      <c r="I27" s="2">
+        <v>854345</v>
+      </c>
+      <c r="J27" s="2">
+        <v>56289</v>
+      </c>
+      <c r="K27" s="2">
+        <v>21920</v>
+      </c>
+      <c r="L27" s="2">
+        <v>9787</v>
+      </c>
+      <c r="M27" s="2">
+        <v>5165</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3096</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2008</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1361</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>955</v>
+      </c>
+      <c r="R27" s="2">
+        <v>684</v>
+      </c>
+      <c r="S27" s="2">
+        <v>500</v>
+      </c>
+      <c r="T27" s="2">
+        <v>101921</v>
+      </c>
+      <c r="U27" s="2">
+        <v>103296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>83863658</v>
+      </c>
+      <c r="C28" s="2">
+        <v>49322</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19707</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2499</v>
+      </c>
+      <c r="F28" s="2">
+        <v>788</v>
+      </c>
+      <c r="G28" s="2">
+        <v>167</v>
+      </c>
+      <c r="H28" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1099133</v>
+      </c>
+      <c r="J28" s="2">
+        <v>27545</v>
+      </c>
+      <c r="K28" s="2">
+        <v>11649</v>
+      </c>
+      <c r="L28" s="2">
+        <v>6543</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4182</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2743</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1809</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1227</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>874</v>
+      </c>
+      <c r="R28" s="2">
+        <v>652</v>
+      </c>
+      <c r="S28" s="2">
+        <v>500</v>
+      </c>
+      <c r="T28" s="2">
+        <v>77328</v>
+      </c>
+      <c r="U28" s="2">
+        <v>78291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>156283253</v>
+      </c>
+      <c r="C29" s="2">
+        <v>105235</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35128</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3211</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1526</v>
+      </c>
+      <c r="G29" s="2">
+        <v>454</v>
+      </c>
+      <c r="H29" s="2">
+        <v>139</v>
+      </c>
+      <c r="I29" s="2">
+        <v>427187</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43261</v>
+      </c>
+      <c r="K29" s="2">
+        <v>17338</v>
+      </c>
+      <c r="L29" s="2">
+        <v>7012</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3177</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1904</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1324</v>
+      </c>
+      <c r="P29" s="2">
+        <v>985</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>768</v>
+      </c>
+      <c r="R29" s="2">
+        <v>615</v>
+      </c>
+      <c r="S29" s="2">
+        <v>500</v>
+      </c>
+      <c r="T29" s="2">
+        <v>142867</v>
+      </c>
+      <c r="U29" s="2">
+        <v>144855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>124443602</v>
+      </c>
+      <c r="C30" s="2">
+        <v>77935</v>
+      </c>
+      <c r="D30" s="2">
+        <v>31931</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3016</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1149</v>
+      </c>
+      <c r="G30" s="2">
+        <v>292</v>
+      </c>
+      <c r="H30" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" s="2">
+        <v>204522</v>
+      </c>
+      <c r="J30" s="2">
+        <v>27113</v>
+      </c>
+      <c r="K30" s="2">
+        <v>11061</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5452</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3254</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2200</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1567</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1148</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>856</v>
+      </c>
+      <c r="R30" s="2">
+        <v>647</v>
+      </c>
+      <c r="S30" s="2">
+        <v>500</v>
+      </c>
+      <c r="T30" s="2">
+        <v>114314</v>
+      </c>
+      <c r="U30" s="2">
+        <v>115931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>148992287</v>
+      </c>
+      <c r="C31" s="2">
+        <v>77320</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30290</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4300</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1955</v>
+      </c>
+      <c r="G31" s="2">
+        <v>656</v>
+      </c>
+      <c r="H31" s="2">
+        <v>185</v>
+      </c>
+      <c r="I31" s="2">
+        <v>380410</v>
+      </c>
+      <c r="J31" s="2">
+        <v>51110</v>
+      </c>
+      <c r="K31" s="2">
+        <v>26801</v>
+      </c>
+      <c r="L31" s="2">
+        <v>13871</v>
+      </c>
+      <c r="M31" s="2">
+        <v>7009</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3821</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2254</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1411</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>946</v>
+      </c>
+      <c r="R31" s="2">
+        <v>672</v>
+      </c>
+      <c r="S31" s="2">
+        <v>500</v>
+      </c>
+      <c r="T31" s="2">
+        <v>136407</v>
+      </c>
+      <c r="U31" s="2">
+        <v>138542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16360639</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17171</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3753</v>
+      </c>
+      <c r="E32" s="2">
+        <v>182</v>
+      </c>
+      <c r="F32" s="2">
+        <v>41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>42857</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4839</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2224</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1464</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1118</v>
+      </c>
+      <c r="N32" s="2">
+        <v>919</v>
+      </c>
+      <c r="O32" s="2">
+        <v>789</v>
+      </c>
+      <c r="P32" s="2">
+        <v>691</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>615</v>
+      </c>
+      <c r="R32" s="2">
+        <v>552</v>
+      </c>
+      <c r="S32" s="2">
+        <v>500</v>
+      </c>
+      <c r="T32" s="2">
+        <v>16259</v>
+      </c>
+      <c r="U32" s="2">
+        <v>16444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8152489</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7854</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2241</v>
+      </c>
+      <c r="E33" s="2">
+        <v>109</v>
+      </c>
+      <c r="F33" s="2">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>22121</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5186</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2555</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1707</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1326</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1057</v>
+      </c>
+      <c r="O33" s="2">
+        <v>892</v>
+      </c>
+      <c r="P33" s="2">
+        <v>755</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>650</v>
+      </c>
+      <c r="R33" s="2">
+        <v>567</v>
+      </c>
+      <c r="S33" s="2">
+        <v>500</v>
+      </c>
+      <c r="T33" s="2">
+        <v>8203</v>
+      </c>
+      <c r="U33" s="2">
+        <v>8315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6541425</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7194</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1817</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>7830</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2540</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1807</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1382</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1108</v>
+      </c>
+      <c r="N34" s="2">
+        <v>914</v>
+      </c>
+      <c r="O34" s="2">
+        <v>778</v>
+      </c>
+      <c r="P34" s="2">
+        <v>682</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>607</v>
+      </c>
+      <c r="R34" s="2">
+        <v>547</v>
+      </c>
+      <c r="S34" s="2">
+        <v>500</v>
+      </c>
+      <c r="T34" s="2">
+        <v>6641</v>
+      </c>
+      <c r="U34" s="2">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20117571</v>
+      </c>
+      <c r="C35" s="2">
+        <v>11757</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4516</v>
+      </c>
+      <c r="E35" s="2">
+        <v>502</v>
+      </c>
+      <c r="F35" s="2">
+        <v>186</v>
+      </c>
+      <c r="G35" s="2">
+        <v>55</v>
+      </c>
+      <c r="H35" s="2">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2">
+        <v>248663</v>
+      </c>
+      <c r="J35" s="2">
+        <v>71749</v>
+      </c>
+      <c r="K35" s="2">
+        <v>20392</v>
+      </c>
+      <c r="L35" s="2">
+        <v>8829</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4709</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2646</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1700</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1199</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>866</v>
+      </c>
+      <c r="R35" s="2">
+        <v>646</v>
+      </c>
+      <c r="S35" s="2">
+        <v>500</v>
+      </c>
+      <c r="T35" s="2">
+        <v>18888</v>
+      </c>
+      <c r="U35" s="2">
+        <v>19219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>474307</v>
+      </c>
+      <c r="C36" s="2">
+        <v>719</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2337</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1090</v>
+      </c>
+      <c r="K36" s="2">
+        <v>864</v>
+      </c>
+      <c r="L36" s="2">
+        <v>736</v>
+      </c>
+      <c r="M36" s="2">
+        <v>662</v>
+      </c>
+      <c r="N36" s="2">
+        <v>615</v>
+      </c>
+      <c r="O36" s="2">
+        <v>583</v>
+      </c>
+      <c r="P36" s="2">
+        <v>558</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>536</v>
+      </c>
+      <c r="R36" s="2">
+        <v>515</v>
+      </c>
+      <c r="S36" s="2">
+        <v>500</v>
+      </c>
+      <c r="T36" s="2">
+        <v>416</v>
+      </c>
+      <c r="U36" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40026485</v>
+      </c>
+      <c r="C37" s="2">
+        <v>34756</v>
+      </c>
+      <c r="D37" s="2">
+        <v>11317</v>
+      </c>
+      <c r="E37" s="2">
+        <v>523</v>
+      </c>
+      <c r="F37" s="2">
+        <v>151</v>
+      </c>
+      <c r="G37" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>65958</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6663</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3319</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2227</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1645</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1272</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1009</v>
+      </c>
+      <c r="P37" s="2">
+        <v>821</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>684</v>
+      </c>
+      <c r="R37" s="2">
+        <v>580</v>
+      </c>
+      <c r="S37" s="2">
+        <v>500</v>
+      </c>
+      <c r="T37" s="2">
+        <v>39958</v>
+      </c>
+      <c r="U37" s="2">
+        <v>40165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2">
+        <v>23471813</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16963</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6053</v>
+      </c>
+      <c r="E38" s="2">
+        <v>542</v>
+      </c>
+      <c r="F38" s="2">
+        <v>214</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43</v>
+      </c>
+      <c r="H38" s="2">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>75829</v>
+      </c>
+      <c r="J38" s="2">
+        <v>18429</v>
+      </c>
+      <c r="K38" s="2">
+        <v>8849</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4220</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2364</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1633</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1219</v>
+      </c>
+      <c r="P38" s="2">
+        <v>956</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>762</v>
+      </c>
+      <c r="R38" s="2">
+        <v>612</v>
+      </c>
+      <c r="S38" s="2">
+        <v>500</v>
+      </c>
+      <c r="T38" s="2">
+        <v>23639</v>
+      </c>
+      <c r="U38" s="2">
+        <v>23962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9199644</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6451</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2978</v>
+      </c>
+      <c r="E39" s="2">
+        <v>190</v>
+      </c>
+      <c r="F39" s="2">
+        <v>34</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>25390</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6899</v>
+      </c>
+      <c r="K39" s="2">
+        <v>4309</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3052</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2351</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1827</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1410</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1103</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>847</v>
+      </c>
+      <c r="R39" s="2">
+        <v>650</v>
+      </c>
+      <c r="S39" s="2">
+        <v>500</v>
+      </c>
+      <c r="T39" s="2">
+        <v>9501</v>
+      </c>
+      <c r="U39" s="2">
+        <v>9625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <v>35134328</v>
+      </c>
+      <c r="C40" s="2">
+        <v>25878</v>
+      </c>
+      <c r="D40" s="2">
+        <v>11011</v>
+      </c>
+      <c r="E40" s="2">
+        <v>666</v>
+      </c>
+      <c r="F40" s="2">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>33993</v>
+      </c>
+      <c r="J40" s="2">
+        <v>6915</v>
+      </c>
+      <c r="K40" s="2">
+        <v>4159</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2960</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2197</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1669</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1294</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1020</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>799</v>
+      </c>
+      <c r="R40" s="2">
+        <v>631</v>
+      </c>
+      <c r="S40" s="2">
+        <v>500</v>
+      </c>
+      <c r="T40" s="2">
+        <v>34014</v>
+      </c>
+      <c r="U40" s="2">
+        <v>34365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <v>111941038</v>
+      </c>
+      <c r="C41" s="2">
+        <v>64709</v>
+      </c>
+      <c r="D41" s="2">
+        <v>28077</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3565</v>
+      </c>
+      <c r="F41" s="2">
+        <v>973</v>
+      </c>
+      <c r="G41" s="2">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2">
+        <v>51</v>
+      </c>
+      <c r="I41" s="2">
+        <v>191714</v>
+      </c>
+      <c r="J41" s="2">
+        <v>19053</v>
+      </c>
+      <c r="K41" s="2">
+        <v>8750</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5703</v>
+      </c>
+      <c r="M41" s="2">
+        <v>3935</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2760</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1923</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1333</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>921</v>
+      </c>
+      <c r="R41" s="2">
+        <v>663</v>
+      </c>
+      <c r="S41" s="2">
+        <v>500</v>
+      </c>
+      <c r="T41" s="2">
+        <v>110171</v>
+      </c>
+      <c r="U41" s="2">
+        <v>111264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>89531136</v>
+      </c>
+      <c r="C42" s="2">
+        <v>59741</v>
+      </c>
+      <c r="D42" s="2">
+        <v>22385</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2281</v>
+      </c>
+      <c r="F42" s="2">
+        <v>737</v>
+      </c>
+      <c r="G42" s="2">
+        <v>147</v>
+      </c>
+      <c r="H42" s="2">
+        <v>47</v>
+      </c>
+      <c r="I42" s="2">
+        <v>204840</v>
+      </c>
+      <c r="J42" s="2">
+        <v>19946</v>
+      </c>
+      <c r="K42" s="2">
+        <v>8603</v>
+      </c>
+      <c r="L42" s="2">
+        <v>4922</v>
+      </c>
+      <c r="M42" s="2">
+        <v>3076</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2047</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1424</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1047</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>796</v>
+      </c>
+      <c r="R42" s="2">
+        <v>622</v>
+      </c>
+      <c r="S42" s="2">
+        <v>500</v>
+      </c>
+      <c r="T42" s="2">
+        <v>86716</v>
+      </c>
+      <c r="U42" s="2">
+        <v>87511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>64947475</v>
+      </c>
+      <c r="C43" s="2">
+        <v>39038</v>
+      </c>
+      <c r="D43" s="2">
+        <v>14675</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F43" s="2">
+        <v>810</v>
+      </c>
+      <c r="G43" s="2">
+        <v>136</v>
+      </c>
+      <c r="H43" s="2">
+        <v>23</v>
+      </c>
+      <c r="I43" s="2">
+        <v>344046</v>
+      </c>
+      <c r="J43" s="2">
+        <v>24214</v>
+      </c>
+      <c r="K43" s="2">
+        <v>12704</v>
+      </c>
+      <c r="L43" s="2">
+        <v>7360</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4401</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2706</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1727</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1171</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>843</v>
+      </c>
+      <c r="R43" s="2">
+        <v>636</v>
+      </c>
+      <c r="S43" s="2">
+        <v>500</v>
+      </c>
+      <c r="T43" s="2">
+        <v>62842</v>
+      </c>
+      <c r="U43" s="2">
+        <v>63628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13637890</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13818</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1912</v>
+      </c>
+      <c r="E44" s="2">
+        <v>174</v>
+      </c>
+      <c r="F44" s="2">
+        <v>117</v>
+      </c>
+      <c r="G44" s="2">
+        <v>43</v>
+      </c>
+      <c r="H44" s="2">
+        <v>11</v>
+      </c>
+      <c r="I44" s="2">
+        <v>102580</v>
+      </c>
+      <c r="J44" s="2">
+        <v>35346</v>
+      </c>
+      <c r="K44" s="2">
+        <v>13008</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1568</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1066</v>
+      </c>
+      <c r="N44" s="2">
+        <v>869</v>
+      </c>
+      <c r="O44" s="2">
+        <v>748</v>
+      </c>
+      <c r="P44" s="2">
+        <v>661</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>596</v>
+      </c>
+      <c r="R44" s="2">
+        <v>544</v>
+      </c>
+      <c r="S44" s="2">
+        <v>500</v>
+      </c>
+      <c r="T44" s="2">
+        <v>13832</v>
+      </c>
+      <c r="U44" s="2">
+        <v>13969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2">
+        <v>17542997</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14946</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>26126</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6345</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3739</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2503</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1316</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1028</v>
+      </c>
+      <c r="P45" s="2">
+        <v>832</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>687</v>
+      </c>
+      <c r="R45" s="2">
+        <v>579</v>
+      </c>
+      <c r="S45" s="2">
+        <v>500</v>
+      </c>
+      <c r="T45" s="2">
+        <v>16938</v>
+      </c>
+      <c r="U45" s="2">
+        <v>17128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2">
+        <v>16908012</v>
+      </c>
+      <c r="C46" s="2">
+        <v>13991</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5013</v>
+      </c>
+      <c r="E46" s="2">
+        <v>201</v>
+      </c>
+      <c r="F46" s="2">
+        <v>85</v>
+      </c>
+      <c r="G46" s="2">
+        <v>20</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>64331</v>
+      </c>
+      <c r="J46" s="2">
+        <v>10161</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3422</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2278</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1698</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1353</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1088</v>
+      </c>
+      <c r="P46" s="2">
+        <v>877</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>721</v>
+      </c>
+      <c r="R46" s="2">
+        <v>595</v>
+      </c>
+      <c r="S46" s="2">
+        <v>500</v>
+      </c>
+      <c r="T46" s="2">
+        <v>16727</v>
+      </c>
+      <c r="U46" s="2">
+        <v>16954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>23073846</v>
+      </c>
+      <c r="C47" s="2">
+        <v>23670</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6717</v>
+      </c>
+      <c r="E47" s="2">
+        <v>104</v>
+      </c>
+      <c r="F47" s="2">
+        <v>28</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>38997</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2894</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1937</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1476</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1194</v>
+      </c>
+      <c r="N47" s="2">
+        <v>998</v>
+      </c>
+      <c r="O47" s="2">
+        <v>852</v>
+      </c>
+      <c r="P47" s="2">
+        <v>738</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>644</v>
+      </c>
+      <c r="R47" s="2">
+        <v>566</v>
+      </c>
+      <c r="S47" s="2">
+        <v>500</v>
+      </c>
+      <c r="T47" s="2">
+        <v>23862</v>
+      </c>
+      <c r="U47" s="2">
+        <v>24099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2">
+        <v>32154065</v>
+      </c>
+      <c r="C48" s="2">
+        <v>21483</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9159</v>
+      </c>
+      <c r="E48" s="2">
+        <v>882</v>
+      </c>
+      <c r="F48" s="2">
+        <v>233</v>
+      </c>
+      <c r="G48" s="2">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>49204</v>
+      </c>
+      <c r="J48" s="2">
+        <v>10649</v>
+      </c>
+      <c r="K48" s="2">
+        <v>6140</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4023</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2756</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1966</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1464</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1102</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>839</v>
+      </c>
+      <c r="R48" s="2">
+        <v>647</v>
+      </c>
+      <c r="S48" s="2">
+        <v>500</v>
+      </c>
+      <c r="T48" s="2">
+        <v>31330</v>
+      </c>
+      <c r="U48" s="2">
+        <v>31722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2">
+        <v>73183928</v>
+      </c>
+      <c r="C49" s="2">
+        <v>52483</v>
+      </c>
+      <c r="D49" s="2">
+        <v>19172</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1784</v>
+      </c>
+      <c r="F49" s="2">
+        <v>489</v>
+      </c>
+      <c r="G49" s="2">
+        <v>58</v>
+      </c>
+      <c r="H49" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" s="2">
+        <v>174070</v>
+      </c>
+      <c r="J49" s="2">
+        <v>12087</v>
+      </c>
+      <c r="K49" s="2">
+        <v>6266</v>
+      </c>
+      <c r="L49" s="2">
+        <v>3873</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2577</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1801</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1298</v>
+      </c>
+      <c r="P49" s="2">
+        <v>975</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>761</v>
+      </c>
+      <c r="R49" s="2">
+        <v>610</v>
+      </c>
+      <c r="S49" s="2">
+        <v>500</v>
+      </c>
+      <c r="T49" s="2">
+        <v>72603</v>
+      </c>
+      <c r="U49" s="2">
+        <v>73158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44729679</v>
+      </c>
+      <c r="C50" s="2">
+        <v>30993</v>
+      </c>
+      <c r="D50" s="2">
+        <v>11363</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1116</v>
+      </c>
+      <c r="F50" s="2">
+        <v>349</v>
+      </c>
+      <c r="G50" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" s="2">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2">
+        <v>90447</v>
+      </c>
+      <c r="J50" s="2">
+        <v>18253</v>
+      </c>
+      <c r="K50" s="2">
+        <v>7568</v>
+      </c>
+      <c r="L50" s="2">
+        <v>4431</v>
+      </c>
+      <c r="M50" s="2">
+        <v>2750</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1883</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1349</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1002</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>778</v>
+      </c>
+      <c r="R50" s="2">
+        <v>616</v>
+      </c>
+      <c r="S50" s="2">
+        <v>500</v>
+      </c>
+      <c r="T50" s="2">
+        <v>43240</v>
+      </c>
+      <c r="U50" s="2">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1950935</v>
+      </c>
+      <c r="C51" s="2">
+        <v>858</v>
+      </c>
+      <c r="D51" s="2">
+        <v>607</v>
+      </c>
+      <c r="E51" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>17058</v>
+      </c>
+      <c r="J51" s="2">
+        <v>8299</v>
+      </c>
+      <c r="K51" s="2">
+        <v>6399</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4748</v>
+      </c>
+      <c r="M51" s="2">
+        <v>3969</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3229</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2595</v>
+      </c>
+      <c r="P51" s="2">
+        <v>2042</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>1553</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1041</v>
+      </c>
+      <c r="S51" s="2">
+        <v>500</v>
+      </c>
+      <c r="T51" s="2">
+        <v>2032</v>
+      </c>
+      <c r="U51" s="2">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2">
+        <v>15375535</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10781</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4442</v>
+      </c>
+      <c r="E52" s="2">
+        <v>449</v>
+      </c>
+      <c r="F52" s="2">
+        <v>67</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>23975</v>
+      </c>
+      <c r="J52" s="2">
+        <v>7890</v>
+      </c>
+      <c r="K52" s="2">
+        <v>5520</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3726</v>
+      </c>
+      <c r="M52" s="2">
+        <v>2634</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1887</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1388</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1058</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>798</v>
+      </c>
+      <c r="R52" s="2">
+        <v>622</v>
+      </c>
+      <c r="S52" s="2">
+        <v>500</v>
+      </c>
+      <c r="T52" s="2">
+        <v>15165</v>
+      </c>
+      <c r="U52" s="2">
+        <v>15339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2">
+        <v>167857329</v>
+      </c>
+      <c r="C53" s="2">
+        <v>100531</v>
+      </c>
+      <c r="D53" s="2">
+        <v>40506</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4609</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1635</v>
+      </c>
+      <c r="G53" s="2">
+        <v>373</v>
+      </c>
+      <c r="H53" s="2">
+        <v>101</v>
+      </c>
+      <c r="I53" s="2">
+        <v>527142</v>
+      </c>
+      <c r="J53" s="2">
+        <v>30115</v>
+      </c>
+      <c r="K53" s="2">
+        <v>12123</v>
+      </c>
+      <c r="L53" s="2">
+        <v>6370</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3901</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2537</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1721</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1199</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>874</v>
+      </c>
+      <c r="R53" s="2">
+        <v>648</v>
+      </c>
+      <c r="S53" s="2">
+        <v>500</v>
+      </c>
+      <c r="T53" s="2">
+        <v>153897</v>
+      </c>
+      <c r="U53" s="2">
+        <v>155916</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2">
+        <v>60649076</v>
+      </c>
+      <c r="C54" s="2">
+        <v>47197</v>
+      </c>
+      <c r="D54" s="2">
+        <v>16114</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1039</v>
+      </c>
+      <c r="F54" s="2">
+        <v>307</v>
+      </c>
+      <c r="G54" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" s="2">
+        <v>31</v>
+      </c>
+      <c r="I54" s="2">
+        <v>251639</v>
+      </c>
+      <c r="J54" s="2">
+        <v>15072</v>
+      </c>
+      <c r="K54" s="2">
+        <v>5297</v>
+      </c>
+      <c r="L54" s="2">
+        <v>3043</v>
+      </c>
+      <c r="M54" s="2">
+        <v>2057</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1501</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1139</v>
+      </c>
+      <c r="P54" s="2">
+        <v>896</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>722</v>
+      </c>
+      <c r="R54" s="2">
+        <v>593</v>
+      </c>
+      <c r="S54" s="2">
+        <v>500</v>
+      </c>
+      <c r="T54" s="2">
+        <v>58135</v>
+      </c>
+      <c r="U54" s="2">
+        <v>58832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2">
+        <v>79975809</v>
+      </c>
+      <c r="C55" s="2">
+        <v>52197</v>
+      </c>
+      <c r="D55" s="2">
+        <v>22708</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1632</v>
+      </c>
+      <c r="F55" s="2">
+        <v>598</v>
+      </c>
+      <c r="G55" s="2">
+        <v>141</v>
+      </c>
+      <c r="H55" s="2">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2">
+        <v>209450</v>
+      </c>
+      <c r="J55" s="2">
+        <v>22086</v>
+      </c>
+      <c r="K55" s="2">
+        <v>7896</v>
+      </c>
+      <c r="L55" s="2">
+        <v>4050</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2696</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1942</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1466</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1127</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>865</v>
+      </c>
+      <c r="R55" s="2">
+        <v>652</v>
+      </c>
+      <c r="S55" s="2">
+        <v>500</v>
+      </c>
+      <c r="T55" s="2">
+        <v>72168</v>
+      </c>
+      <c r="U55" s="2">
+        <v>73088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2">
+        <v>177696025</v>
+      </c>
+      <c r="C56" s="2">
+        <v>118459</v>
+      </c>
+      <c r="D56" s="2">
+        <v>46932</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3957</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1369</v>
+      </c>
+      <c r="G56" s="2">
+        <v>359</v>
+      </c>
+      <c r="H56" s="2">
+        <v>113</v>
+      </c>
+      <c r="I56" s="2">
+        <v>353768</v>
+      </c>
+      <c r="J56" s="2">
+        <v>24279</v>
+      </c>
+      <c r="K56" s="2">
+        <v>8607</v>
+      </c>
+      <c r="L56" s="2">
+        <v>4535</v>
+      </c>
+      <c r="M56" s="2">
+        <v>2831</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1936</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1408</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1063</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>819</v>
+      </c>
+      <c r="R56" s="2">
+        <v>633</v>
+      </c>
+      <c r="S56" s="2">
+        <v>500</v>
+      </c>
+      <c r="T56" s="2">
+        <v>164869</v>
+      </c>
+      <c r="U56" s="2">
+        <v>166842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2">
+        <v>145888712</v>
+      </c>
+      <c r="C57" s="2">
+        <v>94211</v>
+      </c>
+      <c r="D57" s="2">
+        <v>35626</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3683</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1446</v>
+      </c>
+      <c r="G57" s="2">
+        <v>368</v>
+      </c>
+      <c r="H57" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" s="2">
+        <v>776605</v>
+      </c>
+      <c r="J57" s="2">
+        <v>26548</v>
+      </c>
+      <c r="K57" s="2">
+        <v>11720</v>
+      </c>
+      <c r="L57" s="2">
+        <v>5800</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3335</v>
+      </c>
+      <c r="N57" s="2">
+        <v>2138</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1470</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1076</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>817</v>
+      </c>
+      <c r="R57" s="2">
+        <v>629</v>
+      </c>
+      <c r="S57" s="2">
+        <v>500</v>
+      </c>
+      <c r="T57" s="2">
+        <v>136340</v>
+      </c>
+      <c r="U57" s="2">
+        <v>138166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2">
+        <v>149299179</v>
+      </c>
+      <c r="C58" s="2">
+        <v>84133</v>
+      </c>
+      <c r="D58" s="2">
+        <v>34739</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3683</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1377</v>
+      </c>
+      <c r="G58" s="2">
+        <v>391</v>
+      </c>
+      <c r="H58" s="2">
+        <v>136</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1372286</v>
+      </c>
+      <c r="J58" s="2">
+        <v>71036</v>
+      </c>
+      <c r="K58" s="2">
+        <v>18848</v>
+      </c>
+      <c r="L58" s="2">
+        <v>8115</v>
+      </c>
+      <c r="M58" s="2">
+        <v>4464</v>
+      </c>
+      <c r="N58" s="2">
+        <v>2805</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1848</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1278</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>918</v>
+      </c>
+      <c r="R58" s="2">
+        <v>668</v>
+      </c>
+      <c r="S58" s="2">
+        <v>500</v>
+      </c>
+      <c r="T58" s="2">
+        <v>137231</v>
+      </c>
+      <c r="U58" s="2">
+        <v>139114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2">
+        <v>148884274</v>
+      </c>
+      <c r="C59" s="2">
+        <v>85610</v>
+      </c>
+      <c r="D59" s="2">
+        <v>35745</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4626</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1467</v>
+      </c>
+      <c r="G59" s="2">
+        <v>300</v>
+      </c>
+      <c r="H59" s="2">
+        <v>86</v>
+      </c>
+      <c r="I59" s="2">
+        <v>470864</v>
+      </c>
+      <c r="J59" s="2">
+        <v>24680</v>
+      </c>
+      <c r="K59" s="2">
+        <v>10919</v>
+      </c>
+      <c r="L59" s="2">
+        <v>6412</v>
+      </c>
+      <c r="M59" s="2">
+        <v>4228</v>
+      </c>
+      <c r="N59" s="2">
+        <v>2837</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1923</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1302</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>909</v>
+      </c>
+      <c r="R59" s="2">
+        <v>659</v>
+      </c>
+      <c r="S59" s="2">
+        <v>500</v>
+      </c>
+      <c r="T59" s="2">
+        <v>136905</v>
+      </c>
+      <c r="U59" s="2">
+        <v>138578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2">
+        <v>67977811</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44494</v>
+      </c>
+      <c r="D60" s="2">
+        <v>14982</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1822</v>
+      </c>
+      <c r="F60" s="2">
+        <v>679</v>
+      </c>
+      <c r="G60" s="2">
+        <v>161</v>
+      </c>
+      <c r="H60" s="2">
+        <v>43</v>
+      </c>
+      <c r="I60" s="2">
+        <v>265526</v>
+      </c>
+      <c r="J60" s="2">
+        <v>30893</v>
+      </c>
+      <c r="K60" s="2">
+        <v>12831</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6554</v>
+      </c>
+      <c r="M60" s="2">
+        <v>3783</v>
+      </c>
+      <c r="N60" s="2">
+        <v>2255</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1443</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1022</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>776</v>
+      </c>
+      <c r="R60" s="2">
+        <v>609</v>
+      </c>
+      <c r="S60" s="2">
+        <v>500</v>
+      </c>
+      <c r="T60" s="2">
+        <v>64679</v>
+      </c>
+      <c r="U60" s="2">
+        <v>65657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5715989</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6153</v>
+      </c>
+      <c r="D61" s="2">
+        <v>957</v>
+      </c>
+      <c r="E61" s="2">
+        <v>39</v>
+      </c>
+      <c r="F61" s="2">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>88741</v>
+      </c>
+      <c r="J61" s="2">
+        <v>25021</v>
+      </c>
+      <c r="K61" s="2">
+        <v>2462</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1362</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1003</v>
+      </c>
+      <c r="N61" s="2">
+        <v>843</v>
+      </c>
+      <c r="O61" s="2">
+        <v>733</v>
+      </c>
+      <c r="P61" s="2">
+        <v>654</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>593</v>
+      </c>
+      <c r="R61" s="2">
+        <v>542</v>
+      </c>
+      <c r="S61" s="2">
+        <v>500</v>
+      </c>
+      <c r="T61" s="2">
+        <v>5743</v>
+      </c>
+      <c r="U61" s="2">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4085519</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2718</v>
+      </c>
+      <c r="D62" s="2">
+        <v>638</v>
+      </c>
+      <c r="E62" s="2">
+        <v>153</v>
+      </c>
+      <c r="F62" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>39389</v>
+      </c>
+      <c r="J62" s="2">
+        <v>22858</v>
+      </c>
+      <c r="K62" s="2">
+        <v>16828</v>
+      </c>
+      <c r="L62" s="2">
+        <v>11406</v>
+      </c>
+      <c r="M62" s="2">
+        <v>7248</v>
+      </c>
+      <c r="N62" s="2">
+        <v>3716</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1250</v>
+      </c>
+      <c r="P62" s="2">
+        <v>894</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>701</v>
+      </c>
+      <c r="R62" s="2">
+        <v>589</v>
+      </c>
+      <c r="S62" s="2">
+        <v>500</v>
+      </c>
+      <c r="T62" s="2">
+        <v>4072</v>
+      </c>
+      <c r="U62" s="2">
+        <v>4157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
+      <c r="A1" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>68</v>
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1453</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>2433</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>0.5951500205507604</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.4048499794492396</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>520</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>245</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>219</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>464</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>221</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>124</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>65</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>94</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <v>85</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>63</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>129</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <v>204</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="5">
         <v>13</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <v>36</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5">
         <v>317</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="5">
         <v>429</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="5">
         <v>452</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="5">
         <v>383</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="5">
         <v>575</v>
       </c>
     </row>
@@ -767,73 +4833,73 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>8270</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>14972</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>0.7127304301362544</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.2872695698637456</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>3145</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>2187</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>2161</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>3178</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>882</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>455</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>448</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>445</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="5">
         <v>402</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <v>383</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <v>472</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="5">
         <v>814</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="5">
         <v>44</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <v>218</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="5">
         <v>3384</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="5">
         <v>3582</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="5">
         <v>3130</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="5">
         <v>2279</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="5">
         <v>1233</v>
       </c>
     </row>
@@ -841,73 +4907,73 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>10217</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>16098</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>0.7479189961485899</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0.2520810038514101</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>3885</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>2188</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>2187</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>3780</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>737</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>298</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>410</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>568</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>616</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>420</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>304</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="5">
         <v>705</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="5">
         <v>82</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <v>220</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="5">
         <v>3589</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="5">
         <v>3775</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="5">
         <v>2588</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="5">
         <v>2130</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="5">
         <v>2284</v>
       </c>
     </row>
@@ -915,73 +4981,73 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>12446</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>19778</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>0.6274142987157447</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.3725857012842552</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>3897</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>2306</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>2386</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>3820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>1200</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>415</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>611</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>1463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="5">
         <v>1420</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <v>619</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="5">
         <v>352</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="5">
         <v>1289</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="5">
         <v>125</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <v>384</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="5">
         <v>4292</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="5">
         <v>4487</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="5">
         <v>3594</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="5">
         <v>2720</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="5">
         <v>2217</v>
       </c>
     </row>
@@ -989,73 +5055,73 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>80</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>116</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>0.7758620689655172</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.2241379310344828</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>39</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>35</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>7</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
         <v>2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="5">
         <v>6</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="5">
         <v>1</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <v>2</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="5">
         <v>17</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="5">
         <v>21</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="5">
         <v>25</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="5">
         <v>24</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="5">
         <v>17</v>
       </c>
     </row>
@@ -1063,73 +5129,73 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>4602</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>7117</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>0.8566811858929324</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0.1433188141070676</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>2114</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>927</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>896</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>2160</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>219</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>120</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>109</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>87</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="5">
         <v>79</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>104</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>105</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="5">
         <v>197</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="5">
         <v>41</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <v>118</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="5">
         <v>939</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="5">
         <v>1115</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="5">
         <v>1095</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="5">
         <v>1396</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="5">
         <v>1443</v>
       </c>
     </row>
@@ -1137,73 +5203,73 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>43434</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>137040</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>0.7327349678925861</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>0.2672650321074139</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>32415</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>17830</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>18001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>32168</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>7254</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>2791</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>3683</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>4708</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>4720</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>3625</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <v>2828</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="5">
         <v>7017</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="5">
         <v>993</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <v>3059</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="5">
         <v>26889</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <v>36896</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="5">
         <v>31705</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="5">
         <v>19727</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="5">
         <v>8754</v>
       </c>
     </row>
@@ -1211,73 +5277,73 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>5280</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>10709</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.8359323933140349</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>0.1640676066859651</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>3427</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>1085</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>1169</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>3271</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>380</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>108</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>152</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>198</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="5">
         <v>234</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>185</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <v>116</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>384</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="5">
         <v>53</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <v>200</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="5">
         <v>2040</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="5">
         <v>2505</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="5">
         <v>2373</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="5">
         <v>2077</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="5">
         <v>777</v>
       </c>
     </row>
@@ -1285,73 +5351,73 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>2108</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>4130</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>0.8966101694915254</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>0.1033898305084746</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>1491</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>350</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>390</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>1472</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>80</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>18</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>48</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>72</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <v>65</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>38</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>25</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="5">
         <v>81</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="5">
         <v>13</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="5">
         <v>57</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="5">
         <v>548</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="5">
         <v>775</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="5">
         <v>865</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="5">
         <v>1174</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="5">
         <v>473</v>
       </c>
     </row>
@@ -1359,73 +5425,73 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>7634</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>17078</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>0.8635086075652887</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>0.1364913924347113</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>5906</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>1476</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>1454</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>5911</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>495</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <v>96</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="5">
         <v>217</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5">
         <v>361</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="5">
         <v>364</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5">
         <v>228</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="5">
         <v>97</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="5">
         <v>473</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="5">
         <v>75</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="5">
         <v>279</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="5">
         <v>2335</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="5">
         <v>3147</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="5">
         <v>3503</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="5">
         <v>4243</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="5">
         <v>2164</v>
       </c>
     </row>
@@ -1433,73 +5499,73 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>5389</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>12490</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>0.8483586869495596</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>0.1516413130504403</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>3685</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>1655</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>1666</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>3590</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>342</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>107</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5">
         <v>191</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5">
         <v>295</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="5">
         <v>318</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5">
         <v>184</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <v>106</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="5">
         <v>351</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="5">
         <v>76</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="5">
         <v>185</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="5">
         <v>2450</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="5">
         <v>3337</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="5">
         <v>2786</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="5">
         <v>2010</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="5">
         <v>818</v>
       </c>
     </row>
@@ -1507,73 +5573,73 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>6214</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>11483</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>0.842724026822259</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>0.157275973177741</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>3753</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>1080</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>1102</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>3742</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>416</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>95</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="5">
         <v>196</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5">
         <v>221</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="5">
         <v>192</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>157</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>110</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="5">
         <v>419</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="5">
         <v>61</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="5">
         <v>173</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="5">
         <v>1828</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="5">
         <v>2326</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="5">
         <v>2527</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="5">
         <v>2703</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="5">
         <v>1092</v>
       </c>
     </row>
@@ -1581,73 +5647,73 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>617</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>1262</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>0.696513470681458</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>0.303486529318542</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>221</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>207</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>216</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>235</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>87</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>12</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>55</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>42</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>31</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>45</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>5</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>106</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="5">
         <v>13</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <v>12</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="5">
         <v>329</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="5">
         <v>340</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="5">
         <v>219</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="5">
         <v>189</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="5">
         <v>78</v>
       </c>
     </row>
@@ -1655,73 +5721,73 @@
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>14655</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>28347</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>0.7747557060711892</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>0.2252442939288108</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>7313</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>3640</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>3621</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>7388</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>1497</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>364</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>578</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>835</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="5">
         <v>820</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>581</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <v>297</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <v>1413</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="5">
         <v>136</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="5">
         <v>454</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="5">
         <v>5592</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="5">
         <v>7718</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="5">
         <v>6183</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="5">
         <v>4569</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="5">
         <v>2084</v>
       </c>
     </row>
@@ -1729,73 +5795,73 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>1892</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>3296</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>0.6398665048543689</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>0.3601334951456311</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>668</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>347</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>359</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>735</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>400</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>42</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>79</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>88</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="5">
         <v>95</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <v>86</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>44</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>353</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="5">
         <v>17</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="5">
         <v>73</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="5">
         <v>689</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="5">
         <v>702</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="5">
         <v>594</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="5">
         <v>562</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="5">
         <v>430</v>
       </c>
     </row>
@@ -1803,73 +5869,73 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>44237</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>92166</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>0.7526853720460908</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>0.2473146279539092</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>21379</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>13444</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>13283</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>21266</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
         <v>4247</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <v>2021</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="5">
         <v>2537</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
         <v>2739</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="5">
         <v>2848</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="5">
         <v>2349</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="5">
         <v>2079</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="5">
         <v>3974</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="5">
         <v>366</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="5">
         <v>1187</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="5">
         <v>26902</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="5">
         <v>28705</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="5">
         <v>20455</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="5">
         <v>9686</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="5">
         <v>1575</v>
       </c>
     </row>
@@ -1877,73 +5943,73 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>5057</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>8025</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>0.811214953271028</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>0.188785046728972</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>2266</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>1026</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>941</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>2277</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>270</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="5">
         <v>120</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="5">
         <v>162</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>216</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="5">
         <v>212</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5">
         <v>179</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5">
         <v>109</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="5">
         <v>247</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="5">
         <v>21</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <v>105</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="5">
         <v>1832</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="5">
         <v>2489</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="5">
         <v>1872</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="5">
         <v>1161</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="5">
         <v>383</v>
       </c>
     </row>
@@ -1951,1997 +6017,1997 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>2962</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>11163</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>0.931201289975813</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>0.06879871002418704</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>4175</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>1054</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>985</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>4181</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5">
         <v>171</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>25</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="5">
         <v>122</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5">
         <v>64</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="5">
         <v>74</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5">
         <v>109</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="5">
         <v>28</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="5">
         <v>175</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="5">
         <v>80</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="5">
         <v>246</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="5">
         <v>1268</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="5">
         <v>1806</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="5">
         <v>2156</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="5">
         <v>2603</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="5">
         <v>1340</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
         <v>9602</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>18715</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>0.8122361741918247</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="6">
         <v>0.1877638258081753</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>5770</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>1963</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>1894</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>5574</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="5">
         <v>896</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <v>151</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="5">
         <v>286</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="5">
         <v>449</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="5">
         <v>403</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5">
         <v>294</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="5">
         <v>141</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="5">
         <v>894</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="5">
         <v>63</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="5">
         <v>266</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="5">
         <v>3552</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="5">
         <v>3910</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="5">
         <v>3989</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="5">
         <v>4060</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="5">
         <v>1687</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5">
         <v>3925</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>6693</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>0.8150306290153893</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>0.1849693709846108</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>2082</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>672</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>650</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>2051</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="5">
         <v>275</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>63</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="5">
         <v>115</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>176</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="5">
         <v>179</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5">
         <v>109</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="5">
         <v>71</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="5">
         <v>250</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="5">
         <v>34</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="5">
         <v>98</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="5">
         <v>700</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="5">
         <v>1194</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="5">
         <v>1423</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="5">
         <v>1666</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="5">
         <v>1065</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5">
         <v>3643</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>6972</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>0.9073436603557086</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>0.09265633964429146</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>2734</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>504</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>428</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>2660</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="5">
         <v>155</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>49</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="5">
         <v>68</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5">
         <v>54</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="5">
         <v>70</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5">
         <v>55</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="5">
         <v>47</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="5">
         <v>148</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="5">
         <v>30</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="5">
         <v>79</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="5">
         <v>628</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="5">
         <v>1080</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="5">
         <v>1669</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="5">
         <v>2142</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="5">
         <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5">
         <v>6707</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>13963</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>0.8655016830194084</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>0.1344983169805916</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>4762</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>1339</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>1329</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>4655</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>434</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="5">
         <v>106</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="5">
         <v>154</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="5">
         <v>220</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="5">
         <v>194</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5">
         <v>176</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="5">
         <v>114</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="5">
         <v>480</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="5">
         <v>66</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="5">
         <v>267</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="5">
         <v>2070</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="5">
         <v>2546</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="5">
         <v>2779</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="5">
         <v>2947</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="5">
         <v>1832</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
         <v>206</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>301</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>0.7774086378737541</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <v>0.2225913621262458</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>60</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>63</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <v>59</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>52</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <v>14</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="5">
         <v>4</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="5">
         <v>8</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="5">
         <v>10</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="5">
         <v>9</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="5">
         <v>8</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="5">
         <v>8</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="5">
         <v>6</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="5">
         <v>3</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="5">
         <v>5</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="5">
         <v>68</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="5">
         <v>73</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="5">
         <v>41</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="5">
         <v>29</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5">
         <v>17498</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>38219</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>0.766686726497292</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>0.2333132735027081</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>9455</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>5229</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>5317</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>9301</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>1813</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="5">
         <v>636</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="5">
         <v>970</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="5">
         <v>1141</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="5">
         <v>1119</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="5">
         <v>887</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="5">
         <v>625</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="5">
         <v>1726</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="5">
         <v>199</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="5">
         <v>559</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="5">
         <v>8383</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="5">
         <v>12668</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="5">
         <v>8802</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="5">
         <v>4540</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="5">
         <v>1527</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
         <v>10133</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>20010</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>0.8665167416291855</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <v>0.1334832583708146</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>6675</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>1927</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <v>2000</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>6737</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <v>672</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="5">
         <v>157</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="5">
         <v>237</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="5">
         <v>297</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="5">
         <v>282</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="5">
         <v>263</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="5">
         <v>151</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="5">
         <v>612</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="5">
         <v>98</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="5">
         <v>293</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="5">
         <v>2435</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="5">
         <v>3551</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="5">
         <v>4108</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="5">
         <v>4723</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="5">
         <v>2911</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5">
         <v>4099</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>8465</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>0.8079149438865918</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="6">
         <v>0.1920850561134081</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>2376</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>1143</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <v>1089</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>2231</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <v>356</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="5">
         <v>74</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="5">
         <v>165</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="5">
         <v>199</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="5">
         <v>227</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="5">
         <v>200</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="5">
         <v>92</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="5">
         <v>313</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="5">
         <v>32</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="5">
         <v>161</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="5">
         <v>1733</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="5">
         <v>1905</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="5">
         <v>1529</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29" s="5">
         <v>1579</v>
       </c>
-      <c r="X29" s="2">
+      <c r="X29" s="5">
         <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5">
         <v>13123</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>29588</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>0.7881235636068676</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="6">
         <v>0.2118764363931324</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>7728</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>4049</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <v>3921</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>7621</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <v>1249</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="5">
         <v>261</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="5">
         <v>627</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="5">
         <v>989</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="5">
         <v>1026</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="5">
         <v>644</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5">
         <v>233</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="5">
         <v>1240</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="5">
         <v>152</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="5">
         <v>423</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="5">
         <v>6516</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="5">
         <v>8873</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="5">
         <v>6756</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="5">
         <v>3471</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30" s="5">
         <v>1604</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5">
         <v>28585</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>71752</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>0.7349481547552681</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <v>0.2650518452447319</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>17482</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>9219</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <v>9089</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>16944</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <v>4122</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="5">
         <v>1140</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="5">
         <v>1808</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="5">
         <v>2522</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="5">
         <v>2466</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5">
         <v>1772</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="5">
         <v>1140</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="5">
         <v>4048</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="5">
         <v>424</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="5">
         <v>1322</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="5">
         <v>16237</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="5">
         <v>19186</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="5">
         <v>15103</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="5">
         <v>8871</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="5">
         <v>5317</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5">
         <v>29461</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>91396</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <v>0.7109501509912907</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <v>0.2890498490087093</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>20394</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>12009</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="5">
         <v>12234</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>20341</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <v>4691</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="5">
         <v>2222</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="5">
         <v>2771</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5">
         <v>3633</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="5">
         <v>3655</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="5">
         <v>2695</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="5">
         <v>2115</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="5">
         <v>4636</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="5">
         <v>627</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="5">
         <v>2190</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="5">
         <v>17439</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="5">
         <v>23925</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="5">
         <v>20770</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="5">
         <v>13916</v>
       </c>
-      <c r="X32" s="2">
+      <c r="X32" s="5">
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5">
         <v>26132</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>91082</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <v>0.7123800531389297</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="6">
         <v>0.2876199468610702</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>20451</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>11939</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>12167</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <v>20328</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="5">
         <v>5563</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="5">
         <v>2087</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="5">
         <v>2503</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5">
         <v>2944</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="5">
         <v>2985</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5">
         <v>2556</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="5">
         <v>2044</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="5">
         <v>5515</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="5">
         <v>655</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="5">
         <v>2230</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="5">
         <v>22313</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="5">
         <v>24992</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="5">
         <v>18480</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="5">
         <v>11068</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33" s="5">
         <v>5137</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
+        <v>40</v>
+      </c>
+      <c r="B34" s="5">
         <v>5988</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <v>9586</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <v>0.7855205508032548</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="6">
         <v>0.2144794491967452</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>2890</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>876</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <v>898</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <v>2866</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="5">
         <v>383</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="5">
         <v>89</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="5">
         <v>166</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="5">
         <v>358</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="5">
         <v>407</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="5">
         <v>162</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="5">
         <v>95</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="5">
         <v>396</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="5">
         <v>37</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="5">
         <v>121</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="5">
         <v>1926</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="5">
         <v>2110</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="5">
         <v>2084</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="5">
         <v>1807</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="5">
         <v>953</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5">
         <v>8118</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>15075</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="6">
         <v>0.8311111111111111</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="6">
         <v>0.1688888888888889</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <v>4679</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>1724</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <v>1658</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="5">
         <v>4468</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="5">
         <v>565</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="5">
         <v>122</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="5">
         <v>247</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="5">
         <v>333</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="5">
         <v>324</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="5">
         <v>253</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="5">
         <v>128</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="5">
         <v>574</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="5">
         <v>81</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="5">
         <v>237</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="5">
         <v>2503</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="5">
         <v>3160</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="5">
         <v>2889</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="5">
         <v>3184</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="5">
         <v>1947</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5">
         <v>8632</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>19020</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>0.9029968454258676</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="6">
         <v>0.09700315457413249</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>7539</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>1193</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="5">
         <v>1115</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="5">
         <v>7328</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="5">
         <v>388</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="5">
         <v>71</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="5">
         <v>150</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="5">
         <v>330</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="5">
         <v>296</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="5">
         <v>144</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="5">
         <v>78</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="5">
         <v>388</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="5">
         <v>76</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="5">
         <v>294</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="5">
         <v>2095</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="5">
         <v>2604</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36" s="5">
         <v>3850</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="5">
         <v>5776</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="5">
         <v>2774</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5">
         <v>14008</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>28474</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>0.8515136615860083</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="6">
         <v>0.1484863384139917</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>9150</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>3064</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <v>3021</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <v>9011</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="5">
         <v>719</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="5">
         <v>179</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="5">
         <v>393</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="5">
         <v>736</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="5">
         <v>786</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="5">
         <v>433</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="5">
         <v>231</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="5">
         <v>751</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="5">
         <v>119</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="5">
         <v>434</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="5">
         <v>4521</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="5">
         <v>6145</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="5">
         <v>5975</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="5">
         <v>6370</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="5">
         <v>2935</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2">
+        <v>44</v>
+      </c>
+      <c r="B38" s="5">
         <v>10682</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>23376</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>0.7969712525667351</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="6">
         <v>0.2030287474332649</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>7057</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>2239</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="5">
         <v>2204</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>7130</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="5">
         <v>829</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="5">
         <v>317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="5">
         <v>505</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="5">
         <v>767</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="5">
         <v>724</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="5">
         <v>489</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="5">
         <v>308</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="5">
         <v>807</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="5">
         <v>109</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="5">
         <v>415</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="5">
         <v>4207</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="5">
         <v>4628</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="5">
         <v>4073</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W38" s="5">
         <v>4637</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="5">
         <v>3250</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5">
         <v>27639</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>61621</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <v>0.7435776764414729</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="6">
         <v>0.2564223235585271</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="5">
         <v>14444</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>8841</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="5">
         <v>8463</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="5">
         <v>14072</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="5">
         <v>3160</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="5">
         <v>1011</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="5">
         <v>1574</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="5">
         <v>2289</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="5">
         <v>2228</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="5">
         <v>1540</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="5">
         <v>948</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="5">
         <v>3051</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="5">
         <v>338</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="5">
         <v>1253</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="5">
         <v>15540</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="5">
         <v>16262</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="5">
         <v>11517</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="5">
         <v>7937</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39" s="5">
         <v>4291</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <v>0.4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="6">
         <v>0.6</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>1</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="5">
         <v>1</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="5">
         <v>0</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="5">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="5">
         <v>0</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="5">
         <v>2</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="5">
         <v>0</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="5">
         <v>0</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="5">
         <v>0</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="5">
         <v>0</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="5">
         <v>2</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="5">
         <v>0</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="5">
         <v>1</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="5">
         <v>1</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5">
         <v>462</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="5">
         <v>1781</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>0.7063447501403706</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="6">
         <v>0.2936552498596294</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>333</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>284</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="5">
         <v>304</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="5">
         <v>337</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="5">
         <v>90</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="5">
         <v>39</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="5">
         <v>48</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="5">
         <v>62</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="5">
         <v>57</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5">
         <v>74</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="5">
         <v>30</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="5">
         <v>123</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="5">
         <v>5</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="5">
         <v>32</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="5">
         <v>605</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="5">
         <v>459</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="5">
         <v>261</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="5">
         <v>164</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="5">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2">
+        <v>46</v>
+      </c>
+      <c r="B42" s="5">
         <v>9333</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>15703</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <v>0.7783862956123034</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="6">
         <v>0.2216137043876966</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
         <v>3869</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
         <v>2305</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="5">
         <v>2303</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="5">
         <v>3746</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="5">
         <v>718</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="5">
         <v>159</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="5">
         <v>402</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="5">
         <v>515</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="5">
         <v>517</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="5">
         <v>366</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="5">
         <v>156</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="5">
         <v>647</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="5">
         <v>77</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="5">
         <v>206</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="5">
         <v>4015</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="5">
         <v>4201</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="5">
         <v>2785</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="5">
         <v>2040</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="5">
         <v>1341</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2">
+        <v>83</v>
+      </c>
+      <c r="B43" s="5">
         <v>13</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>41</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <v>0.5853658536585366</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="6">
         <v>0.4146341463414634</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>6</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="5">
         <v>6</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="5">
         <v>5</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="5">
         <v>7</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="5">
         <v>0</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="5">
         <v>3</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="5">
         <v>6</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="5">
         <v>2</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="5">
         <v>3</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="5">
         <v>1</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="5">
         <v>2</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="5">
         <v>0</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="5">
         <v>1</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="5">
         <v>12</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="5">
         <v>8</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="5">
         <v>3</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="5">
         <v>2</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5">
         <v>471</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="5">
         <v>854</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>0.949648711943794</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="6">
         <v>0.05035128805620609</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
         <v>308</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="5">
         <v>83</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="5">
         <v>78</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="5">
         <v>342</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="5">
         <v>10</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="5">
         <v>4</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="5">
         <v>4</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="5">
         <v>6</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="5">
         <v>3</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="5">
         <v>4</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="5">
         <v>3</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="5">
         <v>9</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="5">
         <v>5</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="5">
         <v>7</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="5">
         <v>90</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="5">
         <v>124</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="5">
         <v>152</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="5">
         <v>199</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44" s="5">
         <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2">
+        <v>48</v>
+      </c>
+      <c r="B45" s="5">
         <v>7673</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>19427</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>0.8431564317702167</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="6">
         <v>0.1568435682297833</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>5803</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
         <v>2471</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="5">
         <v>2389</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="5">
         <v>5717</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="5">
         <v>411</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="5">
         <v>155</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="5">
         <v>370</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="5">
         <v>567</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="5">
         <v>604</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="5">
         <v>358</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="5">
         <v>152</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="5">
         <v>430</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="5">
         <v>129</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="5">
         <v>431</v>
       </c>
-      <c r="T45" s="2">
+      <c r="T45" s="5">
         <v>3171</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="5">
         <v>3552</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="5">
         <v>3415</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W45" s="5">
         <v>3656</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45" s="5">
         <v>2453</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5">
         <v>3894</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>7714</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>0.8124189784806845</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="6">
         <v>0.1875810215193155</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="5">
         <v>2154</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>890</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="5">
         <v>899</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="5">
         <v>2324</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="5">
         <v>458</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="5">
         <v>53</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="5">
         <v>88</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="5">
         <v>106</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="5">
         <v>114</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="5">
         <v>135</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="5">
         <v>37</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="5">
         <v>456</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="5">
         <v>55</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="5">
         <v>182</v>
       </c>
-      <c r="T46" s="2">
+      <c r="T46" s="5">
         <v>1220</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U46" s="5">
         <v>1561</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="5">
         <v>1444</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="5">
         <v>1615</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="5">
         <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2">
+        <v>58</v>
+      </c>
+      <c r="B47" s="5">
         <v>669</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="5">
         <v>1157</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>0.6361279170267934</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="6">
         <v>0.3638720829732066</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="5">
         <v>202</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="5">
         <v>151</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="5">
         <v>158</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="5">
         <v>225</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="5">
         <v>106</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="5">
         <v>27</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="5">
         <v>53</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="5">
         <v>40</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="5">
         <v>29</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="5">
         <v>35</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="5">
         <v>32</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="5">
         <v>99</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="5">
         <v>13</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="5">
         <v>19</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T47" s="5">
         <v>260</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U47" s="5">
         <v>246</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="5">
         <v>199</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W47" s="5">
         <v>146</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X47" s="5">
         <v>154</v>
       </c>
     </row>

--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -1918,10 +1918,10 @@
         <v>3276</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>14946</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>4885</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>

--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="S2a - de novo assembly stats" sheetId="1" r:id="rId1"/>
     <sheet name="S2b - consensus correction" sheetId="2" r:id="rId2"/>
+    <sheet name="S2c - pyDamage analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
   <si>
     <t>BAN001</t>
   </si>
@@ -254,12 +255,6 @@
     <t>N100</t>
   </si>
   <si>
-    <t>CDS</t>
-  </si>
-  <si>
-    <t>genes</t>
-  </si>
-  <si>
     <t>SPM001</t>
   </si>
   <si>
@@ -342,15 +337,80 @@
   </si>
   <si>
     <t>90% &lt; AF &lt;= 100%</t>
+  </si>
+  <si>
+    <t>Table S2c: Overview of the evaluation of the presence of ancient DNA damage using pyDamage. We only considered contigs that had a minimal coverage of 5-fold to avoid wrong inference due to the lack of sufficient data. From these contigs, we considered the contigs 'ancient', when the q-value returned by pyDamage was &lt; 0.05. The columns '15% &lt;= PA &lt; 20%' to '95% &lt;= PA &lt; 100%' summarise the number of contigs that had a predicted accuracy (PA) in this range.</t>
+  </si>
+  <si>
+    <t>total # of contigs</t>
+  </si>
+  <si>
+    <t>% of contigs with coverage &gt;= 5x</t>
+  </si>
+  <si>
+    <t>% of contigs with q-value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>15% &lt;= PA &lt; 20%</t>
+  </si>
+  <si>
+    <t>20% &lt;= PA &lt; 25%</t>
+  </si>
+  <si>
+    <t>25% &lt;= PA &lt; 30%</t>
+  </si>
+  <si>
+    <t>30% &lt;= PA &lt; 35%</t>
+  </si>
+  <si>
+    <t>35% &lt;= PA &lt; 40%</t>
+  </si>
+  <si>
+    <t>40% &lt;= PA &lt; 45%</t>
+  </si>
+  <si>
+    <t>45% &lt;= PA &lt; 50%</t>
+  </si>
+  <si>
+    <t>50% &lt;= PA &lt; 55%</t>
+  </si>
+  <si>
+    <t>55% &lt;= PA &lt; 60%</t>
+  </si>
+  <si>
+    <t>60% &lt;= PA &lt; 65%</t>
+  </si>
+  <si>
+    <t>65% &lt;= PA &lt; 70%</t>
+  </si>
+  <si>
+    <t>70% &lt;= PA &lt; 75%</t>
+  </si>
+  <si>
+    <t>75% &lt;= PA &lt; 80%</t>
+  </si>
+  <si>
+    <t>80% &lt;= PA &lt; 85%</t>
+  </si>
+  <si>
+    <t>85% &lt;= PA &lt; 90%</t>
+  </si>
+  <si>
+    <t>90% &lt;= PA &lt; 95%</t>
+  </si>
+  <si>
+    <t>95% &lt;= PA &lt; 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -389,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +467,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,20 +769,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
@@ -728,16 +794,14 @@
     <col min="17" max="17" width="6.7109375" style="2" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -795,14 +859,8 @@
       <c r="S3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,14 +918,8 @@
       <c r="S4" s="2">
         <v>500</v>
       </c>
-      <c r="T4" s="2">
-        <v>25423</v>
-      </c>
-      <c r="U4" s="2">
-        <v>25494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,14 +977,8 @@
       <c r="S5" s="2">
         <v>500</v>
       </c>
-      <c r="T5" s="2">
-        <v>25220</v>
-      </c>
-      <c r="U5" s="2">
-        <v>25294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,14 +1036,8 @@
       <c r="S6" s="2">
         <v>500</v>
       </c>
-      <c r="T6" s="2">
-        <v>39285</v>
-      </c>
-      <c r="U6" s="2">
-        <v>39720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1055,14 +1095,8 @@
       <c r="S7" s="2">
         <v>500</v>
       </c>
-      <c r="T7" s="2">
-        <v>53399</v>
-      </c>
-      <c r="U7" s="2">
-        <v>53762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,14 +1154,8 @@
       <c r="S8" s="2">
         <v>500</v>
       </c>
-      <c r="T8" s="2">
-        <v>275</v>
-      </c>
-      <c r="U8" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1185,14 +1213,8 @@
       <c r="S9" s="2">
         <v>500</v>
       </c>
-      <c r="T9" s="2">
-        <v>17364</v>
-      </c>
-      <c r="U9" s="2">
-        <v>17637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1272,8 @@
       <c r="S10" s="2">
         <v>500</v>
       </c>
-      <c r="T10" s="2">
-        <v>105745</v>
-      </c>
-      <c r="U10" s="2">
-        <v>106990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1315,14 +1331,8 @@
       <c r="S11" s="2">
         <v>500</v>
       </c>
-      <c r="T11" s="2">
-        <v>5545</v>
-      </c>
-      <c r="U11" s="2">
-        <v>5602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1380,14 +1390,8 @@
       <c r="S12" s="2">
         <v>500</v>
       </c>
-      <c r="T12" s="2">
-        <v>2254</v>
-      </c>
-      <c r="U12" s="2">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1445,14 +1449,8 @@
       <c r="S13" s="2">
         <v>500</v>
       </c>
-      <c r="T13" s="2">
-        <v>12575</v>
-      </c>
-      <c r="U13" s="2">
-        <v>12783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1510,14 +1508,8 @@
       <c r="S14" s="2">
         <v>500</v>
       </c>
-      <c r="T14" s="2">
-        <v>9303</v>
-      </c>
-      <c r="U14" s="2">
-        <v>9459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1575,14 +1567,8 @@
       <c r="S15" s="2">
         <v>500</v>
       </c>
-      <c r="T15" s="2">
-        <v>10747</v>
-      </c>
-      <c r="U15" s="2">
-        <v>10891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1640,14 +1626,8 @@
       <c r="S16" s="2">
         <v>500</v>
       </c>
-      <c r="T16" s="2">
-        <v>796</v>
-      </c>
-      <c r="U16" s="2">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1705,14 +1685,8 @@
       <c r="S17" s="2">
         <v>500</v>
       </c>
-      <c r="T17" s="2">
-        <v>35421</v>
-      </c>
-      <c r="U17" s="2">
-        <v>35772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1770,14 +1744,8 @@
       <c r="S18" s="2">
         <v>500</v>
       </c>
-      <c r="T18" s="2">
-        <v>15168</v>
-      </c>
-      <c r="U18" s="2">
-        <v>15354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1835,14 +1803,8 @@
       <c r="S19" s="2">
         <v>500</v>
       </c>
-      <c r="T19" s="2">
-        <v>122795</v>
-      </c>
-      <c r="U19" s="2">
-        <v>123327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1900,14 +1862,8 @@
       <c r="S20" s="2">
         <v>500</v>
       </c>
-      <c r="T20" s="2">
-        <v>17014</v>
-      </c>
-      <c r="U20" s="2">
-        <v>17239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1965,14 +1921,8 @@
       <c r="S21" s="2">
         <v>500</v>
       </c>
-      <c r="T21" s="2">
-        <v>3475</v>
-      </c>
-      <c r="U21" s="2">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2030,14 +1980,8 @@
       <c r="S22" s="2">
         <v>500</v>
       </c>
-      <c r="T22" s="2">
-        <v>80472</v>
-      </c>
-      <c r="U22" s="2">
-        <v>81589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,14 +2039,8 @@
       <c r="S23" s="2">
         <v>500</v>
       </c>
-      <c r="T23" s="2">
-        <v>67761</v>
-      </c>
-      <c r="U23" s="2">
-        <v>68712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,14 +2098,8 @@
       <c r="S24" s="2">
         <v>500</v>
       </c>
-      <c r="T24" s="2">
-        <v>138575</v>
-      </c>
-      <c r="U24" s="2">
-        <v>140296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2225,14 +2157,8 @@
       <c r="S25" s="2">
         <v>500</v>
       </c>
-      <c r="T25" s="2">
-        <v>131379</v>
-      </c>
-      <c r="U25" s="2">
-        <v>133148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2290,14 +2216,8 @@
       <c r="S26" s="2">
         <v>500</v>
       </c>
-      <c r="T26" s="2">
-        <v>101274</v>
-      </c>
-      <c r="U26" s="2">
-        <v>102530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2355,14 +2275,8 @@
       <c r="S27" s="2">
         <v>500</v>
       </c>
-      <c r="T27" s="2">
-        <v>101921</v>
-      </c>
-      <c r="U27" s="2">
-        <v>103296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2420,14 +2334,8 @@
       <c r="S28" s="2">
         <v>500</v>
       </c>
-      <c r="T28" s="2">
-        <v>77328</v>
-      </c>
-      <c r="U28" s="2">
-        <v>78291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2485,14 +2393,8 @@
       <c r="S29" s="2">
         <v>500</v>
       </c>
-      <c r="T29" s="2">
-        <v>142867</v>
-      </c>
-      <c r="U29" s="2">
-        <v>144855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2550,14 +2452,8 @@
       <c r="S30" s="2">
         <v>500</v>
       </c>
-      <c r="T30" s="2">
-        <v>114314</v>
-      </c>
-      <c r="U30" s="2">
-        <v>115931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2615,14 +2511,8 @@
       <c r="S31" s="2">
         <v>500</v>
       </c>
-      <c r="T31" s="2">
-        <v>136407</v>
-      </c>
-      <c r="U31" s="2">
-        <v>138542</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2680,14 +2570,8 @@
       <c r="S32" s="2">
         <v>500</v>
       </c>
-      <c r="T32" s="2">
-        <v>16259</v>
-      </c>
-      <c r="U32" s="2">
-        <v>16444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2745,14 +2629,8 @@
       <c r="S33" s="2">
         <v>500</v>
       </c>
-      <c r="T33" s="2">
-        <v>8203</v>
-      </c>
-      <c r="U33" s="2">
-        <v>8315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2810,14 +2688,8 @@
       <c r="S34" s="2">
         <v>500</v>
       </c>
-      <c r="T34" s="2">
-        <v>6641</v>
-      </c>
-      <c r="U34" s="2">
-        <v>6738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2875,14 +2747,8 @@
       <c r="S35" s="2">
         <v>500</v>
       </c>
-      <c r="T35" s="2">
-        <v>18888</v>
-      </c>
-      <c r="U35" s="2">
-        <v>19219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2940,14 +2806,8 @@
       <c r="S36" s="2">
         <v>500</v>
       </c>
-      <c r="T36" s="2">
-        <v>416</v>
-      </c>
-      <c r="U36" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,14 +2865,8 @@
       <c r="S37" s="2">
         <v>500</v>
       </c>
-      <c r="T37" s="2">
-        <v>39958</v>
-      </c>
-      <c r="U37" s="2">
-        <v>40165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3070,14 +2924,8 @@
       <c r="S38" s="2">
         <v>500</v>
       </c>
-      <c r="T38" s="2">
-        <v>23639</v>
-      </c>
-      <c r="U38" s="2">
-        <v>23962</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -3135,14 +2983,8 @@
       <c r="S39" s="2">
         <v>500</v>
       </c>
-      <c r="T39" s="2">
-        <v>9501</v>
-      </c>
-      <c r="U39" s="2">
-        <v>9625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -3200,14 +3042,8 @@
       <c r="S40" s="2">
         <v>500</v>
       </c>
-      <c r="T40" s="2">
-        <v>34014</v>
-      </c>
-      <c r="U40" s="2">
-        <v>34365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -3265,14 +3101,8 @@
       <c r="S41" s="2">
         <v>500</v>
       </c>
-      <c r="T41" s="2">
-        <v>110171</v>
-      </c>
-      <c r="U41" s="2">
-        <v>111264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -3330,14 +3160,8 @@
       <c r="S42" s="2">
         <v>500</v>
       </c>
-      <c r="T42" s="2">
-        <v>86716</v>
-      </c>
-      <c r="U42" s="2">
-        <v>87511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -3395,14 +3219,8 @@
       <c r="S43" s="2">
         <v>500</v>
       </c>
-      <c r="T43" s="2">
-        <v>62842</v>
-      </c>
-      <c r="U43" s="2">
-        <v>63628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,14 +3278,8 @@
       <c r="S44" s="2">
         <v>500</v>
       </c>
-      <c r="T44" s="2">
-        <v>13832</v>
-      </c>
-      <c r="U44" s="2">
-        <v>13969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -3525,14 +3337,8 @@
       <c r="S45" s="2">
         <v>500</v>
       </c>
-      <c r="T45" s="2">
-        <v>16938</v>
-      </c>
-      <c r="U45" s="2">
-        <v>17128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -3590,14 +3396,8 @@
       <c r="S46" s="2">
         <v>500</v>
       </c>
-      <c r="T46" s="2">
-        <v>16727</v>
-      </c>
-      <c r="U46" s="2">
-        <v>16954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -3655,14 +3455,8 @@
       <c r="S47" s="2">
         <v>500</v>
       </c>
-      <c r="T47" s="2">
-        <v>23862</v>
-      </c>
-      <c r="U47" s="2">
-        <v>24099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -3720,14 +3514,8 @@
       <c r="S48" s="2">
         <v>500</v>
       </c>
-      <c r="T48" s="2">
-        <v>31330</v>
-      </c>
-      <c r="U48" s="2">
-        <v>31722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -3785,14 +3573,8 @@
       <c r="S49" s="2">
         <v>500</v>
       </c>
-      <c r="T49" s="2">
-        <v>72603</v>
-      </c>
-      <c r="U49" s="2">
-        <v>73158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -3850,14 +3632,8 @@
       <c r="S50" s="2">
         <v>500</v>
       </c>
-      <c r="T50" s="2">
-        <v>43240</v>
-      </c>
-      <c r="U50" s="2">
-        <v>43676</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -3915,14 +3691,8 @@
       <c r="S51" s="2">
         <v>500</v>
       </c>
-      <c r="T51" s="2">
-        <v>2032</v>
-      </c>
-      <c r="U51" s="2">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -3980,14 +3750,8 @@
       <c r="S52" s="2">
         <v>500</v>
       </c>
-      <c r="T52" s="2">
-        <v>15165</v>
-      </c>
-      <c r="U52" s="2">
-        <v>15339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -4045,14 +3809,8 @@
       <c r="S53" s="2">
         <v>500</v>
       </c>
-      <c r="T53" s="2">
-        <v>153897</v>
-      </c>
-      <c r="U53" s="2">
-        <v>155916</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -4110,14 +3868,8 @@
       <c r="S54" s="2">
         <v>500</v>
       </c>
-      <c r="T54" s="2">
-        <v>58135</v>
-      </c>
-      <c r="U54" s="2">
-        <v>58832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -4175,14 +3927,8 @@
       <c r="S55" s="2">
         <v>500</v>
       </c>
-      <c r="T55" s="2">
-        <v>72168</v>
-      </c>
-      <c r="U55" s="2">
-        <v>73088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -4240,14 +3986,8 @@
       <c r="S56" s="2">
         <v>500</v>
       </c>
-      <c r="T56" s="2">
-        <v>164869</v>
-      </c>
-      <c r="U56" s="2">
-        <v>166842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -4305,14 +4045,8 @@
       <c r="S57" s="2">
         <v>500</v>
       </c>
-      <c r="T57" s="2">
-        <v>136340</v>
-      </c>
-      <c r="U57" s="2">
-        <v>138166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -4370,14 +4104,8 @@
       <c r="S58" s="2">
         <v>500</v>
       </c>
-      <c r="T58" s="2">
-        <v>137231</v>
-      </c>
-      <c r="U58" s="2">
-        <v>139114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -4435,14 +4163,8 @@
       <c r="S59" s="2">
         <v>500</v>
       </c>
-      <c r="T59" s="2">
-        <v>136905</v>
-      </c>
-      <c r="U59" s="2">
-        <v>138578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -4500,14 +4222,8 @@
       <c r="S60" s="2">
         <v>500</v>
       </c>
-      <c r="T60" s="2">
-        <v>64679</v>
-      </c>
-      <c r="U60" s="2">
-        <v>65657</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -4565,14 +4281,8 @@
       <c r="S61" s="2">
         <v>500</v>
       </c>
-      <c r="T61" s="2">
-        <v>5743</v>
-      </c>
-      <c r="U61" s="2">
-        <v>5845</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -4629,12 +4339,6 @@
       </c>
       <c r="S62" s="2">
         <v>500</v>
-      </c>
-      <c r="T62" s="2">
-        <v>4072</v>
-      </c>
-      <c r="U62" s="2">
-        <v>4157</v>
       </c>
     </row>
   </sheetData>
@@ -4678,81 +4382,81 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -7421,7 +7125,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -7495,7 +7199,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5">
         <v>462</v>
@@ -7643,7 +7347,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="5">
         <v>13</v>
@@ -8009,6 +7713,2777 @@
       </c>
       <c r="X47" s="5">
         <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10385</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.17516</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.03476</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.07607</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.21213</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.26866</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.13182</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.04073</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.01714</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.00847</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.00664</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.0052</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.00443</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.00404</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.00308</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.00414</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0.00212</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.00539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>21748</v>
+      </c>
+      <c r="C5" s="7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.13761</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.22804</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.21465</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.15229</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.08895</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.05244</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0343</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.02474</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.01722</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.01048</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.009509999999999999</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.00743</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.00577</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.00365</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.00466</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0.00328</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0.00499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30528</v>
+      </c>
+      <c r="C6" s="7">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.00026</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.00048</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.99882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42170</v>
+      </c>
+      <c r="C7" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.00138</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.00086</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.00034</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.00034</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.00026</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.00034</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.00043</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.00034</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.00069</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.00043</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.00086</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.99209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>218</v>
+      </c>
+      <c r="C8" s="7">
+        <v>96.3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.07142999999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.02857</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.02381</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.02381</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.02381</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.02381</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.02381</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.009520000000000001</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.00476</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.009520000000000001</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.01905</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.0381</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.02857</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.0619</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.06666999999999999</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.47143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11566</v>
+      </c>
+      <c r="C9" s="7">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="O9" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.99939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>74742</v>
+      </c>
+      <c r="C10" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.00038</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.00033</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.00028</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.00047</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.00023</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.00033</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.00085</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.00085</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.00094</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.00207</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.00333</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.00446</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.01005</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0.02513</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.94913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7760</v>
+      </c>
+      <c r="C11" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.01006</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0494</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.06023</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.06372</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.07532999999999999</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.08835</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.09532</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.09532</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.09286999999999999</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.07649</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.06680999999999999</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.05843</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.05017</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.04411</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.03199</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.02709</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.01432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3088</v>
+      </c>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.00032</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.009719999999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.009390000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.01716</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.02947</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.03724</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.05117</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.06574000000000001</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.08193</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.10654</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.10654</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.11399</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.1169</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.11237</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.07448</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.04858</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.01846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11742</v>
+      </c>
+      <c r="C13" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>92.8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.00614</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.01288</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.009469999999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.008959999999999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.01561</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.0221</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.02935</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.03771</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.04726</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.05656</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.06876</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.08864</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.11457</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.13615</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.13743</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.12523</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0.08318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>9090</v>
+      </c>
+      <c r="C14" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.00529</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.02544</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.04086</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.05132</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.06476</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.08623</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.10749</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.1228</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.12533</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.1065</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.08524</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.05551</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.04769</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.03238</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.0196</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0.0141</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.009469999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>11608</v>
+      </c>
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>78.3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.01491</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.02525</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.03068</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.04171</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.05523</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.07385</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.08651</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.09668</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.09711</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.09254999999999999</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0916</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.07376000000000001</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.06196</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.05437</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.04541</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.03654</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.02189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>958</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.00209</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.1785</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.40292</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.17328</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.05428</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.02505</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.01461</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.01357</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.01253</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.00835</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.00626</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.00522</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.01044</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.00835</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.00313</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.009390000000000001</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.07203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>25416</v>
+      </c>
+      <c r="C17" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8.000000000000001E-05</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="I17" s="8">
+        <v>8.000000000000001E-05</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="K17" s="8">
+        <v>4E-05</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="M17" s="8">
+        <v>8.000000000000001E-05</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.00024</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.00035</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.00043</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.00055</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.00126</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.00433</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.99189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4964</v>
+      </c>
+      <c r="C18" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.18006</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.35567</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.11788</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.05773</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.02786</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.01776</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.01151</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.00929</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.00706</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.00747</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.00929</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.00666</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.008070000000000001</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.01151</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.0113</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.01453</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.14635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>91830</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.00021</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.00224</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.00106</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.00277</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.00256</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.0017</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.00319</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.00479</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.00735</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.009480000000000001</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.01171</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.01725</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.02268</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.03706</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.04771</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.09701</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.73123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>13910</v>
+      </c>
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7">
+        <v>84.2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.00374</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.009350000000000001</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.01453</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.01316</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.01524</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.01381</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.01481</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.02006</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.02337</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.02826</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.03912</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0.05213</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.07529</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0.11361</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.1372</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.17603</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.25031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3276</v>
+      </c>
+      <c r="C21" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>98</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.00458</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.00305</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.00122</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.00061</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.00275</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.00214</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.00305</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.00336</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.00703</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.01222</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.01802</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.01772</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.02841</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0.04307</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0.0675</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.16952</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.61576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
+        <v>17171</v>
+      </c>
+      <c r="C22" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.009560000000000001</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.04761</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.05314</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.06509</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.07249</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.08903</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.09614</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.10465</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.10547</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.09224</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.07633</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.05734</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.04265</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.03123</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.02307</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.02051</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.01346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7854</v>
+      </c>
+      <c r="C23" s="7">
+        <v>100</v>
+      </c>
+      <c r="D23" s="7">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.00484</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.01452</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.01032</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.008920000000000001</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.0107</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.01452</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.02254</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.03133</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.05095</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.06063</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.07974000000000001</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.10699</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.15578</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.20431</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.14495</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.05439</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.02458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7194</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.009039999999999999</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.03725</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.02349</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.02613</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.0367</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.04518</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.05616</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.07131</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.08742999999999999</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.08604000000000001</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.09425</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.08869</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0.07464999999999999</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0.0752</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="T24" s="8">
+        <v>0.07145</v>
+      </c>
+      <c r="U24" s="8">
+        <v>0.04754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5">
+        <v>11757</v>
+      </c>
+      <c r="C25" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.00026</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.00034</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.00017</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.00077</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.00068</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.00136</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.00136</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.00213</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.00477</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.00817</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.01455</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0.04281</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0.91821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>719</v>
+      </c>
+      <c r="C26" s="7">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7">
+        <v>58.7</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.28261</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.05507</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.03913</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.01739</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.03188</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.03188</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.02029</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.02319</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.01739</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.02319</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.02029</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0.01304</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.01739</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0.01594</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.01449</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0.02029</v>
+      </c>
+      <c r="U26" s="8">
+        <v>0.35652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5">
+        <v>34736</v>
+      </c>
+      <c r="C27" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="G27" s="8">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.00018</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.00023</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.00027</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.00032</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.00063</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.00113</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.00235</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.00289</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0.00682</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.01631</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0.05728</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0.91142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
+        <v>16963</v>
+      </c>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.00012</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.00065</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.00035</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.00035</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.00024</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.00035</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0.00088</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.00124</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.00112</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.00124</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.00177</v>
+      </c>
+      <c r="P28" s="8">
+        <v>0.00236</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.0043</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.00843</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0.01604</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0.04788</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0.91267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6451</v>
+      </c>
+      <c r="C29" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.00233</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.00047</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.00047</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.00047</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.00016</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.0009300000000000001</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.00233</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.00466</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.00559</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.008229999999999999</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0.01739</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.02888</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0.05061</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0.08819</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0.16457</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0.62459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25878</v>
+      </c>
+      <c r="C30" s="7">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.00013</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.00039</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.00086</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.0009</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.00107</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.00116</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.00193</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.00297</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.00284</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.00524</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0.00726</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0.01212</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0.01878</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0.03426</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0.09087000000000001</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0.8186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5">
+        <v>64304</v>
+      </c>
+      <c r="C31" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>95.3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.00033</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.00193</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.00326</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.00366</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.00579</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.00712</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.00851</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.01124</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.01789</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.02234</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.03019</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.04163</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.05427</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0.08167000000000001</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0.11305</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0.19705</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0.40008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5">
+        <v>59739</v>
+      </c>
+      <c r="C32" s="7">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D32" s="7">
+        <v>88.3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.01291</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.01838</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.02423</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.01892</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.00644</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.0042</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.00356</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.00307</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.00322</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.0032</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.00348</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0.00356</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.00467</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.008580000000000001</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0.01982</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0.85187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5">
+        <v>39012</v>
+      </c>
+      <c r="C33" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>94.8</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.00076</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.00186</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.00241</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.00261</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.0042</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.00592</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.00592</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.00709</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.01039</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.01321</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.0152</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.01878</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0.02924</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.04265</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0.06741999999999999</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0.14364</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0.62871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="5">
+        <v>13818</v>
+      </c>
+      <c r="C34" s="7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D34" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.11811</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.19299</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.11323</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.08318</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.06637</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.05181</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0.03537</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.03093</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0.02241</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.01645</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.01659</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.01368</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0.02023</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0.02838</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0.0465</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0.07634000000000001</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0.06746000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5">
+        <v>14946</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E35" s="8">
+        <v>6.999999999999999E-05</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.0008</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.00107</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.0012</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.00234</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.00288</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0.00442</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.00729</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.01225</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.01546</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.02443</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.03848</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0.06257</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.10333</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0.17319</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0.30268</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0.24754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5">
+        <v>13991</v>
+      </c>
+      <c r="C36" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D36" s="7">
+        <v>93.8</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.00143</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.00608</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.008160000000000001</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.00737</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.01345</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.01645</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.02082</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.02361</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0.02983</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.0309</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.0362</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.04335</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0.06166</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.10072</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.142</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0.21518</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.24279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5">
+        <v>23670</v>
+      </c>
+      <c r="C37" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>95.3</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.00135</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.00397</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.00588</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.009339999999999999</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.01234</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.01945</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.02435</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.03323</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.04747</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.05276</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.07267</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.07981000000000001</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0.10086</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.11655</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.13823</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0.17273</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0.10902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="5">
+        <v>21483</v>
+      </c>
+      <c r="C38" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D38" s="7">
+        <v>92.8</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.00135</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.0089</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.0136</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.01979</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.02729</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.03288</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.0374</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.04499</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.05263</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.05803</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.06827</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0.07661</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.09072</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.10628</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.12719</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0.14382</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.09026000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5">
+        <v>52483</v>
+      </c>
+      <c r="C39" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.00044</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.0009</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.00081</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.00092</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.00138</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.00136</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.00221</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.00309</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.0041</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.00465</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.00675</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0.00903</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0.01372</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.02084</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0.03939</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0.09564</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0.79479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="5">
+        <v>30261</v>
+      </c>
+      <c r="C40" s="7">
+        <v>65.7</v>
+      </c>
+      <c r="D40" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="E40" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="F40" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="J40" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="K40" s="8">
+        <v>5E-05</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.0001</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.0004</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.00055</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0.00111</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0.00251</v>
+      </c>
+      <c r="T40" s="8">
+        <v>0.00699</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0.98708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5">
+        <v>858</v>
+      </c>
+      <c r="C41" s="7">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.0035</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.01049</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.01632</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.01748</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.00233</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.00466</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0.00233</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0.00233</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0.00117</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0.0035</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0.93007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="5">
+        <v>10781</v>
+      </c>
+      <c r="C42" s="7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D42" s="7">
+        <v>96.5</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.0026</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.00715</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.00631</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.00659</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.007979999999999999</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.01263</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0.01244</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.01253</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.01838</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.02005</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.02191</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0.02655</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0.03742</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0.05116</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0.06081</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0.07724</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0.6182299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6153</v>
+      </c>
+      <c r="C43" s="7">
+        <v>100</v>
+      </c>
+      <c r="D43" s="7">
+        <v>88.5</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.04648</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.04469</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.01511</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.00683</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.00455</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.00585</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0.00471</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.00423</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.00423</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.00325</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.00569</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0.00439</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0.00796</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0.01089</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0.02064</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0.05282</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0.75768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2718</v>
+      </c>
+      <c r="C44" s="7">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D44" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.62669</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.09569</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.05421</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.03901</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.01971</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.01478</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0.00903</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.0078</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0.00287</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.00411</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.00287</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0.00452</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0.00287</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0.00287</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0.00452</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0.00616</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0.10226</v>
       </c>
     </row>
   </sheetData>

--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -7832,7 +7832,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>51.5</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8">
         <v>0.17516</v>
@@ -7897,7 +7897,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="D5" s="7">
-        <v>26.9</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8">
         <v>0.13761</v>
@@ -7962,7 +7962,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="7">
-        <v>99.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E6" s="8">
         <v>4E-05</v>
@@ -8027,7 +8027,7 @@
         <v>27.6</v>
       </c>
       <c r="D7" s="7">
-        <v>99.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E7" s="8">
         <v>0.0005999999999999999</v>
@@ -8092,7 +8092,7 @@
         <v>96.3</v>
       </c>
       <c r="D8" s="7">
-        <v>77.59999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E8" s="8">
         <v>0.07142999999999999</v>
@@ -8157,7 +8157,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>28.5</v>
       </c>
       <c r="D10" s="7">
-        <v>98.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D11" s="7">
-        <v>65.90000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="E11" s="8">
         <v>0.01006</v>
@@ -8352,7 +8352,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>90.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="E12" s="8">
         <v>0.00032</v>
@@ -8417,7 +8417,7 @@
         <v>99.8</v>
       </c>
       <c r="D13" s="7">
-        <v>92.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E13" s="8">
         <v>0.00614</v>
@@ -8482,7 +8482,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D14" s="7">
-        <v>77.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="E14" s="8">
         <v>0.00529</v>
@@ -8547,7 +8547,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>78.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E15" s="8">
         <v>0.01491</v>
@@ -8612,7 +8612,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>21.7</v>
+        <v>16.7</v>
       </c>
       <c r="E16" s="8">
         <v>0.00209</v>
@@ -8677,7 +8677,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D17" s="7">
-        <v>99.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>99.8</v>
       </c>
       <c r="D18" s="7">
-        <v>31.5</v>
+        <v>25.8</v>
       </c>
       <c r="E18" s="8">
         <v>0.18006</v>
@@ -8807,7 +8807,7 @@
         <v>10.2</v>
       </c>
       <c r="D19" s="7">
-        <v>96.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E19" s="8">
         <v>0.00021</v>
@@ -8872,7 +8872,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>84.2</v>
+        <v>60</v>
       </c>
       <c r="E20" s="8">
         <v>0.00374</v>
@@ -8937,7 +8937,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D21" s="7">
-        <v>98</v>
+        <v>86.5</v>
       </c>
       <c r="E21" s="8">
         <v>0.00458</v>
@@ -9002,7 +9002,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D22" s="7">
-        <v>73.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E22" s="8">
         <v>0.009560000000000001</v>
@@ -9067,7 +9067,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>93.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E23" s="8">
         <v>0.00484</v>
@@ -9132,7 +9132,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="7">
-        <v>82.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="E24" s="8">
         <v>0.009039999999999999</v>
@@ -9197,7 +9197,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D25" s="7">
-        <v>99.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="E25" s="8">
         <v>9.000000000000001E-05</v>
@@ -9262,7 +9262,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>58.7</v>
+        <v>49.7</v>
       </c>
       <c r="E26" s="8">
         <v>0.28261</v>
@@ -9327,7 +9327,7 @@
         <v>63.7</v>
       </c>
       <c r="D27" s="7">
-        <v>99.7</v>
+        <v>97.5</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="7">
-        <v>99.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E28" s="8">
         <v>0.00012</v>
@@ -9457,7 +9457,7 @@
         <v>99.8</v>
       </c>
       <c r="D29" s="7">
-        <v>99.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E29" s="8">
         <v>0.00233</v>
@@ -9522,7 +9522,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="D30" s="7">
-        <v>98.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E30" s="8">
         <v>0.00013</v>
@@ -9587,7 +9587,7 @@
         <v>23.4</v>
       </c>
       <c r="D31" s="7">
-        <v>95.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E31" s="8">
         <v>0.00033</v>
@@ -9652,7 +9652,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="D32" s="7">
-        <v>88.3</v>
+        <v>62</v>
       </c>
       <c r="E32" s="8">
         <v>0.01291</v>
@@ -9717,7 +9717,7 @@
         <v>37.3</v>
       </c>
       <c r="D33" s="7">
-        <v>94.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E33" s="8">
         <v>0.00076</v>
@@ -9782,7 +9782,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="D34" s="7">
-        <v>52.8</v>
+        <v>48.6</v>
       </c>
       <c r="E34" s="8">
         <v>0.11811</v>
@@ -9847,7 +9847,7 @@
         <v>100</v>
       </c>
       <c r="D35" s="7">
-        <v>99.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E35" s="8">
         <v>6.999999999999999E-05</v>
@@ -9912,7 +9912,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D36" s="7">
-        <v>93.8</v>
+        <v>88.3</v>
       </c>
       <c r="E36" s="8">
         <v>0.00143</v>
@@ -9977,7 +9977,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D37" s="7">
-        <v>95.3</v>
+        <v>88.2</v>
       </c>
       <c r="E37" s="8">
         <v>0.00135</v>
@@ -10042,7 +10042,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D38" s="7">
-        <v>92.8</v>
+        <v>86.7</v>
       </c>
       <c r="E38" s="8">
         <v>0.00135</v>
@@ -10107,7 +10107,7 @@
         <v>82.8</v>
       </c>
       <c r="D39" s="7">
-        <v>98.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E39" s="8">
         <v>0.00044</v>
@@ -10172,7 +10172,7 @@
         <v>65.7</v>
       </c>
       <c r="D40" s="7">
-        <v>99.7</v>
+        <v>91.8</v>
       </c>
       <c r="E40" s="8">
         <v>5E-05</v>
@@ -10237,7 +10237,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="7">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E41" s="8">
         <v>0.0035</v>
@@ -10302,7 +10302,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D42" s="7">
-        <v>96.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E42" s="8">
         <v>0.0026</v>
@@ -10367,7 +10367,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="7">
-        <v>88.5</v>
+        <v>73</v>
       </c>
       <c r="E43" s="8">
         <v>0.04648</v>
@@ -10432,7 +10432,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="D44" s="7">
-        <v>18.7</v>
+        <v>15.2</v>
       </c>
       <c r="E44" s="8">
         <v>0.62669</v>

--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huebner/github/EMN001_Paleofuran/06-figures_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19F130-BD9B-EC4F-B12F-56AA1898B20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2a - de novo assembly stats" sheetId="1" r:id="rId1"/>
     <sheet name="S2b - consensus correction" sheetId="2" r:id="rId2"/>
     <sheet name="S2c - pyDamage analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -195,9 +201,6 @@
     <t>ZAF001</t>
   </si>
   <si>
-    <t>Table S2a: Overview of performance of the de novo assembly of the metagenomic sequencing data. Only contigs with a minimal length of 500 bp were considered. The columns N0 to N100 represent the maximal and minimal contig length plus the nine deciles. The number of coding sequences was determined prodigal and the number of genes using Prokka.</t>
-  </si>
-  <si>
     <t>sample</t>
   </si>
   <si>
@@ -400,19 +403,20 @@
   </si>
   <si>
     <t>95% &lt;= PA &lt; 100%</t>
+  </si>
+  <si>
+    <t>Table S2a: Overview of performance of the de novo assembly of the metagenomic sequencing data. Only contigs with a minimal length of 500 bp were considered. The columns N0 to N100 represent the maximal and minimal contig length plus the nine deciles.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,13 +470,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,6 +485,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,9 +571,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,6 +623,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -768,99 +816,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12" max="15" width="7.6640625" style="2" customWidth="1"/>
+    <col min="16" max="19" width="6.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +959,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,7 +1018,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1136,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1372,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +1490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1726,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +1785,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1804,7 +1844,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1981,7 +2021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2080,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2198,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2276,7 +2316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2335,7 +2375,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,7 +2434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2453,7 +2493,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2512,7 +2552,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2571,7 +2611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2630,7 +2670,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2689,7 +2729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2748,7 +2788,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,7 +2847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2906,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +2965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,7 +3024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -3043,7 +3083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -3102,7 +3142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -3161,7 +3201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -3220,7 +3260,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -3279,7 +3319,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -3338,7 +3378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -3397,7 +3437,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,7 +3496,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,7 +3555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -3574,7 +3614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -3633,7 +3673,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -3692,7 +3732,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -3751,7 +3791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -3810,7 +3850,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -3869,7 +3909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -3928,7 +3968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -3987,7 +4027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -4046,7 +4086,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -4105,7 +4145,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -4164,7 +4204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -4223,7 +4263,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -4282,7 +4322,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -4347,119 +4387,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
+    <col min="6" max="17" width="6.6640625" style="5" customWidth="1"/>
+    <col min="18" max="23" width="16.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4470,10 +4494,10 @@
         <v>2433</v>
       </c>
       <c r="D4" s="6">
-        <v>0.5951500205507604</v>
+        <v>0.59515002055076038</v>
       </c>
       <c r="E4" s="6">
-        <v>0.4048499794492396</v>
+        <v>0.40484997944923962</v>
       </c>
       <c r="F4" s="5">
         <v>520</v>
@@ -4533,7 +4557,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4544,10 +4568,10 @@
         <v>14972</v>
       </c>
       <c r="D5" s="6">
-        <v>0.7127304301362544</v>
+        <v>0.71273043013625437</v>
       </c>
       <c r="E5" s="6">
-        <v>0.2872695698637456</v>
+        <v>0.28726956986374558</v>
       </c>
       <c r="F5" s="5">
         <v>3145</v>
@@ -4607,7 +4631,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4618,10 +4642,10 @@
         <v>16098</v>
       </c>
       <c r="D6" s="6">
-        <v>0.7479189961485899</v>
+        <v>0.74791899614858992</v>
       </c>
       <c r="E6" s="6">
-        <v>0.2520810038514101</v>
+        <v>0.25208100385141008</v>
       </c>
       <c r="F6" s="5">
         <v>3885</v>
@@ -4681,7 +4705,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4692,10 +4716,10 @@
         <v>19778</v>
       </c>
       <c r="D7" s="6">
-        <v>0.6274142987157447</v>
+        <v>0.62741429871574472</v>
       </c>
       <c r="E7" s="6">
-        <v>0.3725857012842552</v>
+        <v>0.37258570128425522</v>
       </c>
       <c r="F7" s="5">
         <v>3897</v>
@@ -4755,7 +4779,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4766,10 +4790,10 @@
         <v>116</v>
       </c>
       <c r="D8" s="6">
-        <v>0.7758620689655172</v>
+        <v>0.77586206896551724</v>
       </c>
       <c r="E8" s="6">
-        <v>0.2241379310344828</v>
+        <v>0.22413793103448279</v>
       </c>
       <c r="F8" s="5">
         <v>39</v>
@@ -4829,7 +4853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4840,10 +4864,10 @@
         <v>7117</v>
       </c>
       <c r="D9" s="6">
-        <v>0.8566811858929324</v>
+        <v>0.85668118589293241</v>
       </c>
       <c r="E9" s="6">
-        <v>0.1433188141070676</v>
+        <v>0.14331881410706759</v>
       </c>
       <c r="F9" s="5">
         <v>2114</v>
@@ -4903,7 +4927,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4914,10 +4938,10 @@
         <v>137040</v>
       </c>
       <c r="D10" s="6">
-        <v>0.7327349678925861</v>
+        <v>0.73273496789258608</v>
       </c>
       <c r="E10" s="6">
-        <v>0.2672650321074139</v>
+        <v>0.26726503210741392</v>
       </c>
       <c r="F10" s="5">
         <v>32415</v>
@@ -4977,7 +5001,7 @@
         <v>8754</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5051,7 +5075,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5062,7 +5086,7 @@
         <v>4130</v>
       </c>
       <c r="D12" s="6">
-        <v>0.8966101694915254</v>
+        <v>0.89661016949152539</v>
       </c>
       <c r="E12" s="6">
         <v>0.1033898305084746</v>
@@ -5125,7 +5149,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5136,10 +5160,10 @@
         <v>17078</v>
       </c>
       <c r="D13" s="6">
-        <v>0.8635086075652887</v>
+        <v>0.86350860756528869</v>
       </c>
       <c r="E13" s="6">
-        <v>0.1364913924347113</v>
+        <v>0.13649139243471131</v>
       </c>
       <c r="F13" s="5">
         <v>5906</v>
@@ -5199,7 +5223,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5210,10 +5234,10 @@
         <v>12490</v>
       </c>
       <c r="D14" s="6">
-        <v>0.8483586869495596</v>
+        <v>0.84835868694955963</v>
       </c>
       <c r="E14" s="6">
-        <v>0.1516413130504403</v>
+        <v>0.15164131305044029</v>
       </c>
       <c r="F14" s="5">
         <v>3685</v>
@@ -5273,7 +5297,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5371,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5358,10 +5382,10 @@
         <v>1262</v>
       </c>
       <c r="D16" s="6">
-        <v>0.696513470681458</v>
+        <v>0.69651347068145797</v>
       </c>
       <c r="E16" s="6">
-        <v>0.303486529318542</v>
+        <v>0.30348652931854198</v>
       </c>
       <c r="F16" s="5">
         <v>221</v>
@@ -5421,7 +5445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -5432,10 +5456,10 @@
         <v>28347</v>
       </c>
       <c r="D17" s="6">
-        <v>0.7747557060711892</v>
+        <v>0.77475570607118915</v>
       </c>
       <c r="E17" s="6">
-        <v>0.2252442939288108</v>
+        <v>0.22524429392881079</v>
       </c>
       <c r="F17" s="5">
         <v>7313</v>
@@ -5495,7 +5519,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5506,10 +5530,10 @@
         <v>3296</v>
       </c>
       <c r="D18" s="6">
-        <v>0.6398665048543689</v>
+        <v>0.63986650485436891</v>
       </c>
       <c r="E18" s="6">
-        <v>0.3601334951456311</v>
+        <v>0.36013349514563109</v>
       </c>
       <c r="F18" s="5">
         <v>668</v>
@@ -5569,7 +5593,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5580,10 +5604,10 @@
         <v>92166</v>
       </c>
       <c r="D19" s="6">
-        <v>0.7526853720460908</v>
+        <v>0.75268537204609076</v>
       </c>
       <c r="E19" s="6">
-        <v>0.2473146279539092</v>
+        <v>0.24731462795390921</v>
       </c>
       <c r="F19" s="5">
         <v>21379</v>
@@ -5643,7 +5667,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -5654,10 +5678,10 @@
         <v>8025</v>
       </c>
       <c r="D20" s="6">
-        <v>0.811214953271028</v>
+        <v>0.81121495327102799</v>
       </c>
       <c r="E20" s="6">
-        <v>0.188785046728972</v>
+        <v>0.18878504672897201</v>
       </c>
       <c r="F20" s="5">
         <v>2266</v>
@@ -5717,7 +5741,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -5728,10 +5752,10 @@
         <v>11163</v>
       </c>
       <c r="D21" s="6">
-        <v>0.931201289975813</v>
+        <v>0.93120128997581297</v>
       </c>
       <c r="E21" s="6">
-        <v>0.06879871002418704</v>
+        <v>6.879871002418704E-2</v>
       </c>
       <c r="F21" s="5">
         <v>4175</v>
@@ -5791,7 +5815,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5865,7 +5889,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -5876,7 +5900,7 @@
         <v>6693</v>
       </c>
       <c r="D23" s="6">
-        <v>0.8150306290153893</v>
+        <v>0.81503062901538925</v>
       </c>
       <c r="E23" s="6">
         <v>0.1849693709846108</v>
@@ -5939,7 +5963,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5950,10 +5974,10 @@
         <v>6972</v>
       </c>
       <c r="D24" s="6">
-        <v>0.9073436603557086</v>
+        <v>0.90734366035570857</v>
       </c>
       <c r="E24" s="6">
-        <v>0.09265633964429146</v>
+        <v>9.2656339644291458E-2</v>
       </c>
       <c r="F24" s="5">
         <v>2734</v>
@@ -6013,7 +6037,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -6024,10 +6048,10 @@
         <v>13963</v>
       </c>
       <c r="D25" s="6">
-        <v>0.8655016830194084</v>
+        <v>0.86550168301940844</v>
       </c>
       <c r="E25" s="6">
-        <v>0.1344983169805916</v>
+        <v>0.13449831698059159</v>
       </c>
       <c r="F25" s="5">
         <v>4762</v>
@@ -6087,7 +6111,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -6098,10 +6122,10 @@
         <v>301</v>
       </c>
       <c r="D26" s="6">
-        <v>0.7774086378737541</v>
+        <v>0.77740863787375414</v>
       </c>
       <c r="E26" s="6">
-        <v>0.2225913621262458</v>
+        <v>0.22259136212624581</v>
       </c>
       <c r="F26" s="5">
         <v>60</v>
@@ -6161,7 +6185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -6172,10 +6196,10 @@
         <v>38219</v>
       </c>
       <c r="D27" s="6">
-        <v>0.766686726497292</v>
+        <v>0.76668672649729197</v>
       </c>
       <c r="E27" s="6">
-        <v>0.2333132735027081</v>
+        <v>0.23331327350270811</v>
       </c>
       <c r="F27" s="5">
         <v>9455</v>
@@ -6235,7 +6259,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -6246,10 +6270,10 @@
         <v>20010</v>
       </c>
       <c r="D28" s="6">
-        <v>0.8665167416291855</v>
+        <v>0.86651674162918546</v>
       </c>
       <c r="E28" s="6">
-        <v>0.1334832583708146</v>
+        <v>0.13348325837081459</v>
       </c>
       <c r="F28" s="5">
         <v>6675</v>
@@ -6309,7 +6333,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -6323,7 +6347,7 @@
         <v>0.8079149438865918</v>
       </c>
       <c r="E29" s="6">
-        <v>0.1920850561134081</v>
+        <v>0.19208505611340809</v>
       </c>
       <c r="F29" s="5">
         <v>2376</v>
@@ -6383,7 +6407,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -6394,10 +6418,10 @@
         <v>29588</v>
       </c>
       <c r="D30" s="6">
-        <v>0.7881235636068676</v>
+        <v>0.78812356360686764</v>
       </c>
       <c r="E30" s="6">
-        <v>0.2118764363931324</v>
+        <v>0.21187643639313239</v>
       </c>
       <c r="F30" s="5">
         <v>7728</v>
@@ -6457,7 +6481,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -6468,10 +6492,10 @@
         <v>71752</v>
       </c>
       <c r="D31" s="6">
-        <v>0.7349481547552681</v>
+        <v>0.73494815475526809</v>
       </c>
       <c r="E31" s="6">
-        <v>0.2650518452447319</v>
+        <v>0.26505184524473191</v>
       </c>
       <c r="F31" s="5">
         <v>17482</v>
@@ -6531,7 +6555,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -6542,10 +6566,10 @@
         <v>91396</v>
       </c>
       <c r="D32" s="6">
-        <v>0.7109501509912907</v>
+        <v>0.71095015099129066</v>
       </c>
       <c r="E32" s="6">
-        <v>0.2890498490087093</v>
+        <v>0.28904984900870928</v>
       </c>
       <c r="F32" s="5">
         <v>20394</v>
@@ -6605,7 +6629,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -6616,10 +6640,10 @@
         <v>91082</v>
       </c>
       <c r="D33" s="6">
-        <v>0.7123800531389297</v>
+        <v>0.71238005313892971</v>
       </c>
       <c r="E33" s="6">
-        <v>0.2876199468610702</v>
+        <v>0.28761994686107017</v>
       </c>
       <c r="F33" s="5">
         <v>20451</v>
@@ -6679,7 +6703,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -6690,10 +6714,10 @@
         <v>9586</v>
       </c>
       <c r="D34" s="6">
-        <v>0.7855205508032548</v>
+        <v>0.78552055080325478</v>
       </c>
       <c r="E34" s="6">
-        <v>0.2144794491967452</v>
+        <v>0.21447944919674519</v>
       </c>
       <c r="F34" s="5">
         <v>2890</v>
@@ -6753,7 +6777,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -6764,10 +6788,10 @@
         <v>15075</v>
       </c>
       <c r="D35" s="6">
-        <v>0.8311111111111111</v>
+        <v>0.83111111111111113</v>
       </c>
       <c r="E35" s="6">
-        <v>0.1688888888888889</v>
+        <v>0.16888888888888889</v>
       </c>
       <c r="F35" s="5">
         <v>4679</v>
@@ -6827,7 +6851,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -6838,10 +6862,10 @@
         <v>19020</v>
       </c>
       <c r="D36" s="6">
-        <v>0.9029968454258676</v>
+        <v>0.90299684542586756</v>
       </c>
       <c r="E36" s="6">
-        <v>0.09700315457413249</v>
+        <v>9.7003154574132486E-2</v>
       </c>
       <c r="F36" s="5">
         <v>7539</v>
@@ -6901,7 +6925,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -6912,7 +6936,7 @@
         <v>28474</v>
       </c>
       <c r="D37" s="6">
-        <v>0.8515136615860083</v>
+        <v>0.85151366158600827</v>
       </c>
       <c r="E37" s="6">
         <v>0.1484863384139917</v>
@@ -6975,7 +6999,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -6986,10 +7010,10 @@
         <v>23376</v>
       </c>
       <c r="D38" s="6">
-        <v>0.7969712525667351</v>
+        <v>0.79697125256673507</v>
       </c>
       <c r="E38" s="6">
-        <v>0.2030287474332649</v>
+        <v>0.20302874743326491</v>
       </c>
       <c r="F38" s="5">
         <v>7057</v>
@@ -7049,7 +7073,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -7060,10 +7084,10 @@
         <v>61621</v>
       </c>
       <c r="D39" s="6">
-        <v>0.7435776764414729</v>
+        <v>0.74357767644147288</v>
       </c>
       <c r="E39" s="6">
-        <v>0.2564223235585271</v>
+        <v>0.25642232355852712</v>
       </c>
       <c r="F39" s="5">
         <v>14444</v>
@@ -7123,9 +7147,9 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -7197,9 +7221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="5">
         <v>462</v>
@@ -7208,10 +7232,10 @@
         <v>1781</v>
       </c>
       <c r="D41" s="6">
-        <v>0.7063447501403706</v>
+        <v>0.70634475014037057</v>
       </c>
       <c r="E41" s="6">
-        <v>0.2936552498596294</v>
+        <v>0.29365524985962937</v>
       </c>
       <c r="F41" s="5">
         <v>333</v>
@@ -7271,7 +7295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -7282,10 +7306,10 @@
         <v>15703</v>
       </c>
       <c r="D42" s="6">
-        <v>0.7783862956123034</v>
+        <v>0.77838629561230344</v>
       </c>
       <c r="E42" s="6">
-        <v>0.2216137043876966</v>
+        <v>0.22161370438769659</v>
       </c>
       <c r="F42" s="5">
         <v>3869</v>
@@ -7345,9 +7369,9 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="5">
         <v>13</v>
@@ -7356,10 +7380,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="6">
-        <v>0.5853658536585366</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="E43" s="6">
-        <v>0.4146341463414634</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="F43" s="5">
         <v>6</v>
@@ -7419,7 +7443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7430,10 +7454,10 @@
         <v>854</v>
       </c>
       <c r="D44" s="6">
-        <v>0.949648711943794</v>
+        <v>0.94964871194379397</v>
       </c>
       <c r="E44" s="6">
-        <v>0.05035128805620609</v>
+        <v>5.0351288056206089E-2</v>
       </c>
       <c r="F44" s="5">
         <v>308</v>
@@ -7493,7 +7517,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -7504,10 +7528,10 @@
         <v>19427</v>
       </c>
       <c r="D45" s="6">
-        <v>0.8431564317702167</v>
+        <v>0.84315643177021671</v>
       </c>
       <c r="E45" s="6">
-        <v>0.1568435682297833</v>
+        <v>0.15684356822978329</v>
       </c>
       <c r="F45" s="5">
         <v>5803</v>
@@ -7567,7 +7591,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -7578,10 +7602,10 @@
         <v>7714</v>
       </c>
       <c r="D46" s="6">
-        <v>0.8124189784806845</v>
+        <v>0.81241897848068445</v>
       </c>
       <c r="E46" s="6">
-        <v>0.1875810215193155</v>
+        <v>0.18758102151931549</v>
       </c>
       <c r="F46" s="5">
         <v>2154</v>
@@ -7641,7 +7665,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -7652,10 +7676,10 @@
         <v>1157</v>
       </c>
       <c r="D47" s="6">
-        <v>0.6361279170267934</v>
+        <v>0.63612791702679339</v>
       </c>
       <c r="E47" s="6">
-        <v>0.3638720829732066</v>
+        <v>0.36387208297320661</v>
       </c>
       <c r="F47" s="5">
         <v>202</v>
@@ -7721,107 +7745,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6640625" style="7" customWidth="1"/>
+    <col min="5" max="20" width="16.6640625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7835,58 +7843,58 @@
         <v>44</v>
       </c>
       <c r="E4" s="8">
-        <v>0.17516</v>
+        <v>0.17516000000000001</v>
       </c>
       <c r="F4" s="8">
-        <v>0.03476</v>
+        <v>3.4759999999999999E-2</v>
       </c>
       <c r="G4" s="8">
-        <v>0.07607</v>
+        <v>7.6069999999999999E-2</v>
       </c>
       <c r="H4" s="8">
-        <v>0.21213</v>
+        <v>0.21213000000000001</v>
       </c>
       <c r="I4" s="8">
-        <v>0.26866</v>
+        <v>0.26866000000000001</v>
       </c>
       <c r="J4" s="8">
-        <v>0.13182</v>
+        <v>0.13181999999999999</v>
       </c>
       <c r="K4" s="8">
-        <v>0.04073</v>
+        <v>4.0730000000000002E-2</v>
       </c>
       <c r="L4" s="8">
-        <v>0.01714</v>
+        <v>1.7139999999999999E-2</v>
       </c>
       <c r="M4" s="8">
-        <v>0.00847</v>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="N4" s="8">
-        <v>0.00664</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="O4" s="8">
-        <v>0.0052</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="P4" s="8">
-        <v>0.00443</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="Q4" s="8">
-        <v>0.00404</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="R4" s="8">
-        <v>0.00308</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="S4" s="8">
-        <v>0.00414</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="T4" s="8">
-        <v>0.00212</v>
+        <v>2.1199999999999999E-3</v>
       </c>
       <c r="U4" s="8">
-        <v>0.00539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>5.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7894,64 +7902,64 @@
         <v>21748</v>
       </c>
       <c r="C5" s="7">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="D5" s="7">
         <v>24</v>
       </c>
       <c r="E5" s="8">
-        <v>0.13761</v>
+        <v>0.13761000000000001</v>
       </c>
       <c r="F5" s="8">
-        <v>0.22804</v>
+        <v>0.22803999999999999</v>
       </c>
       <c r="G5" s="8">
-        <v>0.21465</v>
+        <v>0.21465000000000001</v>
       </c>
       <c r="H5" s="8">
-        <v>0.15229</v>
+        <v>0.15229000000000001</v>
       </c>
       <c r="I5" s="8">
-        <v>0.08895</v>
+        <v>8.8950000000000001E-2</v>
       </c>
       <c r="J5" s="8">
-        <v>0.05244</v>
+        <v>5.2440000000000001E-2</v>
       </c>
       <c r="K5" s="8">
-        <v>0.0343</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L5" s="8">
-        <v>0.02474</v>
+        <v>2.4740000000000002E-2</v>
       </c>
       <c r="M5" s="8">
-        <v>0.01722</v>
+        <v>1.7219999999999999E-2</v>
       </c>
       <c r="N5" s="8">
-        <v>0.01048</v>
+        <v>1.048E-2</v>
       </c>
       <c r="O5" s="8">
-        <v>0.009509999999999999</v>
+        <v>9.5099999999999994E-3</v>
       </c>
       <c r="P5" s="8">
-        <v>0.00743</v>
+        <v>7.43E-3</v>
       </c>
       <c r="Q5" s="8">
-        <v>0.00577</v>
+        <v>5.77E-3</v>
       </c>
       <c r="R5" s="8">
-        <v>0.00365</v>
+        <v>3.65E-3</v>
       </c>
       <c r="S5" s="8">
-        <v>0.00466</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="T5" s="8">
-        <v>0.00328</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="U5" s="8">
-        <v>0.00499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -7965,7 +7973,7 @@
         <v>98.8</v>
       </c>
       <c r="E6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -7977,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -7998,25 +8006,25 @@
         <v>0</v>
       </c>
       <c r="P6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="Q6" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="R6" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="S6" s="8">
-        <v>0.00026</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="T6" s="8">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="U6" s="8">
-        <v>0.99882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0.99882000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -8027,61 +8035,61 @@
         <v>27.6</v>
       </c>
       <c r="D7" s="7">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="E7" s="8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F7" s="8">
-        <v>0.00138</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="G7" s="8">
-        <v>0.00086</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="H7" s="8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I7" s="8">
-        <v>0.00034</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J7" s="8">
-        <v>0.00034</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="K7" s="8">
-        <v>0.00026</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="L7" s="8">
-        <v>0.00034</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="M7" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="N7" s="8">
-        <v>0.00043</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="O7" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="P7" s="8">
-        <v>0.00034</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="Q7" s="8">
-        <v>0.00069</v>
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="R7" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="S7" s="8">
-        <v>0.00043</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="T7" s="8">
-        <v>0.00086</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="U7" s="8">
-        <v>0.99209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>0.99209000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8092,61 +8100,61 @@
         <v>96.3</v>
       </c>
       <c r="D8" s="7">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E8" s="8">
-        <v>0.07142999999999999</v>
+        <v>7.1429999999999993E-2</v>
       </c>
       <c r="F8" s="8">
-        <v>0.07142999999999999</v>
+        <v>7.1429999999999993E-2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.02857</v>
+        <v>2.8570000000000002E-2</v>
       </c>
       <c r="H8" s="8">
-        <v>0.02381</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="I8" s="8">
-        <v>0.02381</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>0.02381</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="K8" s="8">
-        <v>0.02381</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="L8" s="8">
-        <v>0.02381</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="M8" s="8">
-        <v>0.009520000000000001</v>
+        <v>9.5200000000000007E-3</v>
       </c>
       <c r="N8" s="8">
-        <v>0.00476</v>
+        <v>4.7600000000000003E-3</v>
       </c>
       <c r="O8" s="8">
-        <v>0.009520000000000001</v>
+        <v>9.5200000000000007E-3</v>
       </c>
       <c r="P8" s="8">
-        <v>0.01905</v>
+        <v>1.9050000000000001E-2</v>
       </c>
       <c r="Q8" s="8">
-        <v>0.0381</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="R8" s="8">
-        <v>0.02857</v>
+        <v>2.8570000000000002E-2</v>
       </c>
       <c r="S8" s="8">
-        <v>0.0619</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="T8" s="8">
-        <v>0.06666999999999999</v>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="U8" s="8">
-        <v>0.47143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>0.47143000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -8187,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="O9" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -8199,19 +8207,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="S9" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="T9" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="U9" s="8">
         <v>0.99939</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8228,55 +8236,55 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>0.00038</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="G10" s="8">
-        <v>0.00033</v>
+        <v>3.3E-4</v>
       </c>
       <c r="H10" s="8">
-        <v>0.00028</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="I10" s="8">
-        <v>0.00047</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="J10" s="8">
-        <v>0.00023</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="K10" s="8">
-        <v>0.00033</v>
+        <v>3.3E-4</v>
       </c>
       <c r="L10" s="8">
-        <v>0.00085</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="M10" s="8">
-        <v>0.00085</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="N10" s="8">
-        <v>0.00094</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="O10" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="P10" s="8">
-        <v>0.00207</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="Q10" s="8">
-        <v>0.00333</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="R10" s="8">
-        <v>0.00446</v>
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="S10" s="8">
-        <v>0.01005</v>
+        <v>1.005E-2</v>
       </c>
       <c r="T10" s="8">
-        <v>0.02513</v>
+        <v>2.513E-2</v>
       </c>
       <c r="U10" s="8">
-        <v>0.94913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>0.94913000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -8284,64 +8292,64 @@
         <v>7760</v>
       </c>
       <c r="C11" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D11" s="7">
         <v>60.4</v>
       </c>
       <c r="E11" s="8">
-        <v>0.01006</v>
+        <v>1.0059999999999999E-2</v>
       </c>
       <c r="F11" s="8">
-        <v>0.0494</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.06023</v>
+        <v>6.0229999999999999E-2</v>
       </c>
       <c r="H11" s="8">
-        <v>0.06372</v>
+        <v>6.3719999999999999E-2</v>
       </c>
       <c r="I11" s="8">
-        <v>0.07532999999999999</v>
+        <v>7.5329999999999994E-2</v>
       </c>
       <c r="J11" s="8">
-        <v>0.08835</v>
+        <v>8.8349999999999998E-2</v>
       </c>
       <c r="K11" s="8">
-        <v>0.09532</v>
+        <v>9.5320000000000002E-2</v>
       </c>
       <c r="L11" s="8">
-        <v>0.09532</v>
+        <v>9.5320000000000002E-2</v>
       </c>
       <c r="M11" s="8">
-        <v>0.09286999999999999</v>
+        <v>9.2869999999999994E-2</v>
       </c>
       <c r="N11" s="8">
-        <v>0.07649</v>
+        <v>7.6490000000000002E-2</v>
       </c>
       <c r="O11" s="8">
-        <v>0.06680999999999999</v>
+        <v>6.6809999999999994E-2</v>
       </c>
       <c r="P11" s="8">
-        <v>0.05843</v>
+        <v>5.8430000000000003E-2</v>
       </c>
       <c r="Q11" s="8">
-        <v>0.05017</v>
+        <v>5.0169999999999999E-2</v>
       </c>
       <c r="R11" s="8">
-        <v>0.04411</v>
+        <v>4.4110000000000003E-2</v>
       </c>
       <c r="S11" s="8">
-        <v>0.03199</v>
+        <v>3.1989999999999998E-2</v>
       </c>
       <c r="T11" s="8">
-        <v>0.02709</v>
+        <v>2.7089999999999999E-2</v>
       </c>
       <c r="U11" s="8">
-        <v>0.01432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1.4319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8355,31 +8363,31 @@
         <v>85.3</v>
       </c>
       <c r="E12" s="8">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F12" s="8">
-        <v>0.009719999999999999</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="G12" s="8">
-        <v>0.009390000000000001</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="H12" s="8">
-        <v>0.01716</v>
+        <v>1.7160000000000002E-2</v>
       </c>
       <c r="I12" s="8">
-        <v>0.02947</v>
+        <v>2.947E-2</v>
       </c>
       <c r="J12" s="8">
-        <v>0.03724</v>
+        <v>3.7240000000000002E-2</v>
       </c>
       <c r="K12" s="8">
-        <v>0.05117</v>
+        <v>5.117E-2</v>
       </c>
       <c r="L12" s="8">
-        <v>0.06574000000000001</v>
+        <v>6.5740000000000007E-2</v>
       </c>
       <c r="M12" s="8">
-        <v>0.08193</v>
+        <v>8.1930000000000003E-2</v>
       </c>
       <c r="N12" s="8">
         <v>0.10654</v>
@@ -8388,7 +8396,7 @@
         <v>0.10654</v>
       </c>
       <c r="P12" s="8">
-        <v>0.11399</v>
+        <v>0.11398999999999999</v>
       </c>
       <c r="Q12" s="8">
         <v>0.1169</v>
@@ -8397,16 +8405,16 @@
         <v>0.11237</v>
       </c>
       <c r="S12" s="8">
-        <v>0.07448</v>
+        <v>7.4480000000000005E-2</v>
       </c>
       <c r="T12" s="8">
-        <v>0.04858</v>
+        <v>4.8579999999999998E-2</v>
       </c>
       <c r="U12" s="8">
-        <v>0.01846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>1.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8417,61 +8425,61 @@
         <v>99.8</v>
       </c>
       <c r="D13" s="7">
-        <v>87.59999999999999</v>
+        <v>87.6</v>
       </c>
       <c r="E13" s="8">
-        <v>0.00614</v>
+        <v>6.1399999999999996E-3</v>
       </c>
       <c r="F13" s="8">
-        <v>0.01288</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="G13" s="8">
-        <v>0.009469999999999999</v>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="H13" s="8">
-        <v>0.008959999999999999</v>
+        <v>8.9599999999999992E-3</v>
       </c>
       <c r="I13" s="8">
-        <v>0.01561</v>
+        <v>1.5610000000000001E-2</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0221</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="K13" s="8">
-        <v>0.02935</v>
+        <v>2.9350000000000001E-2</v>
       </c>
       <c r="L13" s="8">
-        <v>0.03771</v>
+        <v>3.771E-2</v>
       </c>
       <c r="M13" s="8">
-        <v>0.04726</v>
+        <v>4.7260000000000003E-2</v>
       </c>
       <c r="N13" s="8">
-        <v>0.05656</v>
+        <v>5.6559999999999999E-2</v>
       </c>
       <c r="O13" s="8">
-        <v>0.06876</v>
+        <v>6.8760000000000002E-2</v>
       </c>
       <c r="P13" s="8">
-        <v>0.08864</v>
+        <v>8.8639999999999997E-2</v>
       </c>
       <c r="Q13" s="8">
-        <v>0.11457</v>
+        <v>0.11457000000000001</v>
       </c>
       <c r="R13" s="8">
-        <v>0.13615</v>
+        <v>0.13614999999999999</v>
       </c>
       <c r="S13" s="8">
         <v>0.13743</v>
       </c>
       <c r="T13" s="8">
-        <v>0.12523</v>
+        <v>0.12523000000000001</v>
       </c>
       <c r="U13" s="8">
-        <v>0.08318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>8.3180000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -8479,34 +8487,34 @@
         <v>9090</v>
       </c>
       <c r="C14" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D14" s="7">
         <v>71.2</v>
       </c>
       <c r="E14" s="8">
-        <v>0.00529</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="F14" s="8">
-        <v>0.02544</v>
+        <v>2.5440000000000001E-2</v>
       </c>
       <c r="G14" s="8">
-        <v>0.04086</v>
+        <v>4.086E-2</v>
       </c>
       <c r="H14" s="8">
-        <v>0.05132</v>
+        <v>5.1319999999999998E-2</v>
       </c>
       <c r="I14" s="8">
-        <v>0.06476</v>
+        <v>6.4759999999999998E-2</v>
       </c>
       <c r="J14" s="8">
-        <v>0.08623</v>
+        <v>8.6230000000000001E-2</v>
       </c>
       <c r="K14" s="8">
         <v>0.10749</v>
       </c>
       <c r="L14" s="8">
-        <v>0.1228</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="M14" s="8">
         <v>0.12533</v>
@@ -8515,28 +8523,28 @@
         <v>0.1065</v>
       </c>
       <c r="O14" s="8">
-        <v>0.08524</v>
+        <v>8.5239999999999996E-2</v>
       </c>
       <c r="P14" s="8">
-        <v>0.05551</v>
+        <v>5.5509999999999997E-2</v>
       </c>
       <c r="Q14" s="8">
-        <v>0.04769</v>
+        <v>4.7690000000000003E-2</v>
       </c>
       <c r="R14" s="8">
-        <v>0.03238</v>
+        <v>3.2379999999999999E-2</v>
       </c>
       <c r="S14" s="8">
-        <v>0.0196</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="T14" s="8">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="U14" s="8">
-        <v>0.009469999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>9.4699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -8547,61 +8555,61 @@
         <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E15" s="8">
-        <v>0.01491</v>
+        <v>1.491E-2</v>
       </c>
       <c r="F15" s="8">
-        <v>0.02525</v>
+        <v>2.5250000000000002E-2</v>
       </c>
       <c r="G15" s="8">
-        <v>0.03068</v>
+        <v>3.0679999999999999E-2</v>
       </c>
       <c r="H15" s="8">
-        <v>0.04171</v>
+        <v>4.1709999999999997E-2</v>
       </c>
       <c r="I15" s="8">
-        <v>0.05523</v>
+        <v>5.5230000000000001E-2</v>
       </c>
       <c r="J15" s="8">
-        <v>0.07385</v>
+        <v>7.3849999999999999E-2</v>
       </c>
       <c r="K15" s="8">
-        <v>0.08651</v>
+        <v>8.6510000000000004E-2</v>
       </c>
       <c r="L15" s="8">
-        <v>0.09668</v>
+        <v>9.6680000000000002E-2</v>
       </c>
       <c r="M15" s="8">
-        <v>0.09711</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="N15" s="8">
-        <v>0.09254999999999999</v>
+        <v>9.2549999999999993E-2</v>
       </c>
       <c r="O15" s="8">
-        <v>0.0916</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="P15" s="8">
-        <v>0.07376000000000001</v>
+        <v>7.3760000000000006E-2</v>
       </c>
       <c r="Q15" s="8">
-        <v>0.06196</v>
+        <v>6.1960000000000001E-2</v>
       </c>
       <c r="R15" s="8">
-        <v>0.05437</v>
+        <v>5.4370000000000002E-2</v>
       </c>
       <c r="S15" s="8">
-        <v>0.04541</v>
+        <v>4.5409999999999999E-2</v>
       </c>
       <c r="T15" s="8">
-        <v>0.03654</v>
+        <v>3.6540000000000003E-2</v>
       </c>
       <c r="U15" s="8">
-        <v>0.02189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>2.189E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -8615,58 +8623,58 @@
         <v>16.7</v>
       </c>
       <c r="E16" s="8">
-        <v>0.00209</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="F16" s="8">
-        <v>0.1785</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="G16" s="8">
         <v>0.40292</v>
       </c>
       <c r="H16" s="8">
-        <v>0.17328</v>
+        <v>0.17327999999999999</v>
       </c>
       <c r="I16" s="8">
-        <v>0.05428</v>
+        <v>5.4280000000000002E-2</v>
       </c>
       <c r="J16" s="8">
-        <v>0.02505</v>
+        <v>2.5049999999999999E-2</v>
       </c>
       <c r="K16" s="8">
-        <v>0.01461</v>
+        <v>1.461E-2</v>
       </c>
       <c r="L16" s="8">
-        <v>0.01357</v>
+        <v>1.357E-2</v>
       </c>
       <c r="M16" s="8">
-        <v>0.01253</v>
+        <v>1.2529999999999999E-2</v>
       </c>
       <c r="N16" s="8">
-        <v>0.00835</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="O16" s="8">
-        <v>0.00626</v>
+        <v>6.2599999999999999E-3</v>
       </c>
       <c r="P16" s="8">
-        <v>0.00522</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="Q16" s="8">
-        <v>0.01044</v>
+        <v>1.044E-2</v>
       </c>
       <c r="R16" s="8">
-        <v>0.00835</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="S16" s="8">
-        <v>0.00313</v>
+        <v>3.13E-3</v>
       </c>
       <c r="T16" s="8">
-        <v>0.009390000000000001</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="U16" s="8">
-        <v>0.07203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>7.2029999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -8674,64 +8682,64 @@
         <v>25416</v>
       </c>
       <c r="C17" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D17" s="7">
-        <v>90.09999999999999</v>
+        <v>90.1</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="G17" s="8">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="H17" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="I17" s="8">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="J17" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K17" s="8">
-        <v>4E-05</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L17" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="M17" s="8">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N17" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="O17" s="8">
-        <v>0.00024</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="P17" s="8">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="Q17" s="8">
-        <v>0.00043</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="R17" s="8">
-        <v>0.00055</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="S17" s="8">
-        <v>0.00126</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="T17" s="8">
-        <v>0.00433</v>
+        <v>4.3299999999999996E-3</v>
       </c>
       <c r="U17" s="8">
-        <v>0.99189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>0.99189000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -8748,55 +8756,55 @@
         <v>0.18006</v>
       </c>
       <c r="F18" s="8">
-        <v>0.35567</v>
+        <v>0.35566999999999999</v>
       </c>
       <c r="G18" s="8">
         <v>0.11788</v>
       </c>
       <c r="H18" s="8">
-        <v>0.05773</v>
+        <v>5.7729999999999997E-2</v>
       </c>
       <c r="I18" s="8">
-        <v>0.02786</v>
+        <v>2.7859999999999999E-2</v>
       </c>
       <c r="J18" s="8">
-        <v>0.01776</v>
+        <v>1.7760000000000001E-2</v>
       </c>
       <c r="K18" s="8">
-        <v>0.01151</v>
+        <v>1.1509999999999999E-2</v>
       </c>
       <c r="L18" s="8">
-        <v>0.00929</v>
+        <v>9.2899999999999996E-3</v>
       </c>
       <c r="M18" s="8">
-        <v>0.00706</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="N18" s="8">
-        <v>0.00747</v>
+        <v>7.4700000000000001E-3</v>
       </c>
       <c r="O18" s="8">
-        <v>0.00929</v>
+        <v>9.2899999999999996E-3</v>
       </c>
       <c r="P18" s="8">
-        <v>0.00666</v>
+        <v>6.6600000000000001E-3</v>
       </c>
       <c r="Q18" s="8">
-        <v>0.008070000000000001</v>
+        <v>8.0700000000000008E-3</v>
       </c>
       <c r="R18" s="8">
-        <v>0.01151</v>
+        <v>1.1509999999999999E-2</v>
       </c>
       <c r="S18" s="8">
-        <v>0.0113</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="T18" s="8">
-        <v>0.01453</v>
+        <v>1.453E-2</v>
       </c>
       <c r="U18" s="8">
-        <v>0.14635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>0.14635000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -8804,64 +8812,64 @@
         <v>91830</v>
       </c>
       <c r="C19" s="7">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D19" s="7">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="E19" s="8">
-        <v>0.00021</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="F19" s="8">
-        <v>0.00224</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="G19" s="8">
-        <v>0.00106</v>
+        <v>1.06E-3</v>
       </c>
       <c r="H19" s="8">
-        <v>0.00277</v>
+        <v>2.7699999999999999E-3</v>
       </c>
       <c r="I19" s="8">
-        <v>0.00256</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0017</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K19" s="8">
-        <v>0.00319</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="L19" s="8">
-        <v>0.00479</v>
+        <v>4.79E-3</v>
       </c>
       <c r="M19" s="8">
-        <v>0.00735</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="N19" s="8">
-        <v>0.009480000000000001</v>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="O19" s="8">
-        <v>0.01171</v>
+        <v>1.171E-2</v>
       </c>
       <c r="P19" s="8">
-        <v>0.01725</v>
+        <v>1.7250000000000001E-2</v>
       </c>
       <c r="Q19" s="8">
-        <v>0.02268</v>
+        <v>2.2679999999999999E-2</v>
       </c>
       <c r="R19" s="8">
-        <v>0.03706</v>
+        <v>3.7060000000000003E-2</v>
       </c>
       <c r="S19" s="8">
-        <v>0.04771</v>
+        <v>4.7710000000000002E-2</v>
       </c>
       <c r="T19" s="8">
-        <v>0.09701</v>
+        <v>9.7009999999999999E-2</v>
       </c>
       <c r="U19" s="8">
-        <v>0.73123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>0.73123000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -8875,58 +8883,58 @@
         <v>60</v>
       </c>
       <c r="E20" s="8">
-        <v>0.00374</v>
+        <v>3.7399999999999998E-3</v>
       </c>
       <c r="F20" s="8">
-        <v>0.009350000000000001</v>
+        <v>9.3500000000000007E-3</v>
       </c>
       <c r="G20" s="8">
-        <v>0.01453</v>
+        <v>1.453E-2</v>
       </c>
       <c r="H20" s="8">
-        <v>0.01316</v>
+        <v>1.316E-2</v>
       </c>
       <c r="I20" s="8">
-        <v>0.01524</v>
+        <v>1.524E-2</v>
       </c>
       <c r="J20" s="8">
-        <v>0.01381</v>
+        <v>1.3809999999999999E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>0.01481</v>
+        <v>1.481E-2</v>
       </c>
       <c r="L20" s="8">
-        <v>0.02006</v>
+        <v>2.0060000000000001E-2</v>
       </c>
       <c r="M20" s="8">
-        <v>0.02337</v>
+        <v>2.3369999999999998E-2</v>
       </c>
       <c r="N20" s="8">
-        <v>0.02826</v>
+        <v>2.826E-2</v>
       </c>
       <c r="O20" s="8">
-        <v>0.03912</v>
+        <v>3.9120000000000002E-2</v>
       </c>
       <c r="P20" s="8">
-        <v>0.05213</v>
+        <v>5.2130000000000003E-2</v>
       </c>
       <c r="Q20" s="8">
-        <v>0.07529</v>
+        <v>7.5289999999999996E-2</v>
       </c>
       <c r="R20" s="8">
         <v>0.11361</v>
       </c>
       <c r="S20" s="8">
-        <v>0.1372</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="T20" s="8">
-        <v>0.17603</v>
+        <v>0.17602999999999999</v>
       </c>
       <c r="U20" s="8">
-        <v>0.25031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>0.25030999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -8934,64 +8942,64 @@
         <v>3276</v>
       </c>
       <c r="C21" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D21" s="7">
         <v>86.5</v>
       </c>
       <c r="E21" s="8">
-        <v>0.00458</v>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="F21" s="8">
-        <v>0.00305</v>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="G21" s="8">
-        <v>0.00122</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="H21" s="8">
-        <v>0.00061</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="I21" s="8">
-        <v>0.00275</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="J21" s="8">
-        <v>0.00214</v>
+        <v>2.14E-3</v>
       </c>
       <c r="K21" s="8">
-        <v>0.00305</v>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="L21" s="8">
-        <v>0.00336</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M21" s="8">
-        <v>0.00703</v>
+        <v>7.0299999999999998E-3</v>
       </c>
       <c r="N21" s="8">
-        <v>0.01222</v>
+        <v>1.222E-2</v>
       </c>
       <c r="O21" s="8">
-        <v>0.01802</v>
+        <v>1.8020000000000001E-2</v>
       </c>
       <c r="P21" s="8">
-        <v>0.01772</v>
+        <v>1.772E-2</v>
       </c>
       <c r="Q21" s="8">
-        <v>0.02841</v>
+        <v>2.8410000000000001E-2</v>
       </c>
       <c r="R21" s="8">
-        <v>0.04307</v>
+        <v>4.3069999999999997E-2</v>
       </c>
       <c r="S21" s="8">
-        <v>0.0675</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="T21" s="8">
         <v>0.16952</v>
       </c>
       <c r="U21" s="8">
-        <v>0.61576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>0.61575999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -8999,64 +9007,64 @@
         <v>17171</v>
       </c>
       <c r="C22" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D22" s="7">
         <v>66.5</v>
       </c>
       <c r="E22" s="8">
-        <v>0.009560000000000001</v>
+        <v>9.5600000000000008E-3</v>
       </c>
       <c r="F22" s="8">
-        <v>0.04761</v>
+        <v>4.761E-2</v>
       </c>
       <c r="G22" s="8">
-        <v>0.05314</v>
+        <v>5.314E-2</v>
       </c>
       <c r="H22" s="8">
-        <v>0.06509</v>
+        <v>6.5089999999999995E-2</v>
       </c>
       <c r="I22" s="8">
-        <v>0.07249</v>
+        <v>7.2489999999999999E-2</v>
       </c>
       <c r="J22" s="8">
-        <v>0.08903</v>
+        <v>8.9029999999999998E-2</v>
       </c>
       <c r="K22" s="8">
-        <v>0.09614</v>
+        <v>9.6140000000000003E-2</v>
       </c>
       <c r="L22" s="8">
-        <v>0.10465</v>
+        <v>0.10465000000000001</v>
       </c>
       <c r="M22" s="8">
-        <v>0.10547</v>
+        <v>0.10546999999999999</v>
       </c>
       <c r="N22" s="8">
-        <v>0.09224</v>
+        <v>9.2240000000000003E-2</v>
       </c>
       <c r="O22" s="8">
-        <v>0.07633</v>
+        <v>7.6329999999999995E-2</v>
       </c>
       <c r="P22" s="8">
-        <v>0.05734</v>
+        <v>5.7340000000000002E-2</v>
       </c>
       <c r="Q22" s="8">
-        <v>0.04265</v>
+        <v>4.265E-2</v>
       </c>
       <c r="R22" s="8">
-        <v>0.03123</v>
+        <v>3.1230000000000001E-2</v>
       </c>
       <c r="S22" s="8">
-        <v>0.02307</v>
+        <v>2.307E-2</v>
       </c>
       <c r="T22" s="8">
-        <v>0.02051</v>
+        <v>2.051E-2</v>
       </c>
       <c r="U22" s="8">
-        <v>0.01346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>1.346E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -9067,40 +9075,40 @@
         <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="E23" s="8">
-        <v>0.00484</v>
+        <v>4.8399999999999997E-3</v>
       </c>
       <c r="F23" s="8">
-        <v>0.01452</v>
+        <v>1.452E-2</v>
       </c>
       <c r="G23" s="8">
-        <v>0.01032</v>
+        <v>1.0319999999999999E-2</v>
       </c>
       <c r="H23" s="8">
-        <v>0.008920000000000001</v>
+        <v>8.9200000000000008E-3</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0107</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="J23" s="8">
-        <v>0.01452</v>
+        <v>1.452E-2</v>
       </c>
       <c r="K23" s="8">
-        <v>0.02254</v>
+        <v>2.2540000000000001E-2</v>
       </c>
       <c r="L23" s="8">
-        <v>0.03133</v>
+        <v>3.1329999999999997E-2</v>
       </c>
       <c r="M23" s="8">
-        <v>0.05095</v>
+        <v>5.0950000000000002E-2</v>
       </c>
       <c r="N23" s="8">
-        <v>0.06063</v>
+        <v>6.0630000000000003E-2</v>
       </c>
       <c r="O23" s="8">
-        <v>0.07974000000000001</v>
+        <v>7.9740000000000005E-2</v>
       </c>
       <c r="P23" s="8">
         <v>0.10699</v>
@@ -9109,19 +9117,19 @@
         <v>0.15578</v>
       </c>
       <c r="R23" s="8">
-        <v>0.20431</v>
+        <v>0.20430999999999999</v>
       </c>
       <c r="S23" s="8">
         <v>0.14495</v>
       </c>
       <c r="T23" s="8">
-        <v>0.05439</v>
+        <v>5.4390000000000001E-2</v>
       </c>
       <c r="U23" s="8">
-        <v>0.02458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>2.4580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9135,58 +9143,58 @@
         <v>78</v>
       </c>
       <c r="E24" s="8">
-        <v>0.009039999999999999</v>
+        <v>9.0399999999999994E-3</v>
       </c>
       <c r="F24" s="8">
-        <v>0.03725</v>
+        <v>3.7249999999999998E-2</v>
       </c>
       <c r="G24" s="8">
-        <v>0.02349</v>
+        <v>2.349E-2</v>
       </c>
       <c r="H24" s="8">
-        <v>0.02613</v>
+        <v>2.613E-2</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0367</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="J24" s="8">
-        <v>0.04518</v>
+        <v>4.5179999999999998E-2</v>
       </c>
       <c r="K24" s="8">
-        <v>0.05616</v>
+        <v>5.6160000000000002E-2</v>
       </c>
       <c r="L24" s="8">
-        <v>0.07131</v>
+        <v>7.1309999999999998E-2</v>
       </c>
       <c r="M24" s="8">
-        <v>0.08742999999999999</v>
+        <v>8.7429999999999994E-2</v>
       </c>
       <c r="N24" s="8">
-        <v>0.08604000000000001</v>
+        <v>8.6040000000000005E-2</v>
       </c>
       <c r="O24" s="8">
-        <v>0.09425</v>
+        <v>9.425E-2</v>
       </c>
       <c r="P24" s="8">
-        <v>0.08869</v>
+        <v>8.8690000000000005E-2</v>
       </c>
       <c r="Q24" s="8">
-        <v>0.07464999999999999</v>
+        <v>7.4649999999999994E-2</v>
       </c>
       <c r="R24" s="8">
-        <v>0.0752</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="S24" s="8">
-        <v>0.06950000000000001</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="T24" s="8">
-        <v>0.07145</v>
+        <v>7.145E-2</v>
       </c>
       <c r="U24" s="8">
-        <v>0.04754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>4.7539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -9194,64 +9202,64 @@
         <v>11757</v>
       </c>
       <c r="C25" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D25" s="7">
         <v>91</v>
       </c>
       <c r="E25" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="F25" s="8">
-        <v>0.00026</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="G25" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="H25" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I25" s="8">
-        <v>0.00034</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J25" s="8">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="K25" s="8">
-        <v>0.00077</v>
+        <v>7.6999999999999996E-4</v>
       </c>
       <c r="L25" s="8">
-        <v>0.00068</v>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="M25" s="8">
-        <v>0.00136</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="N25" s="8">
-        <v>0.00136</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="O25" s="8">
-        <v>0.00213</v>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="P25" s="8">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q25" s="8">
-        <v>0.00477</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="R25" s="8">
-        <v>0.00817</v>
+        <v>8.1700000000000002E-3</v>
       </c>
       <c r="S25" s="8">
-        <v>0.01455</v>
+        <v>1.455E-2</v>
       </c>
       <c r="T25" s="8">
-        <v>0.04281</v>
+        <v>4.2810000000000001E-2</v>
       </c>
       <c r="U25" s="8">
-        <v>0.91821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>0.91820999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -9265,58 +9273,58 @@
         <v>49.7</v>
       </c>
       <c r="E26" s="8">
-        <v>0.28261</v>
+        <v>0.28260999999999997</v>
       </c>
       <c r="F26" s="8">
-        <v>0.05507</v>
+        <v>5.5070000000000001E-2</v>
       </c>
       <c r="G26" s="8">
-        <v>0.03913</v>
+        <v>3.9129999999999998E-2</v>
       </c>
       <c r="H26" s="8">
-        <v>0.01739</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="I26" s="8">
-        <v>0.03188</v>
+        <v>3.1879999999999999E-2</v>
       </c>
       <c r="J26" s="8">
-        <v>0.03188</v>
+        <v>3.1879999999999999E-2</v>
       </c>
       <c r="K26" s="8">
-        <v>0.02029</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="L26" s="8">
-        <v>0.02319</v>
+        <v>2.3189999999999999E-2</v>
       </c>
       <c r="M26" s="8">
-        <v>0.01739</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="N26" s="8">
-        <v>0.02319</v>
+        <v>2.3189999999999999E-2</v>
       </c>
       <c r="O26" s="8">
-        <v>0.02029</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="P26" s="8">
-        <v>0.01304</v>
+        <v>1.304E-2</v>
       </c>
       <c r="Q26" s="8">
-        <v>0.01739</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="R26" s="8">
-        <v>0.01594</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="S26" s="8">
-        <v>0.01449</v>
+        <v>1.4489999999999999E-2</v>
       </c>
       <c r="T26" s="8">
-        <v>0.02029</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="U26" s="8">
         <v>0.35652</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -9333,55 +9341,55 @@
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G27" s="8">
-        <v>9.000000000000001E-05</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="J27" s="8">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="K27" s="8">
-        <v>0.00023</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="L27" s="8">
-        <v>0.00027</v>
+        <v>2.7E-4</v>
       </c>
       <c r="M27" s="8">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="N27" s="8">
-        <v>0.00063</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="O27" s="8">
-        <v>0.00113</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="P27" s="8">
-        <v>0.00235</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="Q27" s="8">
-        <v>0.00289</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="R27" s="8">
-        <v>0.00682</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="S27" s="8">
-        <v>0.01631</v>
+        <v>1.6310000000000002E-2</v>
       </c>
       <c r="T27" s="8">
-        <v>0.05728</v>
+        <v>5.7279999999999998E-2</v>
       </c>
       <c r="U27" s="8">
-        <v>0.91142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>0.91142000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9395,58 +9403,58 @@
         <v>95.7</v>
       </c>
       <c r="E28" s="8">
-        <v>0.00012</v>
+        <v>1.2E-4</v>
       </c>
       <c r="F28" s="8">
-        <v>0.00065</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="G28" s="8">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="H28" s="8">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="I28" s="8">
-        <v>0.00024</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="J28" s="8">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="K28" s="8">
-        <v>0.00088</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="L28" s="8">
-        <v>0.00124</v>
+        <v>1.24E-3</v>
       </c>
       <c r="M28" s="8">
-        <v>0.00112</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="N28" s="8">
-        <v>0.00124</v>
+        <v>1.24E-3</v>
       </c>
       <c r="O28" s="8">
-        <v>0.00177</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="P28" s="8">
-        <v>0.00236</v>
+        <v>2.3600000000000001E-3</v>
       </c>
       <c r="Q28" s="8">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="R28" s="8">
-        <v>0.00843</v>
+        <v>8.43E-3</v>
       </c>
       <c r="S28" s="8">
-        <v>0.01604</v>
+        <v>1.6039999999999999E-2</v>
       </c>
       <c r="T28" s="8">
-        <v>0.04788</v>
+        <v>4.7879999999999999E-2</v>
       </c>
       <c r="U28" s="8">
-        <v>0.91267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>0.91266999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -9457,61 +9465,61 @@
         <v>99.8</v>
       </c>
       <c r="D29" s="7">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="E29" s="8">
-        <v>0.00233</v>
+        <v>2.33E-3</v>
       </c>
       <c r="F29" s="8">
-        <v>0.00047</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="G29" s="8">
-        <v>0.00047</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="H29" s="8">
-        <v>0.00047</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="I29" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="J29" s="8">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K29" s="8">
-        <v>0.0009300000000000001</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="L29" s="8">
-        <v>0.00233</v>
+        <v>2.33E-3</v>
       </c>
       <c r="M29" s="8">
-        <v>0.00466</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="N29" s="8">
-        <v>0.00559</v>
+        <v>5.5900000000000004E-3</v>
       </c>
       <c r="O29" s="8">
-        <v>0.008229999999999999</v>
+        <v>8.2299999999999995E-3</v>
       </c>
       <c r="P29" s="8">
-        <v>0.01739</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="Q29" s="8">
-        <v>0.02888</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="R29" s="8">
-        <v>0.05061</v>
+        <v>5.0610000000000002E-2</v>
       </c>
       <c r="S29" s="8">
-        <v>0.08819</v>
+        <v>8.8190000000000004E-2</v>
       </c>
       <c r="T29" s="8">
-        <v>0.16457</v>
+        <v>0.16456999999999999</v>
       </c>
       <c r="U29" s="8">
-        <v>0.62459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>0.62458999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -9519,64 +9527,64 @@
         <v>25878</v>
       </c>
       <c r="C30" s="7">
-        <v>89.90000000000001</v>
+        <v>89.9</v>
       </c>
       <c r="D30" s="7">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="E30" s="8">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="F30" s="8">
-        <v>0.00039</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="G30" s="8">
-        <v>0.00086</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="H30" s="8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I30" s="8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="J30" s="8">
-        <v>0.00107</v>
+        <v>1.07E-3</v>
       </c>
       <c r="K30" s="8">
-        <v>0.00116</v>
+        <v>1.16E-3</v>
       </c>
       <c r="L30" s="8">
-        <v>0.00193</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="M30" s="8">
-        <v>0.00297</v>
+        <v>2.97E-3</v>
       </c>
       <c r="N30" s="8">
-        <v>0.00284</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="O30" s="8">
-        <v>0.00524</v>
+        <v>5.2399999999999999E-3</v>
       </c>
       <c r="P30" s="8">
-        <v>0.00726</v>
+        <v>7.26E-3</v>
       </c>
       <c r="Q30" s="8">
-        <v>0.01212</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="R30" s="8">
-        <v>0.01878</v>
+        <v>1.8780000000000002E-2</v>
       </c>
       <c r="S30" s="8">
-        <v>0.03426</v>
+        <v>3.4259999999999999E-2</v>
       </c>
       <c r="T30" s="8">
-        <v>0.09087000000000001</v>
+        <v>9.0870000000000006E-2</v>
       </c>
       <c r="U30" s="8">
-        <v>0.8186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>0.81859999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -9587,49 +9595,49 @@
         <v>23.4</v>
       </c>
       <c r="D31" s="7">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="E31" s="8">
-        <v>0.00033</v>
+        <v>3.3E-4</v>
       </c>
       <c r="F31" s="8">
-        <v>0.00193</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="G31" s="8">
-        <v>0.00326</v>
+        <v>3.2599999999999999E-3</v>
       </c>
       <c r="H31" s="8">
-        <v>0.00366</v>
+        <v>3.6600000000000001E-3</v>
       </c>
       <c r="I31" s="8">
-        <v>0.00579</v>
+        <v>5.79E-3</v>
       </c>
       <c r="J31" s="8">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="K31" s="8">
-        <v>0.00851</v>
+        <v>8.5100000000000002E-3</v>
       </c>
       <c r="L31" s="8">
-        <v>0.01124</v>
+        <v>1.124E-2</v>
       </c>
       <c r="M31" s="8">
-        <v>0.01789</v>
+        <v>1.789E-2</v>
       </c>
       <c r="N31" s="8">
-        <v>0.02234</v>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="O31" s="8">
-        <v>0.03019</v>
+        <v>3.0190000000000002E-2</v>
       </c>
       <c r="P31" s="8">
-        <v>0.04163</v>
+        <v>4.163E-2</v>
       </c>
       <c r="Q31" s="8">
-        <v>0.05427</v>
+        <v>5.4269999999999999E-2</v>
       </c>
       <c r="R31" s="8">
-        <v>0.08167000000000001</v>
+        <v>8.1670000000000006E-2</v>
       </c>
       <c r="S31" s="8">
         <v>0.11305</v>
@@ -9638,10 +9646,10 @@
         <v>0.19705</v>
       </c>
       <c r="U31" s="8">
-        <v>0.40008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>0.40007999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -9649,64 +9657,64 @@
         <v>59739</v>
       </c>
       <c r="C32" s="7">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D32" s="7">
         <v>62</v>
       </c>
       <c r="E32" s="8">
-        <v>0.01291</v>
+        <v>1.291E-2</v>
       </c>
       <c r="F32" s="8">
-        <v>0.01838</v>
+        <v>1.8380000000000001E-2</v>
       </c>
       <c r="G32" s="8">
-        <v>0.02423</v>
+        <v>2.4230000000000002E-2</v>
       </c>
       <c r="H32" s="8">
-        <v>0.01892</v>
+        <v>1.8919999999999999E-2</v>
       </c>
       <c r="I32" s="8">
-        <v>0.009900000000000001</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="J32" s="8">
-        <v>0.00644</v>
+        <v>6.4400000000000004E-3</v>
       </c>
       <c r="K32" s="8">
-        <v>0.0042</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="L32" s="8">
-        <v>0.00356</v>
+        <v>3.5599999999999998E-3</v>
       </c>
       <c r="M32" s="8">
-        <v>0.00307</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="N32" s="8">
-        <v>0.00322</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="O32" s="8">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="P32" s="8">
-        <v>0.00348</v>
+        <v>3.48E-3</v>
       </c>
       <c r="Q32" s="8">
-        <v>0.00356</v>
+        <v>3.5599999999999998E-3</v>
       </c>
       <c r="R32" s="8">
-        <v>0.00467</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="S32" s="8">
-        <v>0.008580000000000001</v>
+        <v>8.5800000000000008E-3</v>
       </c>
       <c r="T32" s="8">
-        <v>0.01982</v>
+        <v>1.9820000000000001E-2</v>
       </c>
       <c r="U32" s="8">
-        <v>0.85187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>0.85187000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -9714,64 +9722,64 @@
         <v>39012</v>
       </c>
       <c r="C33" s="7">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D33" s="7">
-        <v>78.09999999999999</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E33" s="8">
-        <v>0.00076</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="F33" s="8">
-        <v>0.00186</v>
+        <v>1.8600000000000001E-3</v>
       </c>
       <c r="G33" s="8">
-        <v>0.00241</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="H33" s="8">
-        <v>0.00261</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="I33" s="8">
-        <v>0.0042</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J33" s="8">
-        <v>0.00592</v>
+        <v>5.9199999999999999E-3</v>
       </c>
       <c r="K33" s="8">
-        <v>0.00592</v>
+        <v>5.9199999999999999E-3</v>
       </c>
       <c r="L33" s="8">
-        <v>0.00709</v>
+        <v>7.0899999999999999E-3</v>
       </c>
       <c r="M33" s="8">
-        <v>0.01039</v>
+        <v>1.039E-2</v>
       </c>
       <c r="N33" s="8">
-        <v>0.01321</v>
+        <v>1.321E-2</v>
       </c>
       <c r="O33" s="8">
-        <v>0.0152</v>
+        <v>1.52E-2</v>
       </c>
       <c r="P33" s="8">
-        <v>0.01878</v>
+        <v>1.8780000000000002E-2</v>
       </c>
       <c r="Q33" s="8">
-        <v>0.02924</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="R33" s="8">
-        <v>0.04265</v>
+        <v>4.265E-2</v>
       </c>
       <c r="S33" s="8">
-        <v>0.06741999999999999</v>
+        <v>6.7419999999999994E-2</v>
       </c>
       <c r="T33" s="8">
-        <v>0.14364</v>
+        <v>0.14363999999999999</v>
       </c>
       <c r="U33" s="8">
-        <v>0.62871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>0.62870999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -9779,64 +9787,64 @@
         <v>13818</v>
       </c>
       <c r="C34" s="7">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="D34" s="7">
         <v>48.6</v>
       </c>
       <c r="E34" s="8">
-        <v>0.11811</v>
+        <v>0.11811000000000001</v>
       </c>
       <c r="F34" s="8">
-        <v>0.19299</v>
+        <v>0.19298999999999999</v>
       </c>
       <c r="G34" s="8">
         <v>0.11323</v>
       </c>
       <c r="H34" s="8">
-        <v>0.08318</v>
+        <v>8.3180000000000004E-2</v>
       </c>
       <c r="I34" s="8">
-        <v>0.06637</v>
+        <v>6.6369999999999998E-2</v>
       </c>
       <c r="J34" s="8">
-        <v>0.05181</v>
+        <v>5.1810000000000002E-2</v>
       </c>
       <c r="K34" s="8">
-        <v>0.03537</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="L34" s="8">
-        <v>0.03093</v>
+        <v>3.0929999999999999E-2</v>
       </c>
       <c r="M34" s="8">
-        <v>0.02241</v>
+        <v>2.2409999999999999E-2</v>
       </c>
       <c r="N34" s="8">
-        <v>0.01645</v>
+        <v>1.6449999999999999E-2</v>
       </c>
       <c r="O34" s="8">
-        <v>0.01659</v>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="P34" s="8">
-        <v>0.01368</v>
+        <v>1.3679999999999999E-2</v>
       </c>
       <c r="Q34" s="8">
-        <v>0.02023</v>
+        <v>2.0230000000000001E-2</v>
       </c>
       <c r="R34" s="8">
-        <v>0.02838</v>
+        <v>2.8379999999999999E-2</v>
       </c>
       <c r="S34" s="8">
-        <v>0.0465</v>
+        <v>4.65E-2</v>
       </c>
       <c r="T34" s="8">
-        <v>0.07634000000000001</v>
+        <v>7.6340000000000005E-2</v>
       </c>
       <c r="U34" s="8">
-        <v>0.06746000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>6.7460000000000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -9847,61 +9855,61 @@
         <v>100</v>
       </c>
       <c r="D35" s="7">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="E35" s="8">
-        <v>6.999999999999999E-05</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="F35" s="8">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G35" s="8">
-        <v>0.00107</v>
+        <v>1.07E-3</v>
       </c>
       <c r="H35" s="8">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I35" s="8">
-        <v>0.00234</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="J35" s="8">
-        <v>0.00288</v>
+        <v>2.8800000000000002E-3</v>
       </c>
       <c r="K35" s="8">
-        <v>0.00442</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="L35" s="8">
-        <v>0.00729</v>
+        <v>7.2899999999999996E-3</v>
       </c>
       <c r="M35" s="8">
-        <v>0.01225</v>
+        <v>1.225E-2</v>
       </c>
       <c r="N35" s="8">
-        <v>0.01546</v>
+        <v>1.546E-2</v>
       </c>
       <c r="O35" s="8">
-        <v>0.02443</v>
+        <v>2.443E-2</v>
       </c>
       <c r="P35" s="8">
-        <v>0.03848</v>
+        <v>3.848E-2</v>
       </c>
       <c r="Q35" s="8">
-        <v>0.06257</v>
+        <v>6.2570000000000001E-2</v>
       </c>
       <c r="R35" s="8">
-        <v>0.10333</v>
+        <v>0.10333000000000001</v>
       </c>
       <c r="S35" s="8">
-        <v>0.17319</v>
+        <v>0.17319000000000001</v>
       </c>
       <c r="T35" s="8">
         <v>0.30268</v>
       </c>
       <c r="U35" s="8">
-        <v>0.24754</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>0.24754000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -9909,64 +9917,64 @@
         <v>13991</v>
       </c>
       <c r="C36" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D36" s="7">
         <v>88.3</v>
       </c>
       <c r="E36" s="8">
-        <v>0.00143</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="F36" s="8">
-        <v>0.00608</v>
+        <v>6.0800000000000003E-3</v>
       </c>
       <c r="G36" s="8">
-        <v>0.008160000000000001</v>
+        <v>8.1600000000000006E-3</v>
       </c>
       <c r="H36" s="8">
-        <v>0.00737</v>
+        <v>7.3699999999999998E-3</v>
       </c>
       <c r="I36" s="8">
-        <v>0.01345</v>
+        <v>1.345E-2</v>
       </c>
       <c r="J36" s="8">
-        <v>0.01645</v>
+        <v>1.6449999999999999E-2</v>
       </c>
       <c r="K36" s="8">
-        <v>0.02082</v>
+        <v>2.0820000000000002E-2</v>
       </c>
       <c r="L36" s="8">
-        <v>0.02361</v>
+        <v>2.3609999999999999E-2</v>
       </c>
       <c r="M36" s="8">
-        <v>0.02983</v>
+        <v>2.9829999999999999E-2</v>
       </c>
       <c r="N36" s="8">
-        <v>0.0309</v>
+        <v>3.09E-2</v>
       </c>
       <c r="O36" s="8">
-        <v>0.0362</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="P36" s="8">
-        <v>0.04335</v>
+        <v>4.335E-2</v>
       </c>
       <c r="Q36" s="8">
-        <v>0.06166</v>
+        <v>6.166E-2</v>
       </c>
       <c r="R36" s="8">
         <v>0.10072</v>
       </c>
       <c r="S36" s="8">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="T36" s="8">
-        <v>0.21518</v>
+        <v>0.21518000000000001</v>
       </c>
       <c r="U36" s="8">
-        <v>0.24279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>0.24279000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -9974,64 +9982,64 @@
         <v>23670</v>
       </c>
       <c r="C37" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D37" s="7">
         <v>88.2</v>
       </c>
       <c r="E37" s="8">
-        <v>0.00135</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="F37" s="8">
-        <v>0.00397</v>
+        <v>3.9699999999999996E-3</v>
       </c>
       <c r="G37" s="8">
-        <v>0.00588</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="H37" s="8">
-        <v>0.009339999999999999</v>
+        <v>9.3399999999999993E-3</v>
       </c>
       <c r="I37" s="8">
-        <v>0.01234</v>
+        <v>1.234E-2</v>
       </c>
       <c r="J37" s="8">
-        <v>0.01945</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="K37" s="8">
-        <v>0.02435</v>
+        <v>2.435E-2</v>
       </c>
       <c r="L37" s="8">
-        <v>0.03323</v>
+        <v>3.3230000000000003E-2</v>
       </c>
       <c r="M37" s="8">
-        <v>0.04747</v>
+        <v>4.7469999999999998E-2</v>
       </c>
       <c r="N37" s="8">
-        <v>0.05276</v>
+        <v>5.2760000000000001E-2</v>
       </c>
       <c r="O37" s="8">
-        <v>0.07267</v>
+        <v>7.2669999999999998E-2</v>
       </c>
       <c r="P37" s="8">
-        <v>0.07981000000000001</v>
+        <v>7.9810000000000006E-2</v>
       </c>
       <c r="Q37" s="8">
-        <v>0.10086</v>
+        <v>0.10086000000000001</v>
       </c>
       <c r="R37" s="8">
         <v>0.11655</v>
       </c>
       <c r="S37" s="8">
-        <v>0.13823</v>
+        <v>0.13822999999999999</v>
       </c>
       <c r="T37" s="8">
-        <v>0.17273</v>
+        <v>0.17272999999999999</v>
       </c>
       <c r="U37" s="8">
-        <v>0.10902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>0.10902000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -10039,49 +10047,49 @@
         <v>21483</v>
       </c>
       <c r="C38" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D38" s="7">
         <v>86.7</v>
       </c>
       <c r="E38" s="8">
-        <v>0.00135</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="F38" s="8">
-        <v>0.0089</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G38" s="8">
-        <v>0.0136</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="H38" s="8">
-        <v>0.01979</v>
+        <v>1.9789999999999999E-2</v>
       </c>
       <c r="I38" s="8">
-        <v>0.02729</v>
+        <v>2.7289999999999998E-2</v>
       </c>
       <c r="J38" s="8">
-        <v>0.03288</v>
+        <v>3.288E-2</v>
       </c>
       <c r="K38" s="8">
-        <v>0.0374</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="L38" s="8">
-        <v>0.04499</v>
+        <v>4.4990000000000002E-2</v>
       </c>
       <c r="M38" s="8">
-        <v>0.05263</v>
+        <v>5.2630000000000003E-2</v>
       </c>
       <c r="N38" s="8">
-        <v>0.05803</v>
+        <v>5.8029999999999998E-2</v>
       </c>
       <c r="O38" s="8">
-        <v>0.06827</v>
+        <v>6.8269999999999997E-2</v>
       </c>
       <c r="P38" s="8">
-        <v>0.07661</v>
+        <v>7.6609999999999998E-2</v>
       </c>
       <c r="Q38" s="8">
-        <v>0.09072</v>
+        <v>9.0719999999999995E-2</v>
       </c>
       <c r="R38" s="8">
         <v>0.10628</v>
@@ -10093,10 +10101,10 @@
         <v>0.14382</v>
       </c>
       <c r="U38" s="8">
-        <v>0.09026000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>9.0260000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -10107,61 +10115,61 @@
         <v>82.8</v>
       </c>
       <c r="D39" s="7">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="E39" s="8">
-        <v>0.00044</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="F39" s="8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G39" s="8">
-        <v>0.00081</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="H39" s="8">
-        <v>0.00092</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="I39" s="8">
-        <v>0.00138</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="J39" s="8">
-        <v>0.00136</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="K39" s="8">
-        <v>0.00221</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="L39" s="8">
-        <v>0.00309</v>
+        <v>3.0899999999999999E-3</v>
       </c>
       <c r="M39" s="8">
-        <v>0.0041</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="N39" s="8">
-        <v>0.00465</v>
+        <v>4.6499999999999996E-3</v>
       </c>
       <c r="O39" s="8">
-        <v>0.00675</v>
+        <v>6.7499999999999999E-3</v>
       </c>
       <c r="P39" s="8">
-        <v>0.00903</v>
+        <v>9.0299999999999998E-3</v>
       </c>
       <c r="Q39" s="8">
-        <v>0.01372</v>
+        <v>1.372E-2</v>
       </c>
       <c r="R39" s="8">
-        <v>0.02084</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="S39" s="8">
-        <v>0.03939</v>
+        <v>3.9390000000000001E-2</v>
       </c>
       <c r="T39" s="8">
-        <v>0.09564</v>
+        <v>9.5640000000000003E-2</v>
       </c>
       <c r="U39" s="8">
         <v>0.79479</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -10175,58 +10183,58 @@
         <v>91.8</v>
       </c>
       <c r="E40" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F40" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I40" s="8">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J40" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K40" s="8">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L40" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M40" s="8">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="N40" s="8">
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P40" s="8">
-        <v>0.00055</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="Q40" s="8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="R40" s="8">
-        <v>0.00111</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="S40" s="8">
-        <v>0.00251</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="T40" s="8">
-        <v>0.00699</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="U40" s="8">
-        <v>0.98708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>0.98707999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -10237,61 +10245,61 @@
         <v>100</v>
       </c>
       <c r="D41" s="7">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="E41" s="8">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F41" s="8">
-        <v>0.01049</v>
+        <v>1.0489999999999999E-2</v>
       </c>
       <c r="G41" s="8">
-        <v>0.01632</v>
+        <v>1.6320000000000001E-2</v>
       </c>
       <c r="H41" s="8">
-        <v>0.01748</v>
+        <v>1.7479999999999999E-2</v>
       </c>
       <c r="I41" s="8">
-        <v>0.00233</v>
+        <v>2.33E-3</v>
       </c>
       <c r="J41" s="8">
-        <v>0.00466</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="K41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="L41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="M41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="N41" s="8">
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="P41" s="8">
-        <v>0.00233</v>
+        <v>2.33E-3</v>
       </c>
       <c r="Q41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="R41" s="8">
-        <v>0.00233</v>
+        <v>2.33E-3</v>
       </c>
       <c r="S41" s="8">
-        <v>0.00117</v>
+        <v>1.17E-3</v>
       </c>
       <c r="T41" s="8">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="U41" s="8">
-        <v>0.93007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>0.93006999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -10299,64 +10307,64 @@
         <v>10781</v>
       </c>
       <c r="C42" s="7">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="D42" s="7">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="E42" s="8">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F42" s="8">
-        <v>0.00715</v>
+        <v>7.1500000000000001E-3</v>
       </c>
       <c r="G42" s="8">
-        <v>0.00631</v>
+        <v>6.3099999999999996E-3</v>
       </c>
       <c r="H42" s="8">
-        <v>0.00659</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="I42" s="8">
-        <v>0.007979999999999999</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="J42" s="8">
-        <v>0.01263</v>
+        <v>1.2630000000000001E-2</v>
       </c>
       <c r="K42" s="8">
-        <v>0.01244</v>
+        <v>1.244E-2</v>
       </c>
       <c r="L42" s="8">
-        <v>0.01253</v>
+        <v>1.2529999999999999E-2</v>
       </c>
       <c r="M42" s="8">
-        <v>0.01838</v>
+        <v>1.8380000000000001E-2</v>
       </c>
       <c r="N42" s="8">
-        <v>0.02005</v>
+        <v>2.0049999999999998E-2</v>
       </c>
       <c r="O42" s="8">
-        <v>0.02191</v>
+        <v>2.1909999999999999E-2</v>
       </c>
       <c r="P42" s="8">
-        <v>0.02655</v>
+        <v>2.6550000000000001E-2</v>
       </c>
       <c r="Q42" s="8">
-        <v>0.03742</v>
+        <v>3.7420000000000002E-2</v>
       </c>
       <c r="R42" s="8">
-        <v>0.05116</v>
+        <v>5.1159999999999997E-2</v>
       </c>
       <c r="S42" s="8">
-        <v>0.06081</v>
+        <v>6.0810000000000003E-2</v>
       </c>
       <c r="T42" s="8">
-        <v>0.07724</v>
+        <v>7.7240000000000003E-2</v>
       </c>
       <c r="U42" s="8">
-        <v>0.6182299999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>0.61822999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -10370,58 +10378,58 @@
         <v>73</v>
       </c>
       <c r="E43" s="8">
-        <v>0.04648</v>
+        <v>4.648E-2</v>
       </c>
       <c r="F43" s="8">
-        <v>0.04469</v>
+        <v>4.4690000000000001E-2</v>
       </c>
       <c r="G43" s="8">
-        <v>0.01511</v>
+        <v>1.511E-2</v>
       </c>
       <c r="H43" s="8">
-        <v>0.00683</v>
+        <v>6.8300000000000001E-3</v>
       </c>
       <c r="I43" s="8">
-        <v>0.00455</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="J43" s="8">
-        <v>0.00585</v>
+        <v>5.8500000000000002E-3</v>
       </c>
       <c r="K43" s="8">
-        <v>0.00471</v>
+        <v>4.7099999999999998E-3</v>
       </c>
       <c r="L43" s="8">
-        <v>0.00423</v>
+        <v>4.2300000000000003E-3</v>
       </c>
       <c r="M43" s="8">
-        <v>0.00423</v>
+        <v>4.2300000000000003E-3</v>
       </c>
       <c r="N43" s="8">
-        <v>0.00325</v>
+        <v>3.2499999999999999E-3</v>
       </c>
       <c r="O43" s="8">
-        <v>0.00569</v>
+        <v>5.6899999999999997E-3</v>
       </c>
       <c r="P43" s="8">
-        <v>0.00439</v>
+        <v>4.3899999999999998E-3</v>
       </c>
       <c r="Q43" s="8">
-        <v>0.00796</v>
+        <v>7.9600000000000001E-3</v>
       </c>
       <c r="R43" s="8">
-        <v>0.01089</v>
+        <v>1.089E-2</v>
       </c>
       <c r="S43" s="8">
-        <v>0.02064</v>
+        <v>2.0639999999999999E-2</v>
       </c>
       <c r="T43" s="8">
-        <v>0.05282</v>
+        <v>5.2819999999999999E-2</v>
       </c>
       <c r="U43" s="8">
-        <v>0.75768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>0.75768000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -10429,58 +10437,58 @@
         <v>2718</v>
       </c>
       <c r="C44" s="7">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="D44" s="7">
         <v>15.2</v>
       </c>
       <c r="E44" s="8">
-        <v>0.62669</v>
+        <v>0.62668999999999997</v>
       </c>
       <c r="F44" s="8">
-        <v>0.09569</v>
+        <v>9.5689999999999997E-2</v>
       </c>
       <c r="G44" s="8">
-        <v>0.05421</v>
+        <v>5.4210000000000001E-2</v>
       </c>
       <c r="H44" s="8">
-        <v>0.03901</v>
+        <v>3.9010000000000003E-2</v>
       </c>
       <c r="I44" s="8">
-        <v>0.01971</v>
+        <v>1.9709999999999998E-2</v>
       </c>
       <c r="J44" s="8">
-        <v>0.01478</v>
+        <v>1.478E-2</v>
       </c>
       <c r="K44" s="8">
-        <v>0.00903</v>
+        <v>9.0299999999999998E-3</v>
       </c>
       <c r="L44" s="8">
-        <v>0.0078</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="M44" s="8">
-        <v>0.00287</v>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="N44" s="8">
-        <v>0.00411</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="O44" s="8">
-        <v>0.00287</v>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="P44" s="8">
-        <v>0.00452</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="Q44" s="8">
-        <v>0.00287</v>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="R44" s="8">
-        <v>0.00287</v>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="S44" s="8">
-        <v>0.00452</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="T44" s="8">
-        <v>0.00616</v>
+        <v>6.1599999999999997E-3</v>
       </c>
       <c r="U44" s="8">
         <v>0.10226</v>

--- a/06-figures_tables/Dataset_S2.xlsx
+++ b/06-figures_tables/Dataset_S2.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huebner/github/EMN001_Paleofuran/06-figures_tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19F130-BD9B-EC4F-B12F-56AA1898B20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="S2a - de novo assembly stats" sheetId="1" r:id="rId1"/>
     <sheet name="S2b - consensus correction" sheetId="2" r:id="rId2"/>
     <sheet name="S2c - pyDamage analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="131">
   <si>
     <t>BAN001</t>
   </si>
@@ -201,9 +195,21 @@
     <t>ZAF001</t>
   </si>
   <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>present-day</t>
+  </si>
+  <si>
+    <t>Table S2a: Overview of performance of the de novo assembly of the metagenomic sequencing data. Only contigs with a minimal length of 500 bp were considered. The columns N0 to N100 represent the maximal and minimal contig length plus the nine deciles.</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
   <si>
+    <t>sample type</t>
+  </si>
+  <si>
     <t>total length [bp]</t>
   </si>
   <si>
@@ -403,20 +409,19 @@
   </si>
   <si>
     <t>95% &lt;= PA &lt; 100%</t>
-  </si>
-  <si>
-    <t>Table S2a: Overview of performance of the de novo assembly of the metagenomic sequencing data. Only contigs with a minimal length of 500 bp were considered. The columns N0 to N100 represent the maximal and minimal contig length plus the nine deciles.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,13 +475,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,14 +490,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -539,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,27 +568,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,24 +602,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,341 +777,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" style="2" customWidth="1"/>
-    <col min="12" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="19" width="6.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2">
         <v>26695504</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>10385</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>6081</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1524</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>334</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>30101</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>12482</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>9153</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>7288</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>5865</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>4700</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>3710</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>2787</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>1898</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>949</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2">
         <v>27359306</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>21748</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>9467</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>205</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>11399</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>3988</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>3005</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>2393</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1928</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>1557</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>1242</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>983</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>772</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>616</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
         <v>39875405</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>30601</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>10541</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>773</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>300</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>57</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>113633</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>14924</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>6211</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>3227</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2081</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>1516</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>1151</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>907</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>730</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>600</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
         <v>51090701</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>42702</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>13319</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>915</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>147</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>9</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>113570</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>7006</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>4136</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>2799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>1410</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1049</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>820</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>572</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2">
         <v>221988</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>218</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>43</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1162,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>50574</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>50574</v>
@@ -1171,163 +1156,172 @@
         <v>50574</v>
       </c>
       <c r="L8" s="2">
+        <v>50574</v>
+      </c>
+      <c r="M8" s="2">
         <v>1913</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1247</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>999</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>776</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>666</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>594</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>536</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
         <v>16871759</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>11566</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>5343</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>346</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>41</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>30799</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>6380</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>4291</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>3220</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>2517</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>1940</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>1508</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>1163</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>862</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>646</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2">
         <v>109228254</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>74869</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>26469</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2330</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>885</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>250</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>85</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>363869</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>35345</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>10948</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>5001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>2836</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>1858</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>1335</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>994</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>774</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>616</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2">
         <v>5192570</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>7760</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>460</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1339,57 +1333,60 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>2927</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1028</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>852</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>753</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>691</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>642</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>603</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>571</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>544</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>519</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2">
         <v>2078164</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>3088</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>188</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1398,234 +1395,246 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>5504</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>1050</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>855</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>758</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>690</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>642</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>604</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>572</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>545</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>520</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
         <v>12542411</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>11742</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>3530</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>143</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>7</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>15334</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>4413</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>2792</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>1999</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>1485</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>1150</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>922</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>765</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>652</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>566</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2">
         <v>9211138</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>9090</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>2418</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>98</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>13629</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>4352</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>2608</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>1820</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>1367</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>1046</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>854</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>718</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>625</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>551</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2">
         <v>10541295</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>11608</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>2595</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>70</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>12343</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2970</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1815</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>1312</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>1055</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>891</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>772</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>679</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>609</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S15" s="2">
         <v>551</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
         <v>710576</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>958</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>81</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1634,293 +1643,308 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>8296</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>1570</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>989</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>870</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>767</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>706</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>649</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>603</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>561</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <v>530</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2">
         <v>35832728</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>25416</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>8509</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>899</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>364</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>63</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>8</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>74330</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>18268</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>9242</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>4828</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>2796</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>1822</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>1287</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q17" s="2">
         <v>947</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>745</v>
       </c>
-      <c r="R17" s="2">
+      <c r="S17" s="2">
         <v>603</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2">
         <v>15781011</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>4964</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>1682</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>258</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>205</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>130</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>76</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>470711</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>180626</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>124041</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>91489</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>63820</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>46473</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <v>25745</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>6627</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>1486</v>
       </c>
-      <c r="R18" s="2">
+      <c r="S18" s="2">
         <v>795</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2">
         <v>128000422</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>92411</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>35063</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>3258</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>913</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>59</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>73046</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>10504</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>5899</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>3644</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>2469</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>1751</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <v>1289</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>985</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>770</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>614</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2">
         <v>17769312</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>13910</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>4423</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>375</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>133</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>25</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>51488</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>13645</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>6270</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>3446</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>2192</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>1517</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>1116</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>868</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>701</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <v>582</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2">
         <v>3344281</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>3276</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>1167</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1929,765 +1953,804 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>7795</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>2442</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>1896</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>1565</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>1318</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>1096</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>951</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>809</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>685</v>
       </c>
-      <c r="R21" s="2">
+      <c r="S21" s="2">
         <v>587</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
         <v>90997613</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>42378</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>18179</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>2334</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>1089</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>404</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>158</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>683510</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>109516</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>45455</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>21905</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>9721</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>4717</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>2588</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>1600</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>1062</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <v>728</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2">
         <v>75268505</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>40907</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>17577</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>1877</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>742</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>216</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>85</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>431112</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>83017</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>23190</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>9792</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>5007</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>2902</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>1899</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>1323</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>953</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>689</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2">
         <v>154247868</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>101889</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>37690</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>3667</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>1363</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>388</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>106</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>234483</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>30011</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>10977</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>5371</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>3139</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>2026</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <v>1415</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>1042</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>798</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>626</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
         <v>144086500</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>86206</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>33230</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>3992</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>1524</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>365</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>96</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>642791</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>34560</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>14341</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>7476</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>4236</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>2574</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <v>1695</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>1179</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>856</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>643</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
         <v>108966026</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>64812</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>26387</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>2739</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>853</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>245</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>93</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>604854</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>46106</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>12235</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>6129</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>3826</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>2541</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>1746</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>1221</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>879</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>650</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2">
         <v>111869166</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>60169</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>25403</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>3000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>1203</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>369</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>132</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>854345</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>56289</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>21920</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>9787</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>5165</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>3096</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <v>2008</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>1361</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>955</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>684</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2">
         <v>83863658</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>49322</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>19707</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>2499</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>788</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>167</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>36</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>1099133</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>27545</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>11649</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>6543</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>4182</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>2743</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <v>1809</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>1227</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <v>874</v>
       </c>
-      <c r="R28" s="2">
+      <c r="S28" s="2">
         <v>652</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
         <v>156283253</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>105235</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>35128</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>3211</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>1526</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>454</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>139</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>427187</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>43261</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>17338</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>7012</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>3177</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>1904</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>1324</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>985</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <v>768</v>
       </c>
-      <c r="R29" s="2">
+      <c r="S29" s="2">
         <v>615</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
         <v>124443602</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>77935</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>31931</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>3016</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>1149</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>292</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>81</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>204522</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>27113</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>11061</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>5452</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>3254</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>2200</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>1567</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>1148</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
         <v>856</v>
       </c>
-      <c r="R30" s="2">
+      <c r="S30" s="2">
         <v>647</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2">
         <v>148992287</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>77320</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>30290</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>4300</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>1955</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>656</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>185</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>380410</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>51110</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>26801</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>13871</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>7009</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>3821</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <v>2254</v>
       </c>
-      <c r="P31" s="2">
+      <c r="Q31" s="2">
         <v>1411</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="R31" s="2">
         <v>946</v>
       </c>
-      <c r="R31" s="2">
+      <c r="S31" s="2">
         <v>672</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2">
         <v>16360639</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>17171</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>3753</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>182</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>41</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>42857</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>4839</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>2224</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>1464</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>1118</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>919</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>789</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>691</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="R32" s="2">
         <v>615</v>
       </c>
-      <c r="R32" s="2">
+      <c r="S32" s="2">
         <v>552</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2">
         <v>8152489</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>7854</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>2241</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>109</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>17</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>22121</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>5186</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>2555</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>1707</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>1326</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>1057</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <v>892</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="2">
         <v>755</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <v>650</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="2">
         <v>567</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2">
         <v>6541425</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>7194</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>1817</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>6</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -2696,113 +2759,119 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
         <v>7830</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>2540</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>1807</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>1382</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>1108</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>914</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <v>778</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>682</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R34" s="2">
         <v>607</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>547</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2">
         <v>20117571</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>11757</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>4516</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>502</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>186</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>55</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>26</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>248663</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>71749</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>20392</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>8829</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>4709</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>2646</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <v>1700</v>
       </c>
-      <c r="P35" s="2">
+      <c r="Q35" s="2">
         <v>1199</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="R35" s="2">
         <v>866</v>
       </c>
-      <c r="R35" s="2">
+      <c r="S35" s="2">
         <v>646</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
         <v>474307</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>719</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>46</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -2814,1570 +2883,1651 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>2337</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>1090</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>864</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>736</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <v>662</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>615</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <v>583</v>
       </c>
-      <c r="P36" s="2">
+      <c r="Q36" s="2">
         <v>558</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2">
         <v>536</v>
       </c>
-      <c r="R36" s="2">
+      <c r="S36" s="2">
         <v>515</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2">
         <v>40026485</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>34756</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>11317</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>523</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>151</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>16</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>65958</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>6663</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>3319</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>2227</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>1645</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>1272</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <v>1009</v>
       </c>
-      <c r="P37" s="2">
+      <c r="Q37" s="2">
         <v>821</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="2">
         <v>684</v>
       </c>
-      <c r="R37" s="2">
+      <c r="S37" s="2">
         <v>580</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2">
         <v>23471813</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>16963</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>6053</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>542</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>214</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>9</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>75829</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>18429</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>8849</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>4220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>2364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>1633</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>1219</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>956</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>762</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>612</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2">
         <v>9199644</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>6451</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>2978</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>190</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>34</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>25390</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>6899</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <v>4309</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <v>3052</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <v>2351</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>1827</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <v>1410</v>
       </c>
-      <c r="P39" s="2">
+      <c r="Q39" s="2">
         <v>1103</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="R39" s="2">
         <v>847</v>
       </c>
-      <c r="R39" s="2">
+      <c r="S39" s="2">
         <v>650</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="2">
         <v>35134328</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>25878</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>11011</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>666</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>119</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>8</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>33993</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>6915</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <v>4159</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <v>2960</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <v>2197</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>1669</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <v>1294</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>1020</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="R40" s="2">
         <v>799</v>
       </c>
-      <c r="R40" s="2">
+      <c r="S40" s="2">
         <v>631</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2">
         <v>111941038</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>64709</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>28077</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>3565</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>973</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>200</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>51</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>191714</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>19053</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>8750</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>5703</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>3935</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>2760</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <v>1923</v>
       </c>
-      <c r="P41" s="2">
+      <c r="Q41" s="2">
         <v>1333</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
         <v>921</v>
       </c>
-      <c r="R41" s="2">
+      <c r="S41" s="2">
         <v>663</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2">
         <v>89531136</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>59741</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>22385</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>2281</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>737</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>147</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>47</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>204840</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>19946</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>8603</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>4922</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>3076</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>2047</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <v>1424</v>
       </c>
-      <c r="P42" s="2">
+      <c r="Q42" s="2">
         <v>1047</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <v>796</v>
       </c>
-      <c r="R42" s="2">
+      <c r="S42" s="2">
         <v>622</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2">
         <v>64947475</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>39038</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>14675</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>2026</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>810</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>136</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>23</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>344046</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>24214</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>12704</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>7360</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>4401</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>2706</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <v>1727</v>
       </c>
-      <c r="P43" s="2">
+      <c r="Q43" s="2">
         <v>1171</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="2">
         <v>843</v>
       </c>
-      <c r="R43" s="2">
+      <c r="S43" s="2">
         <v>636</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2">
         <v>13637890</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>13818</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>1912</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>174</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>117</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>43</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>11</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>102580</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>35346</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <v>13008</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>1568</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>1066</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>869</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <v>748</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>661</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="R44" s="2">
         <v>596</v>
       </c>
-      <c r="R44" s="2">
+      <c r="S44" s="2">
         <v>544</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="2">
         <v>17542997</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>14946</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>4885</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>319</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>56</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>26126</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>6345</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>3739</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>2503</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <v>1765</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>1316</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <v>1028</v>
       </c>
-      <c r="P45" s="2">
+      <c r="Q45" s="2">
         <v>832</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="2">
         <v>687</v>
       </c>
-      <c r="R45" s="2">
+      <c r="S45" s="2">
         <v>579</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
         <v>16908012</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>13991</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>5013</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>201</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>85</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>20</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>64331</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>10161</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>3422</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>2278</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>1698</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>1353</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <v>1088</v>
       </c>
-      <c r="P46" s="2">
+      <c r="Q46" s="2">
         <v>877</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R46" s="2">
         <v>721</v>
       </c>
-      <c r="R46" s="2">
+      <c r="S46" s="2">
         <v>595</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2">
         <v>23073846</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>23670</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>6717</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>104</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>28</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>3</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <v>38997</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>2894</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <v>1937</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <v>1476</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>1194</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <v>998</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="2">
         <v>852</v>
       </c>
-      <c r="P47" s="2">
+      <c r="Q47" s="2">
         <v>738</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="R47" s="2">
         <v>644</v>
       </c>
-      <c r="R47" s="2">
+      <c r="S47" s="2">
         <v>566</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
         <v>32154065</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>21483</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>9159</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>882</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>233</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>19</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>49204</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>10649</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>6140</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>4023</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <v>2756</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>1966</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <v>1464</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>1102</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R48" s="2">
         <v>839</v>
       </c>
-      <c r="R48" s="2">
+      <c r="S48" s="2">
         <v>647</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2">
         <v>73183928</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>52483</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>19172</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>1784</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>489</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>58</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>17</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>174070</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>12087</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>6266</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>3873</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>2577</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>1801</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <v>1298</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>975</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="2">
         <v>761</v>
       </c>
-      <c r="R49" s="2">
+      <c r="S49" s="2">
         <v>610</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2">
         <v>44729679</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>30993</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>11363</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>1116</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>349</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>77</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>18</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>90447</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>18253</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>7568</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>4431</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>2750</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>1883</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="2">
         <v>1349</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>1002</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="R50" s="2">
         <v>778</v>
       </c>
-      <c r="R50" s="2">
+      <c r="S50" s="2">
         <v>616</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
         <v>1950935</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>858</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>607</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>72</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>10</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
         <v>17058</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>8299</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>6399</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>4748</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>3969</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>3229</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="2">
         <v>2595</v>
       </c>
-      <c r="P51" s="2">
+      <c r="Q51" s="2">
         <v>2042</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="R51" s="2">
         <v>1553</v>
       </c>
-      <c r="R51" s="2">
+      <c r="S51" s="2">
         <v>1041</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2">
         <v>15375535</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="2">
         <v>10781</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>4442</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>449</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>67</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
         <v>23975</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>7890</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>5520</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <v>3726</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>2634</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>1887</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <v>1388</v>
       </c>
-      <c r="P52" s="2">
+      <c r="Q52" s="2">
         <v>1058</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="R52" s="2">
         <v>798</v>
       </c>
-      <c r="R52" s="2">
+      <c r="S52" s="2">
         <v>622</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2">
         <v>167857329</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D53" s="2">
         <v>100531</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>40506</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>4609</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>1635</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>373</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>101</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>527142</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>30115</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>12123</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M53" s="2">
         <v>6370</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>3901</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>2537</v>
       </c>
-      <c r="O53" s="2">
+      <c r="P53" s="2">
         <v>1721</v>
       </c>
-      <c r="P53" s="2">
+      <c r="Q53" s="2">
         <v>1199</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="R53" s="2">
         <v>874</v>
       </c>
-      <c r="R53" s="2">
+      <c r="S53" s="2">
         <v>648</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2">
         <v>60649076</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D54" s="2">
         <v>47197</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>16114</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>1039</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>307</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>84</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>31</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <v>251639</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>15072</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <v>5297</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <v>3043</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>2057</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>1501</v>
       </c>
-      <c r="O54" s="2">
+      <c r="P54" s="2">
         <v>1139</v>
       </c>
-      <c r="P54" s="2">
+      <c r="Q54" s="2">
         <v>896</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="R54" s="2">
         <v>722</v>
       </c>
-      <c r="R54" s="2">
+      <c r="S54" s="2">
         <v>593</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2">
         <v>79975809</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" s="2">
         <v>52197</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>22708</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>1632</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>598</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>141</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>50</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>209450</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>22086</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <v>7896</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M55" s="2">
         <v>4050</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <v>2696</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <v>1942</v>
       </c>
-      <c r="O55" s="2">
+      <c r="P55" s="2">
         <v>1466</v>
       </c>
-      <c r="P55" s="2">
+      <c r="Q55" s="2">
         <v>1127</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="R55" s="2">
         <v>865</v>
       </c>
-      <c r="R55" s="2">
+      <c r="S55" s="2">
         <v>652</v>
       </c>
-      <c r="S55" s="2">
+      <c r="T55" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2">
         <v>177696025</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" s="2">
         <v>118459</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>46932</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>3957</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>1369</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>359</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>113</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <v>353768</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>24279</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <v>8607</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M56" s="2">
         <v>4535</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <v>2831</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O56" s="2">
         <v>1936</v>
       </c>
-      <c r="O56" s="2">
+      <c r="P56" s="2">
         <v>1408</v>
       </c>
-      <c r="P56" s="2">
+      <c r="Q56" s="2">
         <v>1063</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="R56" s="2">
         <v>819</v>
       </c>
-      <c r="R56" s="2">
+      <c r="S56" s="2">
         <v>633</v>
       </c>
-      <c r="S56" s="2">
+      <c r="T56" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2">
         <v>145888712</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>94211</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>35626</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>3683</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>1446</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>368</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>71</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <v>776605</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>26548</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <v>11720</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <v>5800</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <v>3335</v>
       </c>
-      <c r="N57" s="2">
+      <c r="O57" s="2">
         <v>2138</v>
       </c>
-      <c r="O57" s="2">
+      <c r="P57" s="2">
         <v>1470</v>
       </c>
-      <c r="P57" s="2">
+      <c r="Q57" s="2">
         <v>1076</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="R57" s="2">
         <v>817</v>
       </c>
-      <c r="R57" s="2">
+      <c r="S57" s="2">
         <v>629</v>
       </c>
-      <c r="S57" s="2">
+      <c r="T57" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
         <v>149299179</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" s="2">
         <v>84133</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>34739</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>3683</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>1377</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>391</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>136</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <v>1372286</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>71036</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <v>18848</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <v>8115</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <v>4464</v>
       </c>
-      <c r="N58" s="2">
+      <c r="O58" s="2">
         <v>2805</v>
       </c>
-      <c r="O58" s="2">
+      <c r="P58" s="2">
         <v>1848</v>
       </c>
-      <c r="P58" s="2">
+      <c r="Q58" s="2">
         <v>1278</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="R58" s="2">
         <v>918</v>
       </c>
-      <c r="R58" s="2">
+      <c r="S58" s="2">
         <v>668</v>
       </c>
-      <c r="S58" s="2">
+      <c r="T58" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2">
         <v>148884274</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>85610</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>35745</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>4626</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G59" s="2">
         <v>1467</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>300</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>86</v>
       </c>
-      <c r="I59" s="2">
+      <c r="J59" s="2">
         <v>470864</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>24680</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
         <v>10919</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <v>6412</v>
       </c>
-      <c r="M59" s="2">
+      <c r="N59" s="2">
         <v>4228</v>
       </c>
-      <c r="N59" s="2">
+      <c r="O59" s="2">
         <v>2837</v>
       </c>
-      <c r="O59" s="2">
+      <c r="P59" s="2">
         <v>1923</v>
       </c>
-      <c r="P59" s="2">
+      <c r="Q59" s="2">
         <v>1302</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="R59" s="2">
         <v>909</v>
       </c>
-      <c r="R59" s="2">
+      <c r="S59" s="2">
         <v>659</v>
       </c>
-      <c r="S59" s="2">
+      <c r="T59" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2">
         <v>67977811</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" s="2">
         <v>44494</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>14982</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>1822</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G60" s="2">
         <v>679</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>161</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>43</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <v>265526</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>30893</v>
       </c>
-      <c r="K60" s="2">
+      <c r="L60" s="2">
         <v>12831</v>
       </c>
-      <c r="L60" s="2">
+      <c r="M60" s="2">
         <v>6554</v>
       </c>
-      <c r="M60" s="2">
+      <c r="N60" s="2">
         <v>3783</v>
       </c>
-      <c r="N60" s="2">
+      <c r="O60" s="2">
         <v>2255</v>
       </c>
-      <c r="O60" s="2">
+      <c r="P60" s="2">
         <v>1443</v>
       </c>
-      <c r="P60" s="2">
+      <c r="Q60" s="2">
         <v>1022</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="R60" s="2">
         <v>776</v>
       </c>
-      <c r="R60" s="2">
+      <c r="S60" s="2">
         <v>609</v>
       </c>
-      <c r="S60" s="2">
+      <c r="T60" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2">
         <v>5715989</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D61" s="2">
         <v>6153</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>957</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>39</v>
       </c>
-      <c r="F61" s="2">
+      <c r="G61" s="2">
         <v>26</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>14</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>3</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <v>88741</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>25021</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <v>2462</v>
       </c>
-      <c r="L61" s="2">
+      <c r="M61" s="2">
         <v>1362</v>
       </c>
-      <c r="M61" s="2">
+      <c r="N61" s="2">
         <v>1003</v>
       </c>
-      <c r="N61" s="2">
+      <c r="O61" s="2">
         <v>843</v>
       </c>
-      <c r="O61" s="2">
+      <c r="P61" s="2">
         <v>733</v>
       </c>
-      <c r="P61" s="2">
+      <c r="Q61" s="2">
         <v>654</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="R61" s="2">
         <v>593</v>
       </c>
-      <c r="R61" s="2">
+      <c r="S61" s="2">
         <v>542</v>
       </c>
-      <c r="S61" s="2">
+      <c r="T61" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2">
         <v>4085519</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>2718</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>638</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>153</v>
       </c>
-      <c r="F62" s="2">
+      <c r="G62" s="2">
         <v>83</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>10</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <v>39389</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>22858</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <v>16828</v>
       </c>
-      <c r="L62" s="2">
+      <c r="M62" s="2">
         <v>11406</v>
       </c>
-      <c r="M62" s="2">
+      <c r="N62" s="2">
         <v>7248</v>
       </c>
-      <c r="N62" s="2">
+      <c r="O62" s="2">
         <v>3716</v>
       </c>
-      <c r="O62" s="2">
+      <c r="P62" s="2">
         <v>1250</v>
       </c>
-      <c r="P62" s="2">
+      <c r="Q62" s="2">
         <v>894</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="R62" s="2">
         <v>701</v>
       </c>
-      <c r="R62" s="2">
+      <c r="S62" s="2">
         <v>589</v>
       </c>
-      <c r="S62" s="2">
+      <c r="T62" s="2">
         <v>500</v>
       </c>
     </row>
@@ -4387,103 +4537,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
-    <col min="6" max="17" width="6.6640625" style="5" customWidth="1"/>
-    <col min="18" max="23" width="16.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4494,10 +4660,10 @@
         <v>2433</v>
       </c>
       <c r="D4" s="6">
-        <v>0.59515002055076038</v>
+        <v>0.5951500205507604</v>
       </c>
       <c r="E4" s="6">
-        <v>0.40484997944923962</v>
+        <v>0.4048499794492396</v>
       </c>
       <c r="F4" s="5">
         <v>520</v>
@@ -4557,7 +4723,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4568,10 +4734,10 @@
         <v>14972</v>
       </c>
       <c r="D5" s="6">
-        <v>0.71273043013625437</v>
+        <v>0.7127304301362544</v>
       </c>
       <c r="E5" s="6">
-        <v>0.28726956986374558</v>
+        <v>0.2872695698637456</v>
       </c>
       <c r="F5" s="5">
         <v>3145</v>
@@ -4631,7 +4797,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4642,10 +4808,10 @@
         <v>16098</v>
       </c>
       <c r="D6" s="6">
-        <v>0.74791899614858992</v>
+        <v>0.7479189961485899</v>
       </c>
       <c r="E6" s="6">
-        <v>0.25208100385141008</v>
+        <v>0.2520810038514101</v>
       </c>
       <c r="F6" s="5">
         <v>3885</v>
@@ -4705,7 +4871,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4716,10 +4882,10 @@
         <v>19778</v>
       </c>
       <c r="D7" s="6">
-        <v>0.62741429871574472</v>
+        <v>0.6274142987157447</v>
       </c>
       <c r="E7" s="6">
-        <v>0.37258570128425522</v>
+        <v>0.3725857012842552</v>
       </c>
       <c r="F7" s="5">
         <v>3897</v>
@@ -4779,7 +4945,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4790,10 +4956,10 @@
         <v>116</v>
       </c>
       <c r="D8" s="6">
-        <v>0.77586206896551724</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="E8" s="6">
-        <v>0.22413793103448279</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="F8" s="5">
         <v>39</v>
@@ -4853,7 +5019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4864,10 +5030,10 @@
         <v>7117</v>
       </c>
       <c r="D9" s="6">
-        <v>0.85668118589293241</v>
+        <v>0.8566811858929324</v>
       </c>
       <c r="E9" s="6">
-        <v>0.14331881410706759</v>
+        <v>0.1433188141070676</v>
       </c>
       <c r="F9" s="5">
         <v>2114</v>
@@ -4927,7 +5093,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4938,10 +5104,10 @@
         <v>137040</v>
       </c>
       <c r="D10" s="6">
-        <v>0.73273496789258608</v>
+        <v>0.7327349678925861</v>
       </c>
       <c r="E10" s="6">
-        <v>0.26726503210741392</v>
+        <v>0.2672650321074139</v>
       </c>
       <c r="F10" s="5">
         <v>32415</v>
@@ -5001,7 +5167,7 @@
         <v>8754</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5075,7 +5241,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +5252,7 @@
         <v>4130</v>
       </c>
       <c r="D12" s="6">
-        <v>0.89661016949152539</v>
+        <v>0.8966101694915254</v>
       </c>
       <c r="E12" s="6">
         <v>0.1033898305084746</v>
@@ -5149,7 +5315,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5160,10 +5326,10 @@
         <v>17078</v>
       </c>
       <c r="D13" s="6">
-        <v>0.86350860756528869</v>
+        <v>0.8635086075652887</v>
       </c>
       <c r="E13" s="6">
-        <v>0.13649139243471131</v>
+        <v>0.1364913924347113</v>
       </c>
       <c r="F13" s="5">
         <v>5906</v>
@@ -5223,7 +5389,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5234,10 +5400,10 @@
         <v>12490</v>
       </c>
       <c r="D14" s="6">
-        <v>0.84835868694955963</v>
+        <v>0.8483586869495596</v>
       </c>
       <c r="E14" s="6">
-        <v>0.15164131305044029</v>
+        <v>0.1516413130504403</v>
       </c>
       <c r="F14" s="5">
         <v>3685</v>
@@ -5297,7 +5463,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -5371,7 +5537,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5382,10 +5548,10 @@
         <v>1262</v>
       </c>
       <c r="D16" s="6">
-        <v>0.69651347068145797</v>
+        <v>0.696513470681458</v>
       </c>
       <c r="E16" s="6">
-        <v>0.30348652931854198</v>
+        <v>0.303486529318542</v>
       </c>
       <c r="F16" s="5">
         <v>221</v>
@@ -5445,7 +5611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -5456,10 +5622,10 @@
         <v>28347</v>
       </c>
       <c r="D17" s="6">
-        <v>0.77475570607118915</v>
+        <v>0.7747557060711892</v>
       </c>
       <c r="E17" s="6">
-        <v>0.22524429392881079</v>
+        <v>0.2252442939288108</v>
       </c>
       <c r="F17" s="5">
         <v>7313</v>
@@ -5519,7 +5685,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5530,10 +5696,10 @@
         <v>3296</v>
       </c>
       <c r="D18" s="6">
-        <v>0.63986650485436891</v>
+        <v>0.6398665048543689</v>
       </c>
       <c r="E18" s="6">
-        <v>0.36013349514563109</v>
+        <v>0.3601334951456311</v>
       </c>
       <c r="F18" s="5">
         <v>668</v>
@@ -5593,7 +5759,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5604,10 +5770,10 @@
         <v>92166</v>
       </c>
       <c r="D19" s="6">
-        <v>0.75268537204609076</v>
+        <v>0.7526853720460908</v>
       </c>
       <c r="E19" s="6">
-        <v>0.24731462795390921</v>
+        <v>0.2473146279539092</v>
       </c>
       <c r="F19" s="5">
         <v>21379</v>
@@ -5667,7 +5833,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -5678,10 +5844,10 @@
         <v>8025</v>
       </c>
       <c r="D20" s="6">
-        <v>0.81121495327102799</v>
+        <v>0.811214953271028</v>
       </c>
       <c r="E20" s="6">
-        <v>0.18878504672897201</v>
+        <v>0.188785046728972</v>
       </c>
       <c r="F20" s="5">
         <v>2266</v>
@@ -5741,7 +5907,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -5752,10 +5918,10 @@
         <v>11163</v>
       </c>
       <c r="D21" s="6">
-        <v>0.93120128997581297</v>
+        <v>0.931201289975813</v>
       </c>
       <c r="E21" s="6">
-        <v>6.879871002418704E-2</v>
+        <v>0.06879871002418704</v>
       </c>
       <c r="F21" s="5">
         <v>4175</v>
@@ -5815,7 +5981,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5889,7 +6055,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -5900,7 +6066,7 @@
         <v>6693</v>
       </c>
       <c r="D23" s="6">
-        <v>0.81503062901538925</v>
+        <v>0.8150306290153893</v>
       </c>
       <c r="E23" s="6">
         <v>0.1849693709846108</v>
@@ -5963,7 +6129,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5974,10 +6140,10 @@
         <v>6972</v>
       </c>
       <c r="D24" s="6">
-        <v>0.90734366035570857</v>
+        <v>0.9073436603557086</v>
       </c>
       <c r="E24" s="6">
-        <v>9.2656339644291458E-2</v>
+        <v>0.09265633964429146</v>
       </c>
       <c r="F24" s="5">
         <v>2734</v>
@@ -6037,7 +6203,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -6048,10 +6214,10 @@
         <v>13963</v>
       </c>
       <c r="D25" s="6">
-        <v>0.86550168301940844</v>
+        <v>0.8655016830194084</v>
       </c>
       <c r="E25" s="6">
-        <v>0.13449831698059159</v>
+        <v>0.1344983169805916</v>
       </c>
       <c r="F25" s="5">
         <v>4762</v>
@@ -6111,7 +6277,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -6122,10 +6288,10 @@
         <v>301</v>
       </c>
       <c r="D26" s="6">
-        <v>0.77740863787375414</v>
+        <v>0.7774086378737541</v>
       </c>
       <c r="E26" s="6">
-        <v>0.22259136212624581</v>
+        <v>0.2225913621262458</v>
       </c>
       <c r="F26" s="5">
         <v>60</v>
@@ -6185,7 +6351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -6196,10 +6362,10 @@
         <v>38219</v>
       </c>
       <c r="D27" s="6">
-        <v>0.76668672649729197</v>
+        <v>0.766686726497292</v>
       </c>
       <c r="E27" s="6">
-        <v>0.23331327350270811</v>
+        <v>0.2333132735027081</v>
       </c>
       <c r="F27" s="5">
         <v>9455</v>
@@ -6259,7 +6425,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -6270,10 +6436,10 @@
         <v>20010</v>
       </c>
       <c r="D28" s="6">
-        <v>0.86651674162918546</v>
+        <v>0.8665167416291855</v>
       </c>
       <c r="E28" s="6">
-        <v>0.13348325837081459</v>
+        <v>0.1334832583708146</v>
       </c>
       <c r="F28" s="5">
         <v>6675</v>
@@ -6333,7 +6499,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -6347,7 +6513,7 @@
         <v>0.8079149438865918</v>
       </c>
       <c r="E29" s="6">
-        <v>0.19208505611340809</v>
+        <v>0.1920850561134081</v>
       </c>
       <c r="F29" s="5">
         <v>2376</v>
@@ -6407,7 +6573,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -6418,10 +6584,10 @@
         <v>29588</v>
       </c>
       <c r="D30" s="6">
-        <v>0.78812356360686764</v>
+        <v>0.7881235636068676</v>
       </c>
       <c r="E30" s="6">
-        <v>0.21187643639313239</v>
+        <v>0.2118764363931324</v>
       </c>
       <c r="F30" s="5">
         <v>7728</v>
@@ -6481,7 +6647,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -6492,10 +6658,10 @@
         <v>71752</v>
       </c>
       <c r="D31" s="6">
-        <v>0.73494815475526809</v>
+        <v>0.7349481547552681</v>
       </c>
       <c r="E31" s="6">
-        <v>0.26505184524473191</v>
+        <v>0.2650518452447319</v>
       </c>
       <c r="F31" s="5">
         <v>17482</v>
@@ -6555,7 +6721,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -6566,10 +6732,10 @@
         <v>91396</v>
       </c>
       <c r="D32" s="6">
-        <v>0.71095015099129066</v>
+        <v>0.7109501509912907</v>
       </c>
       <c r="E32" s="6">
-        <v>0.28904984900870928</v>
+        <v>0.2890498490087093</v>
       </c>
       <c r="F32" s="5">
         <v>20394</v>
@@ -6629,7 +6795,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -6640,10 +6806,10 @@
         <v>91082</v>
       </c>
       <c r="D33" s="6">
-        <v>0.71238005313892971</v>
+        <v>0.7123800531389297</v>
       </c>
       <c r="E33" s="6">
-        <v>0.28761994686107017</v>
+        <v>0.2876199468610702</v>
       </c>
       <c r="F33" s="5">
         <v>20451</v>
@@ -6703,7 +6869,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -6714,10 +6880,10 @@
         <v>9586</v>
       </c>
       <c r="D34" s="6">
-        <v>0.78552055080325478</v>
+        <v>0.7855205508032548</v>
       </c>
       <c r="E34" s="6">
-        <v>0.21447944919674519</v>
+        <v>0.2144794491967452</v>
       </c>
       <c r="F34" s="5">
         <v>2890</v>
@@ -6777,7 +6943,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -6788,10 +6954,10 @@
         <v>15075</v>
       </c>
       <c r="D35" s="6">
-        <v>0.83111111111111113</v>
+        <v>0.8311111111111111</v>
       </c>
       <c r="E35" s="6">
-        <v>0.16888888888888889</v>
+        <v>0.1688888888888889</v>
       </c>
       <c r="F35" s="5">
         <v>4679</v>
@@ -6851,7 +7017,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -6862,10 +7028,10 @@
         <v>19020</v>
       </c>
       <c r="D36" s="6">
-        <v>0.90299684542586756</v>
+        <v>0.9029968454258676</v>
       </c>
       <c r="E36" s="6">
-        <v>9.7003154574132486E-2</v>
+        <v>0.09700315457413249</v>
       </c>
       <c r="F36" s="5">
         <v>7539</v>
@@ -6925,7 +7091,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -6936,7 +7102,7 @@
         <v>28474</v>
       </c>
       <c r="D37" s="6">
-        <v>0.85151366158600827</v>
+        <v>0.8515136615860083</v>
       </c>
       <c r="E37" s="6">
         <v>0.1484863384139917</v>
@@ -6999,7 +7165,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -7010,10 +7176,10 @@
         <v>23376</v>
       </c>
       <c r="D38" s="6">
-        <v>0.79697125256673507</v>
+        <v>0.7969712525667351</v>
       </c>
       <c r="E38" s="6">
-        <v>0.20302874743326491</v>
+        <v>0.2030287474332649</v>
       </c>
       <c r="F38" s="5">
         <v>7057</v>
@@ -7073,7 +7239,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -7084,10 +7250,10 @@
         <v>61621</v>
       </c>
       <c r="D39" s="6">
-        <v>0.74357767644147288</v>
+        <v>0.7435776764414729</v>
       </c>
       <c r="E39" s="6">
-        <v>0.25642232355852712</v>
+        <v>0.2564223235585271</v>
       </c>
       <c r="F39" s="5">
         <v>14444</v>
@@ -7147,9 +7313,9 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -7221,9 +7387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B41" s="5">
         <v>462</v>
@@ -7232,10 +7398,10 @@
         <v>1781</v>
       </c>
       <c r="D41" s="6">
-        <v>0.70634475014037057</v>
+        <v>0.7063447501403706</v>
       </c>
       <c r="E41" s="6">
-        <v>0.29365524985962937</v>
+        <v>0.2936552498596294</v>
       </c>
       <c r="F41" s="5">
         <v>333</v>
@@ -7295,7 +7461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -7306,10 +7472,10 @@
         <v>15703</v>
       </c>
       <c r="D42" s="6">
-        <v>0.77838629561230344</v>
+        <v>0.7783862956123034</v>
       </c>
       <c r="E42" s="6">
-        <v>0.22161370438769659</v>
+        <v>0.2216137043876966</v>
       </c>
       <c r="F42" s="5">
         <v>3869</v>
@@ -7369,9 +7535,9 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5">
         <v>13</v>
@@ -7380,10 +7546,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="6">
-        <v>0.58536585365853655</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E43" s="6">
-        <v>0.41463414634146339</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="F43" s="5">
         <v>6</v>
@@ -7443,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7454,10 +7620,10 @@
         <v>854</v>
       </c>
       <c r="D44" s="6">
-        <v>0.94964871194379397</v>
+        <v>0.949648711943794</v>
       </c>
       <c r="E44" s="6">
-        <v>5.0351288056206089E-2</v>
+        <v>0.05035128805620609</v>
       </c>
       <c r="F44" s="5">
         <v>308</v>
@@ -7517,7 +7683,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -7528,10 +7694,10 @@
         <v>19427</v>
       </c>
       <c r="D45" s="6">
-        <v>0.84315643177021671</v>
+        <v>0.8431564317702167</v>
       </c>
       <c r="E45" s="6">
-        <v>0.15684356822978329</v>
+        <v>0.1568435682297833</v>
       </c>
       <c r="F45" s="5">
         <v>5803</v>
@@ -7591,7 +7757,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -7602,10 +7768,10 @@
         <v>7714</v>
       </c>
       <c r="D46" s="6">
-        <v>0.81241897848068445</v>
+        <v>0.8124189784806845</v>
       </c>
       <c r="E46" s="6">
-        <v>0.18758102151931549</v>
+        <v>0.1875810215193155</v>
       </c>
       <c r="F46" s="5">
         <v>2154</v>
@@ -7665,7 +7831,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -7676,10 +7842,10 @@
         <v>1157</v>
       </c>
       <c r="D47" s="6">
-        <v>0.63612791702679339</v>
+        <v>0.6361279170267934</v>
       </c>
       <c r="E47" s="6">
-        <v>0.36387208297320661</v>
+        <v>0.3638720829732066</v>
       </c>
       <c r="F47" s="5">
         <v>202</v>
@@ -7745,91 +7911,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="33.6640625" style="7" customWidth="1"/>
-    <col min="5" max="20" width="16.6640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7843,58 +8025,58 @@
         <v>44</v>
       </c>
       <c r="E4" s="8">
-        <v>0.17516000000000001</v>
+        <v>0.17516</v>
       </c>
       <c r="F4" s="8">
-        <v>3.4759999999999999E-2</v>
+        <v>0.03476</v>
       </c>
       <c r="G4" s="8">
-        <v>7.6069999999999999E-2</v>
+        <v>0.07607</v>
       </c>
       <c r="H4" s="8">
-        <v>0.21213000000000001</v>
+        <v>0.21213</v>
       </c>
       <c r="I4" s="8">
-        <v>0.26866000000000001</v>
+        <v>0.26866</v>
       </c>
       <c r="J4" s="8">
-        <v>0.13181999999999999</v>
+        <v>0.13182</v>
       </c>
       <c r="K4" s="8">
-        <v>4.0730000000000002E-2</v>
+        <v>0.04073</v>
       </c>
       <c r="L4" s="8">
-        <v>1.7139999999999999E-2</v>
+        <v>0.01714</v>
       </c>
       <c r="M4" s="8">
-        <v>8.4700000000000001E-3</v>
+        <v>0.00847</v>
       </c>
       <c r="N4" s="8">
-        <v>6.6400000000000001E-3</v>
+        <v>0.00664</v>
       </c>
       <c r="O4" s="8">
-        <v>5.1999999999999998E-3</v>
+        <v>0.0052</v>
       </c>
       <c r="P4" s="8">
-        <v>4.4299999999999999E-3</v>
+        <v>0.00443</v>
       </c>
       <c r="Q4" s="8">
-        <v>4.0400000000000002E-3</v>
+        <v>0.00404</v>
       </c>
       <c r="R4" s="8">
-        <v>3.0799999999999998E-3</v>
+        <v>0.00308</v>
       </c>
       <c r="S4" s="8">
-        <v>4.1399999999999996E-3</v>
+        <v>0.00414</v>
       </c>
       <c r="T4" s="8">
-        <v>2.1199999999999999E-3</v>
+        <v>0.00212</v>
       </c>
       <c r="U4" s="8">
-        <v>5.3899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.00539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7902,64 +8084,64 @@
         <v>21748</v>
       </c>
       <c r="C5" s="7">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D5" s="7">
         <v>24</v>
       </c>
       <c r="E5" s="8">
-        <v>0.13761000000000001</v>
+        <v>0.13761</v>
       </c>
       <c r="F5" s="8">
-        <v>0.22803999999999999</v>
+        <v>0.22804</v>
       </c>
       <c r="G5" s="8">
-        <v>0.21465000000000001</v>
+        <v>0.21465</v>
       </c>
       <c r="H5" s="8">
-        <v>0.15229000000000001</v>
+        <v>0.15229</v>
       </c>
       <c r="I5" s="8">
-        <v>8.8950000000000001E-2</v>
+        <v>0.08895</v>
       </c>
       <c r="J5" s="8">
-        <v>5.2440000000000001E-2</v>
+        <v>0.05244</v>
       </c>
       <c r="K5" s="8">
-        <v>3.4299999999999997E-2</v>
+        <v>0.0343</v>
       </c>
       <c r="L5" s="8">
-        <v>2.4740000000000002E-2</v>
+        <v>0.02474</v>
       </c>
       <c r="M5" s="8">
-        <v>1.7219999999999999E-2</v>
+        <v>0.01722</v>
       </c>
       <c r="N5" s="8">
-        <v>1.048E-2</v>
+        <v>0.01048</v>
       </c>
       <c r="O5" s="8">
-        <v>9.5099999999999994E-3</v>
+        <v>0.009509999999999999</v>
       </c>
       <c r="P5" s="8">
-        <v>7.43E-3</v>
+        <v>0.00743</v>
       </c>
       <c r="Q5" s="8">
-        <v>5.77E-3</v>
+        <v>0.00577</v>
       </c>
       <c r="R5" s="8">
-        <v>3.65E-3</v>
+        <v>0.00365</v>
       </c>
       <c r="S5" s="8">
-        <v>4.6600000000000001E-3</v>
+        <v>0.00466</v>
       </c>
       <c r="T5" s="8">
-        <v>3.2799999999999999E-3</v>
+        <v>0.00328</v>
       </c>
       <c r="U5" s="8">
-        <v>4.9899999999999996E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.00499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -7973,7 +8155,7 @@
         <v>98.8</v>
       </c>
       <c r="E6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -7985,13 +8167,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="J6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="K6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -8006,25 +8188,25 @@
         <v>0</v>
       </c>
       <c r="P6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="Q6" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="R6" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="S6" s="8">
-        <v>2.5999999999999998E-4</v>
+        <v>0.00026</v>
       </c>
       <c r="T6" s="8">
-        <v>4.8000000000000001E-4</v>
+        <v>0.00048</v>
       </c>
       <c r="U6" s="8">
-        <v>0.99882000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.99882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -8035,61 +8217,61 @@
         <v>27.6</v>
       </c>
       <c r="D7" s="7">
-        <v>98.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E7" s="8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F7" s="8">
-        <v>1.3799999999999999E-3</v>
+        <v>0.00138</v>
       </c>
       <c r="G7" s="8">
-        <v>8.5999999999999998E-4</v>
+        <v>0.00086</v>
       </c>
       <c r="H7" s="8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I7" s="8">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="J7" s="8">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="K7" s="8">
-        <v>2.5999999999999998E-4</v>
+        <v>0.00026</v>
       </c>
       <c r="L7" s="8">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="M7" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="N7" s="8">
-        <v>4.2999999999999999E-4</v>
+        <v>0.00043</v>
       </c>
       <c r="O7" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="P7" s="8">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="Q7" s="8">
-        <v>6.8999999999999997E-4</v>
+        <v>0.00069</v>
       </c>
       <c r="R7" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="S7" s="8">
-        <v>4.2999999999999999E-4</v>
+        <v>0.00043</v>
       </c>
       <c r="T7" s="8">
-        <v>8.5999999999999998E-4</v>
+        <v>0.00086</v>
       </c>
       <c r="U7" s="8">
-        <v>0.99209000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.99209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8100,61 +8282,61 @@
         <v>96.3</v>
       </c>
       <c r="D8" s="7">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E8" s="8">
-        <v>7.1429999999999993E-2</v>
+        <v>0.07142999999999999</v>
       </c>
       <c r="F8" s="8">
-        <v>7.1429999999999993E-2</v>
+        <v>0.07142999999999999</v>
       </c>
       <c r="G8" s="8">
-        <v>2.8570000000000002E-2</v>
+        <v>0.02857</v>
       </c>
       <c r="H8" s="8">
-        <v>2.3810000000000001E-2</v>
+        <v>0.02381</v>
       </c>
       <c r="I8" s="8">
-        <v>2.3810000000000001E-2</v>
+        <v>0.02381</v>
       </c>
       <c r="J8" s="8">
-        <v>2.3810000000000001E-2</v>
+        <v>0.02381</v>
       </c>
       <c r="K8" s="8">
-        <v>2.3810000000000001E-2</v>
+        <v>0.02381</v>
       </c>
       <c r="L8" s="8">
-        <v>2.3810000000000001E-2</v>
+        <v>0.02381</v>
       </c>
       <c r="M8" s="8">
-        <v>9.5200000000000007E-3</v>
+        <v>0.009520000000000001</v>
       </c>
       <c r="N8" s="8">
-        <v>4.7600000000000003E-3</v>
+        <v>0.00476</v>
       </c>
       <c r="O8" s="8">
-        <v>9.5200000000000007E-3</v>
+        <v>0.009520000000000001</v>
       </c>
       <c r="P8" s="8">
-        <v>1.9050000000000001E-2</v>
+        <v>0.01905</v>
       </c>
       <c r="Q8" s="8">
-        <v>3.8100000000000002E-2</v>
+        <v>0.0381</v>
       </c>
       <c r="R8" s="8">
-        <v>2.8570000000000002E-2</v>
+        <v>0.02857</v>
       </c>
       <c r="S8" s="8">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="T8" s="8">
-        <v>6.6669999999999993E-2</v>
+        <v>0.06666999999999999</v>
       </c>
       <c r="U8" s="8">
-        <v>0.47143000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.47143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8165,7 +8347,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>99.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -8195,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="O9" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -8207,19 +8389,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="S9" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="T9" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="U9" s="8">
         <v>0.99939</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8236,55 +8418,55 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>3.8000000000000002E-4</v>
+        <v>0.00038</v>
       </c>
       <c r="G10" s="8">
-        <v>3.3E-4</v>
+        <v>0.00033</v>
       </c>
       <c r="H10" s="8">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="I10" s="8">
-        <v>4.6999999999999999E-4</v>
+        <v>0.00047</v>
       </c>
       <c r="J10" s="8">
-        <v>2.3000000000000001E-4</v>
+        <v>0.00023</v>
       </c>
       <c r="K10" s="8">
-        <v>3.3E-4</v>
+        <v>0.00033</v>
       </c>
       <c r="L10" s="8">
-        <v>8.4999999999999995E-4</v>
+        <v>0.00085</v>
       </c>
       <c r="M10" s="8">
-        <v>8.4999999999999995E-4</v>
+        <v>0.00085</v>
       </c>
       <c r="N10" s="8">
-        <v>9.3999999999999997E-4</v>
+        <v>0.00094</v>
       </c>
       <c r="O10" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="P10" s="8">
-        <v>2.0699999999999998E-3</v>
+        <v>0.00207</v>
       </c>
       <c r="Q10" s="8">
-        <v>3.3300000000000001E-3</v>
+        <v>0.00333</v>
       </c>
       <c r="R10" s="8">
-        <v>4.4600000000000004E-3</v>
+        <v>0.00446</v>
       </c>
       <c r="S10" s="8">
-        <v>1.005E-2</v>
+        <v>0.01005</v>
       </c>
       <c r="T10" s="8">
-        <v>2.513E-2</v>
+        <v>0.02513</v>
       </c>
       <c r="U10" s="8">
-        <v>0.94913000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.94913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -8292,64 +8474,64 @@
         <v>7760</v>
       </c>
       <c r="C11" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D11" s="7">
         <v>60.4</v>
       </c>
       <c r="E11" s="8">
-        <v>1.0059999999999999E-2</v>
+        <v>0.01006</v>
       </c>
       <c r="F11" s="8">
-        <v>4.9399999999999999E-2</v>
+        <v>0.0494</v>
       </c>
       <c r="G11" s="8">
-        <v>6.0229999999999999E-2</v>
+        <v>0.06023</v>
       </c>
       <c r="H11" s="8">
-        <v>6.3719999999999999E-2</v>
+        <v>0.06372</v>
       </c>
       <c r="I11" s="8">
-        <v>7.5329999999999994E-2</v>
+        <v>0.07532999999999999</v>
       </c>
       <c r="J11" s="8">
-        <v>8.8349999999999998E-2</v>
+        <v>0.08835</v>
       </c>
       <c r="K11" s="8">
-        <v>9.5320000000000002E-2</v>
+        <v>0.09532</v>
       </c>
       <c r="L11" s="8">
-        <v>9.5320000000000002E-2</v>
+        <v>0.09532</v>
       </c>
       <c r="M11" s="8">
-        <v>9.2869999999999994E-2</v>
+        <v>0.09286999999999999</v>
       </c>
       <c r="N11" s="8">
-        <v>7.6490000000000002E-2</v>
+        <v>0.07649</v>
       </c>
       <c r="O11" s="8">
-        <v>6.6809999999999994E-2</v>
+        <v>0.06680999999999999</v>
       </c>
       <c r="P11" s="8">
-        <v>5.8430000000000003E-2</v>
+        <v>0.05843</v>
       </c>
       <c r="Q11" s="8">
-        <v>5.0169999999999999E-2</v>
+        <v>0.05017</v>
       </c>
       <c r="R11" s="8">
-        <v>4.4110000000000003E-2</v>
+        <v>0.04411</v>
       </c>
       <c r="S11" s="8">
-        <v>3.1989999999999998E-2</v>
+        <v>0.03199</v>
       </c>
       <c r="T11" s="8">
-        <v>2.7089999999999999E-2</v>
+        <v>0.02709</v>
       </c>
       <c r="U11" s="8">
-        <v>1.4319999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.01432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8363,31 +8545,31 @@
         <v>85.3</v>
       </c>
       <c r="E12" s="8">
-        <v>3.2000000000000003E-4</v>
+        <v>0.00032</v>
       </c>
       <c r="F12" s="8">
-        <v>9.7199999999999995E-3</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="G12" s="8">
-        <v>9.3900000000000008E-3</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="H12" s="8">
-        <v>1.7160000000000002E-2</v>
+        <v>0.01716</v>
       </c>
       <c r="I12" s="8">
-        <v>2.947E-2</v>
+        <v>0.02947</v>
       </c>
       <c r="J12" s="8">
-        <v>3.7240000000000002E-2</v>
+        <v>0.03724</v>
       </c>
       <c r="K12" s="8">
-        <v>5.117E-2</v>
+        <v>0.05117</v>
       </c>
       <c r="L12" s="8">
-        <v>6.5740000000000007E-2</v>
+        <v>0.06574000000000001</v>
       </c>
       <c r="M12" s="8">
-        <v>8.1930000000000003E-2</v>
+        <v>0.08193</v>
       </c>
       <c r="N12" s="8">
         <v>0.10654</v>
@@ -8396,7 +8578,7 @@
         <v>0.10654</v>
       </c>
       <c r="P12" s="8">
-        <v>0.11398999999999999</v>
+        <v>0.11399</v>
       </c>
       <c r="Q12" s="8">
         <v>0.1169</v>
@@ -8405,16 +8587,16 @@
         <v>0.11237</v>
       </c>
       <c r="S12" s="8">
-        <v>7.4480000000000005E-2</v>
+        <v>0.07448</v>
       </c>
       <c r="T12" s="8">
-        <v>4.8579999999999998E-2</v>
+        <v>0.04858</v>
       </c>
       <c r="U12" s="8">
-        <v>1.8460000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.01846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8425,61 +8607,61 @@
         <v>99.8</v>
       </c>
       <c r="D13" s="7">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E13" s="8">
-        <v>6.1399999999999996E-3</v>
+        <v>0.00614</v>
       </c>
       <c r="F13" s="8">
-        <v>1.2880000000000001E-2</v>
+        <v>0.01288</v>
       </c>
       <c r="G13" s="8">
-        <v>9.4699999999999993E-3</v>
+        <v>0.009469999999999999</v>
       </c>
       <c r="H13" s="8">
-        <v>8.9599999999999992E-3</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="I13" s="8">
-        <v>1.5610000000000001E-2</v>
+        <v>0.01561</v>
       </c>
       <c r="J13" s="8">
-        <v>2.2100000000000002E-2</v>
+        <v>0.0221</v>
       </c>
       <c r="K13" s="8">
-        <v>2.9350000000000001E-2</v>
+        <v>0.02935</v>
       </c>
       <c r="L13" s="8">
-        <v>3.771E-2</v>
+        <v>0.03771</v>
       </c>
       <c r="M13" s="8">
-        <v>4.7260000000000003E-2</v>
+        <v>0.04726</v>
       </c>
       <c r="N13" s="8">
-        <v>5.6559999999999999E-2</v>
+        <v>0.05656</v>
       </c>
       <c r="O13" s="8">
-        <v>6.8760000000000002E-2</v>
+        <v>0.06876</v>
       </c>
       <c r="P13" s="8">
-        <v>8.8639999999999997E-2</v>
+        <v>0.08864</v>
       </c>
       <c r="Q13" s="8">
-        <v>0.11457000000000001</v>
+        <v>0.11457</v>
       </c>
       <c r="R13" s="8">
-        <v>0.13614999999999999</v>
+        <v>0.13615</v>
       </c>
       <c r="S13" s="8">
         <v>0.13743</v>
       </c>
       <c r="T13" s="8">
-        <v>0.12523000000000001</v>
+        <v>0.12523</v>
       </c>
       <c r="U13" s="8">
-        <v>8.3180000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.08318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -8487,34 +8669,34 @@
         <v>9090</v>
       </c>
       <c r="C14" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D14" s="7">
         <v>71.2</v>
       </c>
       <c r="E14" s="8">
-        <v>5.2900000000000004E-3</v>
+        <v>0.00529</v>
       </c>
       <c r="F14" s="8">
-        <v>2.5440000000000001E-2</v>
+        <v>0.02544</v>
       </c>
       <c r="G14" s="8">
-        <v>4.086E-2</v>
+        <v>0.04086</v>
       </c>
       <c r="H14" s="8">
-        <v>5.1319999999999998E-2</v>
+        <v>0.05132</v>
       </c>
       <c r="I14" s="8">
-        <v>6.4759999999999998E-2</v>
+        <v>0.06476</v>
       </c>
       <c r="J14" s="8">
-        <v>8.6230000000000001E-2</v>
+        <v>0.08623</v>
       </c>
       <c r="K14" s="8">
         <v>0.10749</v>
       </c>
       <c r="L14" s="8">
-        <v>0.12280000000000001</v>
+        <v>0.1228</v>
       </c>
       <c r="M14" s="8">
         <v>0.12533</v>
@@ -8523,28 +8705,28 @@
         <v>0.1065</v>
       </c>
       <c r="O14" s="8">
-        <v>8.5239999999999996E-2</v>
+        <v>0.08524</v>
       </c>
       <c r="P14" s="8">
-        <v>5.5509999999999997E-2</v>
+        <v>0.05551</v>
       </c>
       <c r="Q14" s="8">
-        <v>4.7690000000000003E-2</v>
+        <v>0.04769</v>
       </c>
       <c r="R14" s="8">
-        <v>3.2379999999999999E-2</v>
+        <v>0.03238</v>
       </c>
       <c r="S14" s="8">
-        <v>1.9599999999999999E-2</v>
+        <v>0.0196</v>
       </c>
       <c r="T14" s="8">
-        <v>1.41E-2</v>
+        <v>0.0141</v>
       </c>
       <c r="U14" s="8">
-        <v>9.4699999999999993E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.009469999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -8555,61 +8737,61 @@
         <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E15" s="8">
-        <v>1.491E-2</v>
+        <v>0.01491</v>
       </c>
       <c r="F15" s="8">
-        <v>2.5250000000000002E-2</v>
+        <v>0.02525</v>
       </c>
       <c r="G15" s="8">
-        <v>3.0679999999999999E-2</v>
+        <v>0.03068</v>
       </c>
       <c r="H15" s="8">
-        <v>4.1709999999999997E-2</v>
+        <v>0.04171</v>
       </c>
       <c r="I15" s="8">
-        <v>5.5230000000000001E-2</v>
+        <v>0.05523</v>
       </c>
       <c r="J15" s="8">
-        <v>7.3849999999999999E-2</v>
+        <v>0.07385</v>
       </c>
       <c r="K15" s="8">
-        <v>8.6510000000000004E-2</v>
+        <v>0.08651</v>
       </c>
       <c r="L15" s="8">
-        <v>9.6680000000000002E-2</v>
+        <v>0.09668</v>
       </c>
       <c r="M15" s="8">
-        <v>9.7110000000000002E-2</v>
+        <v>0.09711</v>
       </c>
       <c r="N15" s="8">
-        <v>9.2549999999999993E-2</v>
+        <v>0.09254999999999999</v>
       </c>
       <c r="O15" s="8">
-        <v>9.1600000000000001E-2</v>
+        <v>0.0916</v>
       </c>
       <c r="P15" s="8">
-        <v>7.3760000000000006E-2</v>
+        <v>0.07376000000000001</v>
       </c>
       <c r="Q15" s="8">
-        <v>6.1960000000000001E-2</v>
+        <v>0.06196</v>
       </c>
       <c r="R15" s="8">
-        <v>5.4370000000000002E-2</v>
+        <v>0.05437</v>
       </c>
       <c r="S15" s="8">
-        <v>4.5409999999999999E-2</v>
+        <v>0.04541</v>
       </c>
       <c r="T15" s="8">
-        <v>3.6540000000000003E-2</v>
+        <v>0.03654</v>
       </c>
       <c r="U15" s="8">
-        <v>2.189E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.02189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -8623,58 +8805,58 @@
         <v>16.7</v>
       </c>
       <c r="E16" s="8">
-        <v>2.0899999999999998E-3</v>
+        <v>0.00209</v>
       </c>
       <c r="F16" s="8">
-        <v>0.17849999999999999</v>
+        <v>0.1785</v>
       </c>
       <c r="G16" s="8">
         <v>0.40292</v>
       </c>
       <c r="H16" s="8">
-        <v>0.17327999999999999</v>
+        <v>0.17328</v>
       </c>
       <c r="I16" s="8">
-        <v>5.4280000000000002E-2</v>
+        <v>0.05428</v>
       </c>
       <c r="J16" s="8">
-        <v>2.5049999999999999E-2</v>
+        <v>0.02505</v>
       </c>
       <c r="K16" s="8">
-        <v>1.461E-2</v>
+        <v>0.01461</v>
       </c>
       <c r="L16" s="8">
-        <v>1.357E-2</v>
+        <v>0.01357</v>
       </c>
       <c r="M16" s="8">
-        <v>1.2529999999999999E-2</v>
+        <v>0.01253</v>
       </c>
       <c r="N16" s="8">
-        <v>8.3499999999999998E-3</v>
+        <v>0.00835</v>
       </c>
       <c r="O16" s="8">
-        <v>6.2599999999999999E-3</v>
+        <v>0.00626</v>
       </c>
       <c r="P16" s="8">
-        <v>5.2199999999999998E-3</v>
+        <v>0.00522</v>
       </c>
       <c r="Q16" s="8">
-        <v>1.044E-2</v>
+        <v>0.01044</v>
       </c>
       <c r="R16" s="8">
-        <v>8.3499999999999998E-3</v>
+        <v>0.00835</v>
       </c>
       <c r="S16" s="8">
-        <v>3.13E-3</v>
+        <v>0.00313</v>
       </c>
       <c r="T16" s="8">
-        <v>9.3900000000000008E-3</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="U16" s="8">
-        <v>7.2029999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.07203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -8682,64 +8864,64 @@
         <v>25416</v>
       </c>
       <c r="C17" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D17" s="7">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="G17" s="8">
-        <v>8.0000000000000007E-5</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="H17" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="I17" s="8">
-        <v>8.0000000000000007E-5</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="J17" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="K17" s="8">
-        <v>4.0000000000000003E-5</v>
+        <v>4E-05</v>
       </c>
       <c r="L17" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="M17" s="8">
-        <v>8.0000000000000007E-5</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="N17" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="O17" s="8">
-        <v>2.4000000000000001E-4</v>
+        <v>0.00024</v>
       </c>
       <c r="P17" s="8">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="Q17" s="8">
-        <v>4.2999999999999999E-4</v>
+        <v>0.00043</v>
       </c>
       <c r="R17" s="8">
-        <v>5.5000000000000003E-4</v>
+        <v>0.00055</v>
       </c>
       <c r="S17" s="8">
-        <v>1.2600000000000001E-3</v>
+        <v>0.00126</v>
       </c>
       <c r="T17" s="8">
-        <v>4.3299999999999996E-3</v>
+        <v>0.00433</v>
       </c>
       <c r="U17" s="8">
-        <v>0.99189000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.99189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -8756,55 +8938,55 @@
         <v>0.18006</v>
       </c>
       <c r="F18" s="8">
-        <v>0.35566999999999999</v>
+        <v>0.35567</v>
       </c>
       <c r="G18" s="8">
         <v>0.11788</v>
       </c>
       <c r="H18" s="8">
-        <v>5.7729999999999997E-2</v>
+        <v>0.05773</v>
       </c>
       <c r="I18" s="8">
-        <v>2.7859999999999999E-2</v>
+        <v>0.02786</v>
       </c>
       <c r="J18" s="8">
-        <v>1.7760000000000001E-2</v>
+        <v>0.01776</v>
       </c>
       <c r="K18" s="8">
-        <v>1.1509999999999999E-2</v>
+        <v>0.01151</v>
       </c>
       <c r="L18" s="8">
-        <v>9.2899999999999996E-3</v>
+        <v>0.00929</v>
       </c>
       <c r="M18" s="8">
-        <v>7.0600000000000003E-3</v>
+        <v>0.00706</v>
       </c>
       <c r="N18" s="8">
-        <v>7.4700000000000001E-3</v>
+        <v>0.00747</v>
       </c>
       <c r="O18" s="8">
-        <v>9.2899999999999996E-3</v>
+        <v>0.00929</v>
       </c>
       <c r="P18" s="8">
-        <v>6.6600000000000001E-3</v>
+        <v>0.00666</v>
       </c>
       <c r="Q18" s="8">
-        <v>8.0700000000000008E-3</v>
+        <v>0.008070000000000001</v>
       </c>
       <c r="R18" s="8">
-        <v>1.1509999999999999E-2</v>
+        <v>0.01151</v>
       </c>
       <c r="S18" s="8">
-        <v>1.1299999999999999E-2</v>
+        <v>0.0113</v>
       </c>
       <c r="T18" s="8">
-        <v>1.453E-2</v>
+        <v>0.01453</v>
       </c>
       <c r="U18" s="8">
-        <v>0.14635000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.14635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -8812,64 +8994,64 @@
         <v>91830</v>
       </c>
       <c r="C19" s="7">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D19" s="7">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E19" s="8">
-        <v>2.1000000000000001E-4</v>
+        <v>0.00021</v>
       </c>
       <c r="F19" s="8">
-        <v>2.2399999999999998E-3</v>
+        <v>0.00224</v>
       </c>
       <c r="G19" s="8">
-        <v>1.06E-3</v>
+        <v>0.00106</v>
       </c>
       <c r="H19" s="8">
-        <v>2.7699999999999999E-3</v>
+        <v>0.00277</v>
       </c>
       <c r="I19" s="8">
-        <v>2.5600000000000002E-3</v>
+        <v>0.00256</v>
       </c>
       <c r="J19" s="8">
-        <v>1.6999999999999999E-3</v>
+        <v>0.0017</v>
       </c>
       <c r="K19" s="8">
-        <v>3.1900000000000001E-3</v>
+        <v>0.00319</v>
       </c>
       <c r="L19" s="8">
-        <v>4.79E-3</v>
+        <v>0.00479</v>
       </c>
       <c r="M19" s="8">
-        <v>7.3499999999999998E-3</v>
+        <v>0.00735</v>
       </c>
       <c r="N19" s="8">
-        <v>9.4800000000000006E-3</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="O19" s="8">
-        <v>1.171E-2</v>
+        <v>0.01171</v>
       </c>
       <c r="P19" s="8">
-        <v>1.7250000000000001E-2</v>
+        <v>0.01725</v>
       </c>
       <c r="Q19" s="8">
-        <v>2.2679999999999999E-2</v>
+        <v>0.02268</v>
       </c>
       <c r="R19" s="8">
-        <v>3.7060000000000003E-2</v>
+        <v>0.03706</v>
       </c>
       <c r="S19" s="8">
-        <v>4.7710000000000002E-2</v>
+        <v>0.04771</v>
       </c>
       <c r="T19" s="8">
-        <v>9.7009999999999999E-2</v>
+        <v>0.09701</v>
       </c>
       <c r="U19" s="8">
-        <v>0.73123000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.73123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -8883,58 +9065,58 @@
         <v>60</v>
       </c>
       <c r="E20" s="8">
-        <v>3.7399999999999998E-3</v>
+        <v>0.00374</v>
       </c>
       <c r="F20" s="8">
-        <v>9.3500000000000007E-3</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="G20" s="8">
-        <v>1.453E-2</v>
+        <v>0.01453</v>
       </c>
       <c r="H20" s="8">
-        <v>1.316E-2</v>
+        <v>0.01316</v>
       </c>
       <c r="I20" s="8">
-        <v>1.524E-2</v>
+        <v>0.01524</v>
       </c>
       <c r="J20" s="8">
-        <v>1.3809999999999999E-2</v>
+        <v>0.01381</v>
       </c>
       <c r="K20" s="8">
-        <v>1.481E-2</v>
+        <v>0.01481</v>
       </c>
       <c r="L20" s="8">
-        <v>2.0060000000000001E-2</v>
+        <v>0.02006</v>
       </c>
       <c r="M20" s="8">
-        <v>2.3369999999999998E-2</v>
+        <v>0.02337</v>
       </c>
       <c r="N20" s="8">
-        <v>2.826E-2</v>
+        <v>0.02826</v>
       </c>
       <c r="O20" s="8">
-        <v>3.9120000000000002E-2</v>
+        <v>0.03912</v>
       </c>
       <c r="P20" s="8">
-        <v>5.2130000000000003E-2</v>
+        <v>0.05213</v>
       </c>
       <c r="Q20" s="8">
-        <v>7.5289999999999996E-2</v>
+        <v>0.07529</v>
       </c>
       <c r="R20" s="8">
         <v>0.11361</v>
       </c>
       <c r="S20" s="8">
-        <v>0.13719999999999999</v>
+        <v>0.1372</v>
       </c>
       <c r="T20" s="8">
-        <v>0.17602999999999999</v>
+        <v>0.17603</v>
       </c>
       <c r="U20" s="8">
-        <v>0.25030999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.25031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -8942,64 +9124,64 @@
         <v>3276</v>
       </c>
       <c r="C21" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D21" s="7">
         <v>86.5</v>
       </c>
       <c r="E21" s="8">
-        <v>4.5799999999999999E-3</v>
+        <v>0.00458</v>
       </c>
       <c r="F21" s="8">
-        <v>3.0500000000000002E-3</v>
+        <v>0.00305</v>
       </c>
       <c r="G21" s="8">
-        <v>1.2199999999999999E-3</v>
+        <v>0.00122</v>
       </c>
       <c r="H21" s="8">
-        <v>6.0999999999999997E-4</v>
+        <v>0.00061</v>
       </c>
       <c r="I21" s="8">
-        <v>2.7499999999999998E-3</v>
+        <v>0.00275</v>
       </c>
       <c r="J21" s="8">
-        <v>2.14E-3</v>
+        <v>0.00214</v>
       </c>
       <c r="K21" s="8">
-        <v>3.0500000000000002E-3</v>
+        <v>0.00305</v>
       </c>
       <c r="L21" s="8">
-        <v>3.3600000000000001E-3</v>
+        <v>0.00336</v>
       </c>
       <c r="M21" s="8">
-        <v>7.0299999999999998E-3</v>
+        <v>0.00703</v>
       </c>
       <c r="N21" s="8">
-        <v>1.222E-2</v>
+        <v>0.01222</v>
       </c>
       <c r="O21" s="8">
-        <v>1.8020000000000001E-2</v>
+        <v>0.01802</v>
       </c>
       <c r="P21" s="8">
-        <v>1.772E-2</v>
+        <v>0.01772</v>
       </c>
       <c r="Q21" s="8">
-        <v>2.8410000000000001E-2</v>
+        <v>0.02841</v>
       </c>
       <c r="R21" s="8">
-        <v>4.3069999999999997E-2</v>
+        <v>0.04307</v>
       </c>
       <c r="S21" s="8">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="T21" s="8">
         <v>0.16952</v>
       </c>
       <c r="U21" s="8">
-        <v>0.61575999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.61576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -9007,64 +9189,64 @@
         <v>17171</v>
       </c>
       <c r="C22" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D22" s="7">
         <v>66.5</v>
       </c>
       <c r="E22" s="8">
-        <v>9.5600000000000008E-3</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="F22" s="8">
-        <v>4.761E-2</v>
+        <v>0.04761</v>
       </c>
       <c r="G22" s="8">
-        <v>5.314E-2</v>
+        <v>0.05314</v>
       </c>
       <c r="H22" s="8">
-        <v>6.5089999999999995E-2</v>
+        <v>0.06509</v>
       </c>
       <c r="I22" s="8">
-        <v>7.2489999999999999E-2</v>
+        <v>0.07249</v>
       </c>
       <c r="J22" s="8">
-        <v>8.9029999999999998E-2</v>
+        <v>0.08903</v>
       </c>
       <c r="K22" s="8">
-        <v>9.6140000000000003E-2</v>
+        <v>0.09614</v>
       </c>
       <c r="L22" s="8">
-        <v>0.10465000000000001</v>
+        <v>0.10465</v>
       </c>
       <c r="M22" s="8">
-        <v>0.10546999999999999</v>
+        <v>0.10547</v>
       </c>
       <c r="N22" s="8">
-        <v>9.2240000000000003E-2</v>
+        <v>0.09224</v>
       </c>
       <c r="O22" s="8">
-        <v>7.6329999999999995E-2</v>
+        <v>0.07633</v>
       </c>
       <c r="P22" s="8">
-        <v>5.7340000000000002E-2</v>
+        <v>0.05734</v>
       </c>
       <c r="Q22" s="8">
-        <v>4.265E-2</v>
+        <v>0.04265</v>
       </c>
       <c r="R22" s="8">
-        <v>3.1230000000000001E-2</v>
+        <v>0.03123</v>
       </c>
       <c r="S22" s="8">
-        <v>2.307E-2</v>
+        <v>0.02307</v>
       </c>
       <c r="T22" s="8">
-        <v>2.051E-2</v>
+        <v>0.02051</v>
       </c>
       <c r="U22" s="8">
-        <v>1.346E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.01346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -9075,40 +9257,40 @@
         <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E23" s="8">
-        <v>4.8399999999999997E-3</v>
+        <v>0.00484</v>
       </c>
       <c r="F23" s="8">
-        <v>1.452E-2</v>
+        <v>0.01452</v>
       </c>
       <c r="G23" s="8">
-        <v>1.0319999999999999E-2</v>
+        <v>0.01032</v>
       </c>
       <c r="H23" s="8">
-        <v>8.9200000000000008E-3</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="I23" s="8">
-        <v>1.0699999999999999E-2</v>
+        <v>0.0107</v>
       </c>
       <c r="J23" s="8">
-        <v>1.452E-2</v>
+        <v>0.01452</v>
       </c>
       <c r="K23" s="8">
-        <v>2.2540000000000001E-2</v>
+        <v>0.02254</v>
       </c>
       <c r="L23" s="8">
-        <v>3.1329999999999997E-2</v>
+        <v>0.03133</v>
       </c>
       <c r="M23" s="8">
-        <v>5.0950000000000002E-2</v>
+        <v>0.05095</v>
       </c>
       <c r="N23" s="8">
-        <v>6.0630000000000003E-2</v>
+        <v>0.06063</v>
       </c>
       <c r="O23" s="8">
-        <v>7.9740000000000005E-2</v>
+        <v>0.07974000000000001</v>
       </c>
       <c r="P23" s="8">
         <v>0.10699</v>
@@ -9117,19 +9299,19 @@
         <v>0.15578</v>
       </c>
       <c r="R23" s="8">
-        <v>0.20430999999999999</v>
+        <v>0.20431</v>
       </c>
       <c r="S23" s="8">
         <v>0.14495</v>
       </c>
       <c r="T23" s="8">
-        <v>5.4390000000000001E-2</v>
+        <v>0.05439</v>
       </c>
       <c r="U23" s="8">
-        <v>2.4580000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.02458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9143,58 +9325,58 @@
         <v>78</v>
       </c>
       <c r="E24" s="8">
-        <v>9.0399999999999994E-3</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="F24" s="8">
-        <v>3.7249999999999998E-2</v>
+        <v>0.03725</v>
       </c>
       <c r="G24" s="8">
-        <v>2.349E-2</v>
+        <v>0.02349</v>
       </c>
       <c r="H24" s="8">
-        <v>2.613E-2</v>
+        <v>0.02613</v>
       </c>
       <c r="I24" s="8">
-        <v>3.6700000000000003E-2</v>
+        <v>0.0367</v>
       </c>
       <c r="J24" s="8">
-        <v>4.5179999999999998E-2</v>
+        <v>0.04518</v>
       </c>
       <c r="K24" s="8">
-        <v>5.6160000000000002E-2</v>
+        <v>0.05616</v>
       </c>
       <c r="L24" s="8">
-        <v>7.1309999999999998E-2</v>
+        <v>0.07131</v>
       </c>
       <c r="M24" s="8">
-        <v>8.7429999999999994E-2</v>
+        <v>0.08742999999999999</v>
       </c>
       <c r="N24" s="8">
-        <v>8.6040000000000005E-2</v>
+        <v>0.08604000000000001</v>
       </c>
       <c r="O24" s="8">
-        <v>9.425E-2</v>
+        <v>0.09425</v>
       </c>
       <c r="P24" s="8">
-        <v>8.8690000000000005E-2</v>
+        <v>0.08869</v>
       </c>
       <c r="Q24" s="8">
-        <v>7.4649999999999994E-2</v>
+        <v>0.07464999999999999</v>
       </c>
       <c r="R24" s="8">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="S24" s="8">
-        <v>6.9500000000000006E-2</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="T24" s="8">
-        <v>7.145E-2</v>
+        <v>0.07145</v>
       </c>
       <c r="U24" s="8">
-        <v>4.7539999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.04754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -9202,64 +9384,64 @@
         <v>11757</v>
       </c>
       <c r="C25" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D25" s="7">
         <v>91</v>
       </c>
       <c r="E25" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="F25" s="8">
-        <v>2.5999999999999998E-4</v>
+        <v>0.00026</v>
       </c>
       <c r="G25" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="H25" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="I25" s="8">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="J25" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>0.00017</v>
       </c>
       <c r="K25" s="8">
-        <v>7.6999999999999996E-4</v>
+        <v>0.00077</v>
       </c>
       <c r="L25" s="8">
-        <v>6.8000000000000005E-4</v>
+        <v>0.00068</v>
       </c>
       <c r="M25" s="8">
-        <v>1.3600000000000001E-3</v>
+        <v>0.00136</v>
       </c>
       <c r="N25" s="8">
-        <v>1.3600000000000001E-3</v>
+        <v>0.00136</v>
       </c>
       <c r="O25" s="8">
-        <v>2.1299999999999999E-3</v>
+        <v>0.00213</v>
       </c>
       <c r="P25" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="Q25" s="8">
-        <v>4.7699999999999999E-3</v>
+        <v>0.00477</v>
       </c>
       <c r="R25" s="8">
-        <v>8.1700000000000002E-3</v>
+        <v>0.00817</v>
       </c>
       <c r="S25" s="8">
-        <v>1.455E-2</v>
+        <v>0.01455</v>
       </c>
       <c r="T25" s="8">
-        <v>4.2810000000000001E-2</v>
+        <v>0.04281</v>
       </c>
       <c r="U25" s="8">
-        <v>0.91820999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.91821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -9273,58 +9455,58 @@
         <v>49.7</v>
       </c>
       <c r="E26" s="8">
-        <v>0.28260999999999997</v>
+        <v>0.28261</v>
       </c>
       <c r="F26" s="8">
-        <v>5.5070000000000001E-2</v>
+        <v>0.05507</v>
       </c>
       <c r="G26" s="8">
-        <v>3.9129999999999998E-2</v>
+        <v>0.03913</v>
       </c>
       <c r="H26" s="8">
-        <v>1.7389999999999999E-2</v>
+        <v>0.01739</v>
       </c>
       <c r="I26" s="8">
-        <v>3.1879999999999999E-2</v>
+        <v>0.03188</v>
       </c>
       <c r="J26" s="8">
-        <v>3.1879999999999999E-2</v>
+        <v>0.03188</v>
       </c>
       <c r="K26" s="8">
-        <v>2.0289999999999999E-2</v>
+        <v>0.02029</v>
       </c>
       <c r="L26" s="8">
-        <v>2.3189999999999999E-2</v>
+        <v>0.02319</v>
       </c>
       <c r="M26" s="8">
-        <v>1.7389999999999999E-2</v>
+        <v>0.01739</v>
       </c>
       <c r="N26" s="8">
-        <v>2.3189999999999999E-2</v>
+        <v>0.02319</v>
       </c>
       <c r="O26" s="8">
-        <v>2.0289999999999999E-2</v>
+        <v>0.02029</v>
       </c>
       <c r="P26" s="8">
-        <v>1.304E-2</v>
+        <v>0.01304</v>
       </c>
       <c r="Q26" s="8">
-        <v>1.7389999999999999E-2</v>
+        <v>0.01739</v>
       </c>
       <c r="R26" s="8">
-        <v>1.5939999999999999E-2</v>
+        <v>0.01594</v>
       </c>
       <c r="S26" s="8">
-        <v>1.4489999999999999E-2</v>
+        <v>0.01449</v>
       </c>
       <c r="T26" s="8">
-        <v>2.0289999999999999E-2</v>
+        <v>0.02029</v>
       </c>
       <c r="U26" s="8">
         <v>0.35652</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -9341,55 +9523,55 @@
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="G27" s="8">
-        <v>9.0000000000000006E-5</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="J27" s="8">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="K27" s="8">
-        <v>2.3000000000000001E-4</v>
+        <v>0.00023</v>
       </c>
       <c r="L27" s="8">
-        <v>2.7E-4</v>
+        <v>0.00027</v>
       </c>
       <c r="M27" s="8">
-        <v>3.2000000000000003E-4</v>
+        <v>0.00032</v>
       </c>
       <c r="N27" s="8">
-        <v>6.3000000000000003E-4</v>
+        <v>0.00063</v>
       </c>
       <c r="O27" s="8">
-        <v>1.1299999999999999E-3</v>
+        <v>0.00113</v>
       </c>
       <c r="P27" s="8">
-        <v>2.3500000000000001E-3</v>
+        <v>0.00235</v>
       </c>
       <c r="Q27" s="8">
-        <v>2.8900000000000002E-3</v>
+        <v>0.00289</v>
       </c>
       <c r="R27" s="8">
-        <v>6.8199999999999997E-3</v>
+        <v>0.00682</v>
       </c>
       <c r="S27" s="8">
-        <v>1.6310000000000002E-2</v>
+        <v>0.01631</v>
       </c>
       <c r="T27" s="8">
-        <v>5.7279999999999998E-2</v>
+        <v>0.05728</v>
       </c>
       <c r="U27" s="8">
-        <v>0.91142000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.91142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9403,58 +9585,58 @@
         <v>95.7</v>
       </c>
       <c r="E28" s="8">
-        <v>1.2E-4</v>
+        <v>0.00012</v>
       </c>
       <c r="F28" s="8">
-        <v>6.4999999999999997E-4</v>
+        <v>0.00065</v>
       </c>
       <c r="G28" s="8">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="H28" s="8">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="I28" s="8">
-        <v>2.4000000000000001E-4</v>
+        <v>0.00024</v>
       </c>
       <c r="J28" s="8">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="K28" s="8">
-        <v>8.8000000000000003E-4</v>
+        <v>0.00088</v>
       </c>
       <c r="L28" s="8">
-        <v>1.24E-3</v>
+        <v>0.00124</v>
       </c>
       <c r="M28" s="8">
-        <v>1.1199999999999999E-3</v>
+        <v>0.00112</v>
       </c>
       <c r="N28" s="8">
-        <v>1.24E-3</v>
+        <v>0.00124</v>
       </c>
       <c r="O28" s="8">
-        <v>1.7700000000000001E-3</v>
+        <v>0.00177</v>
       </c>
       <c r="P28" s="8">
-        <v>2.3600000000000001E-3</v>
+        <v>0.00236</v>
       </c>
       <c r="Q28" s="8">
-        <v>4.3E-3</v>
+        <v>0.0043</v>
       </c>
       <c r="R28" s="8">
-        <v>8.43E-3</v>
+        <v>0.00843</v>
       </c>
       <c r="S28" s="8">
-        <v>1.6039999999999999E-2</v>
+        <v>0.01604</v>
       </c>
       <c r="T28" s="8">
-        <v>4.7879999999999999E-2</v>
+        <v>0.04788</v>
       </c>
       <c r="U28" s="8">
-        <v>0.91266999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.91267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -9465,61 +9647,61 @@
         <v>99.8</v>
       </c>
       <c r="D29" s="7">
-        <v>97.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E29" s="8">
-        <v>2.33E-3</v>
+        <v>0.00233</v>
       </c>
       <c r="F29" s="8">
-        <v>4.6999999999999999E-4</v>
+        <v>0.00047</v>
       </c>
       <c r="G29" s="8">
-        <v>4.6999999999999999E-4</v>
+        <v>0.00047</v>
       </c>
       <c r="H29" s="8">
-        <v>4.6999999999999999E-4</v>
+        <v>0.00047</v>
       </c>
       <c r="I29" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="J29" s="8">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="K29" s="8">
-        <v>9.3000000000000005E-4</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="L29" s="8">
-        <v>2.33E-3</v>
+        <v>0.00233</v>
       </c>
       <c r="M29" s="8">
-        <v>4.6600000000000001E-3</v>
+        <v>0.00466</v>
       </c>
       <c r="N29" s="8">
-        <v>5.5900000000000004E-3</v>
+        <v>0.00559</v>
       </c>
       <c r="O29" s="8">
-        <v>8.2299999999999995E-3</v>
+        <v>0.008229999999999999</v>
       </c>
       <c r="P29" s="8">
-        <v>1.7389999999999999E-2</v>
+        <v>0.01739</v>
       </c>
       <c r="Q29" s="8">
-        <v>2.8879999999999999E-2</v>
+        <v>0.02888</v>
       </c>
       <c r="R29" s="8">
-        <v>5.0610000000000002E-2</v>
+        <v>0.05061</v>
       </c>
       <c r="S29" s="8">
-        <v>8.8190000000000004E-2</v>
+        <v>0.08819</v>
       </c>
       <c r="T29" s="8">
-        <v>0.16456999999999999</v>
+        <v>0.16457</v>
       </c>
       <c r="U29" s="8">
-        <v>0.62458999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.62459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -9527,64 +9709,64 @@
         <v>25878</v>
       </c>
       <c r="C30" s="7">
-        <v>89.9</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D30" s="7">
-        <v>94.9</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E30" s="8">
-        <v>1.2999999999999999E-4</v>
+        <v>0.00013</v>
       </c>
       <c r="F30" s="8">
-        <v>3.8999999999999999E-4</v>
+        <v>0.00039</v>
       </c>
       <c r="G30" s="8">
-        <v>8.5999999999999998E-4</v>
+        <v>0.00086</v>
       </c>
       <c r="H30" s="8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I30" s="8">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="J30" s="8">
-        <v>1.07E-3</v>
+        <v>0.00107</v>
       </c>
       <c r="K30" s="8">
-        <v>1.16E-3</v>
+        <v>0.00116</v>
       </c>
       <c r="L30" s="8">
-        <v>1.9300000000000001E-3</v>
+        <v>0.00193</v>
       </c>
       <c r="M30" s="8">
-        <v>2.97E-3</v>
+        <v>0.00297</v>
       </c>
       <c r="N30" s="8">
-        <v>2.8400000000000001E-3</v>
+        <v>0.00284</v>
       </c>
       <c r="O30" s="8">
-        <v>5.2399999999999999E-3</v>
+        <v>0.00524</v>
       </c>
       <c r="P30" s="8">
-        <v>7.26E-3</v>
+        <v>0.00726</v>
       </c>
       <c r="Q30" s="8">
-        <v>1.2120000000000001E-2</v>
+        <v>0.01212</v>
       </c>
       <c r="R30" s="8">
-        <v>1.8780000000000002E-2</v>
+        <v>0.01878</v>
       </c>
       <c r="S30" s="8">
-        <v>3.4259999999999999E-2</v>
+        <v>0.03426</v>
       </c>
       <c r="T30" s="8">
-        <v>9.0870000000000006E-2</v>
+        <v>0.09087000000000001</v>
       </c>
       <c r="U30" s="8">
-        <v>0.81859999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.8186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -9595,49 +9777,49 @@
         <v>23.4</v>
       </c>
       <c r="D31" s="7">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E31" s="8">
-        <v>3.3E-4</v>
+        <v>0.00033</v>
       </c>
       <c r="F31" s="8">
-        <v>1.9300000000000001E-3</v>
+        <v>0.00193</v>
       </c>
       <c r="G31" s="8">
-        <v>3.2599999999999999E-3</v>
+        <v>0.00326</v>
       </c>
       <c r="H31" s="8">
-        <v>3.6600000000000001E-3</v>
+        <v>0.00366</v>
       </c>
       <c r="I31" s="8">
-        <v>5.79E-3</v>
+        <v>0.00579</v>
       </c>
       <c r="J31" s="8">
-        <v>7.1199999999999996E-3</v>
+        <v>0.00712</v>
       </c>
       <c r="K31" s="8">
-        <v>8.5100000000000002E-3</v>
+        <v>0.00851</v>
       </c>
       <c r="L31" s="8">
-        <v>1.124E-2</v>
+        <v>0.01124</v>
       </c>
       <c r="M31" s="8">
-        <v>1.789E-2</v>
+        <v>0.01789</v>
       </c>
       <c r="N31" s="8">
-        <v>2.2339999999999999E-2</v>
+        <v>0.02234</v>
       </c>
       <c r="O31" s="8">
-        <v>3.0190000000000002E-2</v>
+        <v>0.03019</v>
       </c>
       <c r="P31" s="8">
-        <v>4.163E-2</v>
+        <v>0.04163</v>
       </c>
       <c r="Q31" s="8">
-        <v>5.4269999999999999E-2</v>
+        <v>0.05427</v>
       </c>
       <c r="R31" s="8">
-        <v>8.1670000000000006E-2</v>
+        <v>0.08167000000000001</v>
       </c>
       <c r="S31" s="8">
         <v>0.11305</v>
@@ -9646,10 +9828,10 @@
         <v>0.19705</v>
       </c>
       <c r="U31" s="8">
-        <v>0.40007999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.40008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -9657,64 +9839,64 @@
         <v>59739</v>
       </c>
       <c r="C32" s="7">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D32" s="7">
         <v>62</v>
       </c>
       <c r="E32" s="8">
-        <v>1.291E-2</v>
+        <v>0.01291</v>
       </c>
       <c r="F32" s="8">
-        <v>1.8380000000000001E-2</v>
+        <v>0.01838</v>
       </c>
       <c r="G32" s="8">
-        <v>2.4230000000000002E-2</v>
+        <v>0.02423</v>
       </c>
       <c r="H32" s="8">
-        <v>1.8919999999999999E-2</v>
+        <v>0.01892</v>
       </c>
       <c r="I32" s="8">
-        <v>9.9000000000000008E-3</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="J32" s="8">
-        <v>6.4400000000000004E-3</v>
+        <v>0.00644</v>
       </c>
       <c r="K32" s="8">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="L32" s="8">
-        <v>3.5599999999999998E-3</v>
+        <v>0.00356</v>
       </c>
       <c r="M32" s="8">
-        <v>3.0699999999999998E-3</v>
+        <v>0.00307</v>
       </c>
       <c r="N32" s="8">
-        <v>3.2200000000000002E-3</v>
+        <v>0.00322</v>
       </c>
       <c r="O32" s="8">
-        <v>3.2000000000000002E-3</v>
+        <v>0.0032</v>
       </c>
       <c r="P32" s="8">
-        <v>3.48E-3</v>
+        <v>0.00348</v>
       </c>
       <c r="Q32" s="8">
-        <v>3.5599999999999998E-3</v>
+        <v>0.00356</v>
       </c>
       <c r="R32" s="8">
-        <v>4.6699999999999997E-3</v>
+        <v>0.00467</v>
       </c>
       <c r="S32" s="8">
-        <v>8.5800000000000008E-3</v>
+        <v>0.008580000000000001</v>
       </c>
       <c r="T32" s="8">
-        <v>1.9820000000000001E-2</v>
+        <v>0.01982</v>
       </c>
       <c r="U32" s="8">
-        <v>0.85187000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.85187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -9722,64 +9904,64 @@
         <v>39012</v>
       </c>
       <c r="C33" s="7">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="D33" s="7">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E33" s="8">
-        <v>7.6000000000000004E-4</v>
+        <v>0.00076</v>
       </c>
       <c r="F33" s="8">
-        <v>1.8600000000000001E-3</v>
+        <v>0.00186</v>
       </c>
       <c r="G33" s="8">
-        <v>2.4099999999999998E-3</v>
+        <v>0.00241</v>
       </c>
       <c r="H33" s="8">
-        <v>2.6099999999999999E-3</v>
+        <v>0.00261</v>
       </c>
       <c r="I33" s="8">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="J33" s="8">
-        <v>5.9199999999999999E-3</v>
+        <v>0.00592</v>
       </c>
       <c r="K33" s="8">
-        <v>5.9199999999999999E-3</v>
+        <v>0.00592</v>
       </c>
       <c r="L33" s="8">
-        <v>7.0899999999999999E-3</v>
+        <v>0.00709</v>
       </c>
       <c r="M33" s="8">
-        <v>1.039E-2</v>
+        <v>0.01039</v>
       </c>
       <c r="N33" s="8">
-        <v>1.321E-2</v>
+        <v>0.01321</v>
       </c>
       <c r="O33" s="8">
-        <v>1.52E-2</v>
+        <v>0.0152</v>
       </c>
       <c r="P33" s="8">
-        <v>1.8780000000000002E-2</v>
+        <v>0.01878</v>
       </c>
       <c r="Q33" s="8">
-        <v>2.9239999999999999E-2</v>
+        <v>0.02924</v>
       </c>
       <c r="R33" s="8">
-        <v>4.265E-2</v>
+        <v>0.04265</v>
       </c>
       <c r="S33" s="8">
-        <v>6.7419999999999994E-2</v>
+        <v>0.06741999999999999</v>
       </c>
       <c r="T33" s="8">
-        <v>0.14363999999999999</v>
+        <v>0.14364</v>
       </c>
       <c r="U33" s="8">
-        <v>0.62870999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.62871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -9787,64 +9969,64 @@
         <v>13818</v>
       </c>
       <c r="C34" s="7">
-        <v>99.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D34" s="7">
         <v>48.6</v>
       </c>
       <c r="E34" s="8">
-        <v>0.11811000000000001</v>
+        <v>0.11811</v>
       </c>
       <c r="F34" s="8">
-        <v>0.19298999999999999</v>
+        <v>0.19299</v>
       </c>
       <c r="G34" s="8">
         <v>0.11323</v>
       </c>
       <c r="H34" s="8">
-        <v>8.3180000000000004E-2</v>
+        <v>0.08318</v>
       </c>
       <c r="I34" s="8">
-        <v>6.6369999999999998E-2</v>
+        <v>0.06637</v>
       </c>
       <c r="J34" s="8">
-        <v>5.1810000000000002E-2</v>
+        <v>0.05181</v>
       </c>
       <c r="K34" s="8">
-        <v>3.5369999999999999E-2</v>
+        <v>0.03537</v>
       </c>
       <c r="L34" s="8">
-        <v>3.0929999999999999E-2</v>
+        <v>0.03093</v>
       </c>
       <c r="M34" s="8">
-        <v>2.2409999999999999E-2</v>
+        <v>0.02241</v>
       </c>
       <c r="N34" s="8">
-        <v>1.6449999999999999E-2</v>
+        <v>0.01645</v>
       </c>
       <c r="O34" s="8">
-        <v>1.6590000000000001E-2</v>
+        <v>0.01659</v>
       </c>
       <c r="P34" s="8">
-        <v>1.3679999999999999E-2</v>
+        <v>0.01368</v>
       </c>
       <c r="Q34" s="8">
-        <v>2.0230000000000001E-2</v>
+        <v>0.02023</v>
       </c>
       <c r="R34" s="8">
-        <v>2.8379999999999999E-2</v>
+        <v>0.02838</v>
       </c>
       <c r="S34" s="8">
-        <v>4.65E-2</v>
+        <v>0.0465</v>
       </c>
       <c r="T34" s="8">
-        <v>7.6340000000000005E-2</v>
+        <v>0.07634000000000001</v>
       </c>
       <c r="U34" s="8">
-        <v>6.7460000000000006E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.06746000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -9855,61 +10037,61 @@
         <v>100</v>
       </c>
       <c r="D35" s="7">
-        <v>95.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E35" s="8">
-        <v>6.9999999999999994E-5</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F35" s="8">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="G35" s="8">
-        <v>1.07E-3</v>
+        <v>0.00107</v>
       </c>
       <c r="H35" s="8">
-        <v>1.1999999999999999E-3</v>
+        <v>0.0012</v>
       </c>
       <c r="I35" s="8">
-        <v>2.3400000000000001E-3</v>
+        <v>0.00234</v>
       </c>
       <c r="J35" s="8">
-        <v>2.8800000000000002E-3</v>
+        <v>0.00288</v>
       </c>
       <c r="K35" s="8">
-        <v>4.4200000000000003E-3</v>
+        <v>0.00442</v>
       </c>
       <c r="L35" s="8">
-        <v>7.2899999999999996E-3</v>
+        <v>0.00729</v>
       </c>
       <c r="M35" s="8">
-        <v>1.225E-2</v>
+        <v>0.01225</v>
       </c>
       <c r="N35" s="8">
-        <v>1.546E-2</v>
+        <v>0.01546</v>
       </c>
       <c r="O35" s="8">
-        <v>2.443E-2</v>
+        <v>0.02443</v>
       </c>
       <c r="P35" s="8">
-        <v>3.848E-2</v>
+        <v>0.03848</v>
       </c>
       <c r="Q35" s="8">
-        <v>6.2570000000000001E-2</v>
+        <v>0.06257</v>
       </c>
       <c r="R35" s="8">
-        <v>0.10333000000000001</v>
+        <v>0.10333</v>
       </c>
       <c r="S35" s="8">
-        <v>0.17319000000000001</v>
+        <v>0.17319</v>
       </c>
       <c r="T35" s="8">
         <v>0.30268</v>
       </c>
       <c r="U35" s="8">
-        <v>0.24754000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.24754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -9917,64 +10099,64 @@
         <v>13991</v>
       </c>
       <c r="C36" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D36" s="7">
         <v>88.3</v>
       </c>
       <c r="E36" s="8">
-        <v>1.4300000000000001E-3</v>
+        <v>0.00143</v>
       </c>
       <c r="F36" s="8">
-        <v>6.0800000000000003E-3</v>
+        <v>0.00608</v>
       </c>
       <c r="G36" s="8">
-        <v>8.1600000000000006E-3</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="H36" s="8">
-        <v>7.3699999999999998E-3</v>
+        <v>0.00737</v>
       </c>
       <c r="I36" s="8">
-        <v>1.345E-2</v>
+        <v>0.01345</v>
       </c>
       <c r="J36" s="8">
-        <v>1.6449999999999999E-2</v>
+        <v>0.01645</v>
       </c>
       <c r="K36" s="8">
-        <v>2.0820000000000002E-2</v>
+        <v>0.02082</v>
       </c>
       <c r="L36" s="8">
-        <v>2.3609999999999999E-2</v>
+        <v>0.02361</v>
       </c>
       <c r="M36" s="8">
-        <v>2.9829999999999999E-2</v>
+        <v>0.02983</v>
       </c>
       <c r="N36" s="8">
-        <v>3.09E-2</v>
+        <v>0.0309</v>
       </c>
       <c r="O36" s="8">
-        <v>3.6200000000000003E-2</v>
+        <v>0.0362</v>
       </c>
       <c r="P36" s="8">
-        <v>4.335E-2</v>
+        <v>0.04335</v>
       </c>
       <c r="Q36" s="8">
-        <v>6.166E-2</v>
+        <v>0.06166</v>
       </c>
       <c r="R36" s="8">
         <v>0.10072</v>
       </c>
       <c r="S36" s="8">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="T36" s="8">
-        <v>0.21518000000000001</v>
+        <v>0.21518</v>
       </c>
       <c r="U36" s="8">
-        <v>0.24279000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.24279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -9982,64 +10164,64 @@
         <v>23670</v>
       </c>
       <c r="C37" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D37" s="7">
         <v>88.2</v>
       </c>
       <c r="E37" s="8">
-        <v>1.3500000000000001E-3</v>
+        <v>0.00135</v>
       </c>
       <c r="F37" s="8">
-        <v>3.9699999999999996E-3</v>
+        <v>0.00397</v>
       </c>
       <c r="G37" s="8">
-        <v>5.8799999999999998E-3</v>
+        <v>0.00588</v>
       </c>
       <c r="H37" s="8">
-        <v>9.3399999999999993E-3</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="I37" s="8">
-        <v>1.234E-2</v>
+        <v>0.01234</v>
       </c>
       <c r="J37" s="8">
-        <v>1.9449999999999999E-2</v>
+        <v>0.01945</v>
       </c>
       <c r="K37" s="8">
-        <v>2.435E-2</v>
+        <v>0.02435</v>
       </c>
       <c r="L37" s="8">
-        <v>3.3230000000000003E-2</v>
+        <v>0.03323</v>
       </c>
       <c r="M37" s="8">
-        <v>4.7469999999999998E-2</v>
+        <v>0.04747</v>
       </c>
       <c r="N37" s="8">
-        <v>5.2760000000000001E-2</v>
+        <v>0.05276</v>
       </c>
       <c r="O37" s="8">
-        <v>7.2669999999999998E-2</v>
+        <v>0.07267</v>
       </c>
       <c r="P37" s="8">
-        <v>7.9810000000000006E-2</v>
+        <v>0.07981000000000001</v>
       </c>
       <c r="Q37" s="8">
-        <v>0.10086000000000001</v>
+        <v>0.10086</v>
       </c>
       <c r="R37" s="8">
         <v>0.11655</v>
       </c>
       <c r="S37" s="8">
-        <v>0.13822999999999999</v>
+        <v>0.13823</v>
       </c>
       <c r="T37" s="8">
-        <v>0.17272999999999999</v>
+        <v>0.17273</v>
       </c>
       <c r="U37" s="8">
-        <v>0.10902000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.10902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -10047,49 +10229,49 @@
         <v>21483</v>
       </c>
       <c r="C38" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D38" s="7">
         <v>86.7</v>
       </c>
       <c r="E38" s="8">
-        <v>1.3500000000000001E-3</v>
+        <v>0.00135</v>
       </c>
       <c r="F38" s="8">
-        <v>8.8999999999999999E-3</v>
+        <v>0.0089</v>
       </c>
       <c r="G38" s="8">
-        <v>1.3599999999999999E-2</v>
+        <v>0.0136</v>
       </c>
       <c r="H38" s="8">
-        <v>1.9789999999999999E-2</v>
+        <v>0.01979</v>
       </c>
       <c r="I38" s="8">
-        <v>2.7289999999999998E-2</v>
+        <v>0.02729</v>
       </c>
       <c r="J38" s="8">
-        <v>3.288E-2</v>
+        <v>0.03288</v>
       </c>
       <c r="K38" s="8">
-        <v>3.7400000000000003E-2</v>
+        <v>0.0374</v>
       </c>
       <c r="L38" s="8">
-        <v>4.4990000000000002E-2</v>
+        <v>0.04499</v>
       </c>
       <c r="M38" s="8">
-        <v>5.2630000000000003E-2</v>
+        <v>0.05263</v>
       </c>
       <c r="N38" s="8">
-        <v>5.8029999999999998E-2</v>
+        <v>0.05803</v>
       </c>
       <c r="O38" s="8">
-        <v>6.8269999999999997E-2</v>
+        <v>0.06827</v>
       </c>
       <c r="P38" s="8">
-        <v>7.6609999999999998E-2</v>
+        <v>0.07661</v>
       </c>
       <c r="Q38" s="8">
-        <v>9.0719999999999995E-2</v>
+        <v>0.09072</v>
       </c>
       <c r="R38" s="8">
         <v>0.10628</v>
@@ -10101,10 +10283,10 @@
         <v>0.14382</v>
       </c>
       <c r="U38" s="8">
-        <v>9.0260000000000007E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.09026000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -10115,61 +10297,61 @@
         <v>82.8</v>
       </c>
       <c r="D39" s="7">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E39" s="8">
-        <v>4.4000000000000002E-4</v>
+        <v>0.00044</v>
       </c>
       <c r="F39" s="8">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="G39" s="8">
-        <v>8.0999999999999996E-4</v>
+        <v>0.00081</v>
       </c>
       <c r="H39" s="8">
-        <v>9.2000000000000003E-4</v>
+        <v>0.00092</v>
       </c>
       <c r="I39" s="8">
-        <v>1.3799999999999999E-3</v>
+        <v>0.00138</v>
       </c>
       <c r="J39" s="8">
-        <v>1.3600000000000001E-3</v>
+        <v>0.00136</v>
       </c>
       <c r="K39" s="8">
-        <v>2.2100000000000002E-3</v>
+        <v>0.00221</v>
       </c>
       <c r="L39" s="8">
-        <v>3.0899999999999999E-3</v>
+        <v>0.00309</v>
       </c>
       <c r="M39" s="8">
-        <v>4.1000000000000003E-3</v>
+        <v>0.0041</v>
       </c>
       <c r="N39" s="8">
-        <v>4.6499999999999996E-3</v>
+        <v>0.00465</v>
       </c>
       <c r="O39" s="8">
-        <v>6.7499999999999999E-3</v>
+        <v>0.00675</v>
       </c>
       <c r="P39" s="8">
-        <v>9.0299999999999998E-3</v>
+        <v>0.00903</v>
       </c>
       <c r="Q39" s="8">
-        <v>1.372E-2</v>
+        <v>0.01372</v>
       </c>
       <c r="R39" s="8">
-        <v>2.0840000000000001E-2</v>
+        <v>0.02084</v>
       </c>
       <c r="S39" s="8">
-        <v>3.9390000000000001E-2</v>
+        <v>0.03939</v>
       </c>
       <c r="T39" s="8">
-        <v>9.5640000000000003E-2</v>
+        <v>0.09564</v>
       </c>
       <c r="U39" s="8">
         <v>0.79479</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -10183,58 +10365,58 @@
         <v>91.8</v>
       </c>
       <c r="E40" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="F40" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="I40" s="8">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J40" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="K40" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="L40" s="8">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="M40" s="8">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="N40" s="8">
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P40" s="8">
-        <v>5.5000000000000003E-4</v>
+        <v>0.00055</v>
       </c>
       <c r="Q40" s="8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="R40" s="8">
-        <v>1.1100000000000001E-3</v>
+        <v>0.00111</v>
       </c>
       <c r="S40" s="8">
-        <v>2.5100000000000001E-3</v>
+        <v>0.00251</v>
       </c>
       <c r="T40" s="8">
-        <v>6.9899999999999997E-3</v>
+        <v>0.00699</v>
       </c>
       <c r="U40" s="8">
-        <v>0.98707999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.98708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -10245,61 +10427,61 @@
         <v>100</v>
       </c>
       <c r="D41" s="7">
-        <v>94.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E41" s="8">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="F41" s="8">
-        <v>1.0489999999999999E-2</v>
+        <v>0.01049</v>
       </c>
       <c r="G41" s="8">
-        <v>1.6320000000000001E-2</v>
+        <v>0.01632</v>
       </c>
       <c r="H41" s="8">
-        <v>1.7479999999999999E-2</v>
+        <v>0.01748</v>
       </c>
       <c r="I41" s="8">
-        <v>2.33E-3</v>
+        <v>0.00233</v>
       </c>
       <c r="J41" s="8">
-        <v>4.6600000000000001E-3</v>
+        <v>0.00466</v>
       </c>
       <c r="K41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="L41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="M41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="N41" s="8">
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="P41" s="8">
-        <v>2.33E-3</v>
+        <v>0.00233</v>
       </c>
       <c r="Q41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="R41" s="8">
-        <v>2.33E-3</v>
+        <v>0.00233</v>
       </c>
       <c r="S41" s="8">
-        <v>1.17E-3</v>
+        <v>0.00117</v>
       </c>
       <c r="T41" s="8">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="U41" s="8">
-        <v>0.93006999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.93007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -10307,64 +10489,64 @@
         <v>10781</v>
       </c>
       <c r="C42" s="7">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D42" s="7">
-        <v>85.9</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E42" s="8">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="F42" s="8">
-        <v>7.1500000000000001E-3</v>
+        <v>0.00715</v>
       </c>
       <c r="G42" s="8">
-        <v>6.3099999999999996E-3</v>
+        <v>0.00631</v>
       </c>
       <c r="H42" s="8">
-        <v>6.5900000000000004E-3</v>
+        <v>0.00659</v>
       </c>
       <c r="I42" s="8">
-        <v>7.9799999999999992E-3</v>
+        <v>0.007979999999999999</v>
       </c>
       <c r="J42" s="8">
-        <v>1.2630000000000001E-2</v>
+        <v>0.01263</v>
       </c>
       <c r="K42" s="8">
-        <v>1.244E-2</v>
+        <v>0.01244</v>
       </c>
       <c r="L42" s="8">
-        <v>1.2529999999999999E-2</v>
+        <v>0.01253</v>
       </c>
       <c r="M42" s="8">
-        <v>1.8380000000000001E-2</v>
+        <v>0.01838</v>
       </c>
       <c r="N42" s="8">
-        <v>2.0049999999999998E-2</v>
+        <v>0.02005</v>
       </c>
       <c r="O42" s="8">
-        <v>2.1909999999999999E-2</v>
+        <v>0.02191</v>
       </c>
       <c r="P42" s="8">
-        <v>2.6550000000000001E-2</v>
+        <v>0.02655</v>
       </c>
       <c r="Q42" s="8">
-        <v>3.7420000000000002E-2</v>
+        <v>0.03742</v>
       </c>
       <c r="R42" s="8">
-        <v>5.1159999999999997E-2</v>
+        <v>0.05116</v>
       </c>
       <c r="S42" s="8">
-        <v>6.0810000000000003E-2</v>
+        <v>0.06081</v>
       </c>
       <c r="T42" s="8">
-        <v>7.7240000000000003E-2</v>
+        <v>0.07724</v>
       </c>
       <c r="U42" s="8">
-        <v>0.61822999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.6182299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -10378,58 +10560,58 @@
         <v>73</v>
       </c>
       <c r="E43" s="8">
-        <v>4.648E-2</v>
+        <v>0.04648</v>
       </c>
       <c r="F43" s="8">
-        <v>4.4690000000000001E-2</v>
+        <v>0.04469</v>
       </c>
       <c r="G43" s="8">
-        <v>1.511E-2</v>
+        <v>0.01511</v>
       </c>
       <c r="H43" s="8">
-        <v>6.8300000000000001E-3</v>
+        <v>0.00683</v>
       </c>
       <c r="I43" s="8">
-        <v>4.5500000000000002E-3</v>
+        <v>0.00455</v>
       </c>
       <c r="J43" s="8">
-        <v>5.8500000000000002E-3</v>
+        <v>0.00585</v>
       </c>
       <c r="K43" s="8">
-        <v>4.7099999999999998E-3</v>
+        <v>0.00471</v>
       </c>
       <c r="L43" s="8">
-        <v>4.2300000000000003E-3</v>
+        <v>0.00423</v>
       </c>
       <c r="M43" s="8">
-        <v>4.2300000000000003E-3</v>
+        <v>0.00423</v>
       </c>
       <c r="N43" s="8">
-        <v>3.2499999999999999E-3</v>
+        <v>0.00325</v>
       </c>
       <c r="O43" s="8">
-        <v>5.6899999999999997E-3</v>
+        <v>0.00569</v>
       </c>
       <c r="P43" s="8">
-        <v>4.3899999999999998E-3</v>
+        <v>0.00439</v>
       </c>
       <c r="Q43" s="8">
-        <v>7.9600000000000001E-3</v>
+        <v>0.00796</v>
       </c>
       <c r="R43" s="8">
-        <v>1.089E-2</v>
+        <v>0.01089</v>
       </c>
       <c r="S43" s="8">
-        <v>2.0639999999999999E-2</v>
+        <v>0.02064</v>
       </c>
       <c r="T43" s="8">
-        <v>5.2819999999999999E-2</v>
+        <v>0.05282</v>
       </c>
       <c r="U43" s="8">
-        <v>0.75768000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.75768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -10437,58 +10619,58 @@
         <v>2718</v>
       </c>
       <c r="C44" s="7">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D44" s="7">
         <v>15.2</v>
       </c>
       <c r="E44" s="8">
-        <v>0.62668999999999997</v>
+        <v>0.62669</v>
       </c>
       <c r="F44" s="8">
-        <v>9.5689999999999997E-2</v>
+        <v>0.09569</v>
       </c>
       <c r="G44" s="8">
-        <v>5.4210000000000001E-2</v>
+        <v>0.05421</v>
       </c>
       <c r="H44" s="8">
-        <v>3.9010000000000003E-2</v>
+        <v>0.03901</v>
       </c>
       <c r="I44" s="8">
-        <v>1.9709999999999998E-2</v>
+        <v>0.01971</v>
       </c>
       <c r="J44" s="8">
-        <v>1.478E-2</v>
+        <v>0.01478</v>
       </c>
       <c r="K44" s="8">
-        <v>9.0299999999999998E-3</v>
+        <v>0.00903</v>
       </c>
       <c r="L44" s="8">
-        <v>7.7999999999999996E-3</v>
+        <v>0.0078</v>
       </c>
       <c r="M44" s="8">
-        <v>2.8700000000000002E-3</v>
+        <v>0.00287</v>
       </c>
       <c r="N44" s="8">
-        <v>4.1099999999999999E-3</v>
+        <v>0.00411</v>
       </c>
       <c r="O44" s="8">
-        <v>2.8700000000000002E-3</v>
+        <v>0.00287</v>
       </c>
       <c r="P44" s="8">
-        <v>4.5199999999999997E-3</v>
+        <v>0.00452</v>
       </c>
       <c r="Q44" s="8">
-        <v>2.8700000000000002E-3</v>
+        <v>0.00287</v>
       </c>
       <c r="R44" s="8">
-        <v>2.8700000000000002E-3</v>
+        <v>0.00287</v>
       </c>
       <c r="S44" s="8">
-        <v>4.5199999999999997E-3</v>
+        <v>0.00452</v>
       </c>
       <c r="T44" s="8">
-        <v>6.1599999999999997E-3</v>
+        <v>0.00616</v>
       </c>
       <c r="U44" s="8">
         <v>0.10226</v>
